--- a/netflix_items_watson_analysis.xlsx
+++ b/netflix_items_watson_analysis.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="194">
+  <si>
+    <t>NA..1</t>
+  </si>
   <si>
     <t>NA.</t>
   </si>
@@ -47,16 +50,13 @@
     <t>episodes</t>
   </si>
   <si>
-    <t>IMDB.id</t>
+    <t>IMDB_id</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>cast</t>
-  </si>
-  <si>
-    <t>IMDB.id.1</t>
+    <t>Netflix_id</t>
   </si>
   <si>
     <t>anger</t>
@@ -327,7 +327,7 @@
   </si>
   <si>
     <t xml:space="preserve">Two U.S. soldiers in the first Gulf War are programmed to rebel once they return home. Several years later, one becomes a vice presidential candidate. 
-During the Korean War, the Soviets capture an American platoon and take them to Manchuria in Communist China. After the war, the soldiers return to the United States, and Staff Sergeant Raymond Shaw (Laurence Harvey) is credited with saving their lives in combat. Upon the recommendation of the platoon's commander, Captain Bennett Marco (Frank Sinatra), Shaw is awarded the Medal of Honor for his supposed actions. In addition, when asked to describe him, Marco and the other soldiers automatically respond, "Raymond Shaw is the kindest, bravest, warmest, most wonderful human being I've ever known in my life."Deep down, however, they know that Shaw is a cold, sad, unsociable loner. As Marco puts it: "It isn't as if Raymond is hard to like. He's impossible to like!" Marco who has since been promoted to Major suffers from a recurring nightmare in which a hypnotized Shaw strangles one of his fellow soldiers, and shoots another, killing both before the assembled military brass of communist nations, during a practical demonstration of a brainwashing technique. (Raymond and his platoon have been hypnotized into believing that the Korean military brass are a bunch of harmless old American ladies from a garden club.) Marco wants to investigate, but receives no support from Army Intelligence as he has no proof. However, Marco learns that another soldier from the platoon, Allen Melvin (James Edwards), has had the same nightmare. When Melvin and Marco separately identify some of the men in the dream as leading figures in communist governments, Army Intelligence decides that this is too much of a coincidence and agrees to help Marco investigate.Shaw's mother, Mrs. Eleanor Iselin (Angela Lansbury), is the driving force behind her husband, Shaw's step-father, Senator John Yerkes Iselin (James Gregory), a bombastic demagogue in the style of Joseph McCarthy, who is dismissed by most people as a fool. Shaw hates them both, especially his domineering mother. Senator Iselin's political stature is established when (per his wife's orders) he interrupts a televised press conference given by the Secretary of Defense, accusing him of knowing that some 207 Defense Department employees are "card carrying" Communists. This provokes the expected chaos and shock among journalists and an enraged reaction from the Secretary.However, unknown to everyone including Raymond, the Iselins are actually Communist agents with a plan intended to take them all the way to the White House. His mother is actually the American "operative" for whom Raymond is to effect the operation's final step. Raymond was conditioned in Manchuria to be an unwitting assassin whose actions are triggered by a Queen of Diamonds playing card. When he sees it, he will obey the next suggestion or order given to him by anyone. When given instructions to kill selected targets, he must also kill any witnesses and never remember his actions, making him the perfect assassin. It is revealed that Shaw's heroic action was a false memory implanted in the platoon by the communists in Manchuria, and that they were covertly returned to the American lines when their conditioning was completed. The actions for which Shaw was awarded his Medal of Honor never took place.Raymond briefly finds happiness when he rekindles a youthful romance with Jocelyn Jordan (Leslie Parrish), the daughter of Senator Thomas Jordan (John McGiver), one of his stepfather's political rivals. Raymond had previously courted Jocelyn in order to get at his parents in a Romeo and Juliet-style romance, but they then genuinely fell in love, both she and her father being the nearest thing Raymond has ever had to having friends. Mrs. Iselin broke up the relationship for obvious political reasons, but now facilitates the couple's reunion as part of her scheme to garner the support of Senator Jordan for her husband's own sudden vice presidential bid.Jocelyn, wearing a Queen of Diamonds costume outfit, inadvertently hypnotizes Raymond at a costume party thrown by the Iselins and the couple elopes. Although pleased with the match, Senator Jordan makes it clear to Mrs. Iselin that he will move for her husband's impeachment if he makes any attempt to seek the vice-presidential nomination. Raymond's conditioning is then triggered by his mother and he is sent to assassinate Jordan. Jocelyn happens upon the scene and is also shot dead as a witness to the event. Raymond has no knowledge of his actions and is genuinely grief-stricken when he learns of the murders.In the course of Marco's investigation, he discovers the role of the Queen of Diamonds card in putting Raymond into the hypnotic state for his assignments. Marco meets Raymond and, using a deck composed entirely of such cards, gets the full story and orders Raymond to break the links between the card and to disobey any further subsequent orders from his controllers. Unaware of this, Mrs. Iselin primes her son to assassinate their party's presidential candidate at the nomination convention so that Senator Iselin, as the vice-presidential candidate, will become the presidential candidate by default and give an inflammatory anti-Communist speech (written by the Communists themselves). This will cause mass hysteria that will get Iselin, "the Manchurian candidate", elected and justify such emergency powers that, in Mrs. Iselin's words, "will make martial law seem like anarchy".In a cynically moving scene, Mrs. Iselin asserts that she did not know that it was her son who was to be selected by the Communists, who apparently chose him to be the assassin because they believed it would solidify their own hold and control over her. Furious, she vows that once in power she will "grind them into the dirt". She proceeds to give her "hypnotized" son a decidedly non-maternal kiss.Marco's attempt to free Raymond appears to have failed. Raymond enters the convention hall disguised as a Catholic priest and takes up a position to carry out the assassination as he was instructed, using a rifle with a scope. Marco and his supervisor, Colonel Milt (Douglas Henderson), arrive at the convention to stop him. As the Presidential nominee (Robert Riordan) makes his speech, Raymond instead takes his revenge by shooting his stepfather and mother dead. He then commits suicide in front of Marco while wearing his Medal of Honor.
+This is a remake of the 1962 thriller of soldiers, returning from war, who have been brainwashed and programmed to kill. The movie has been updated from the Korean War era to the war in Iraq (Desert Storm). Captain Bennett Marco (Denzel Washington) is now playing Frank Sinatra's part. Time has passed, and now Major Marco is giving speeches about his platoon being ambushed in the Kuwaiti desert. The Lost Platoon was saved by the heroics of Sergeant Raymond Prentiss Shaw (Liev Schreiber), who received the Medal of Honor. Shaw is now a candidate, running for Vice-President of the United States. Marco can't sleep at night, and when he does, he is having nightmares of what really happened in the desert. He thinks Shaw might not be a hero, and that he may have had something to do with the death of two soldiers in the desert. Marco tries to find the truth and people around him begin to die.Douglas Young (the-movie-guy)
 </t>
   </si>
   <si>
@@ -343,9 +343,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Release Year: 2010Police Comm. Reagan constantly tends to the well-being of his progeny, which includes Det. Danny, assistant DA Erin and rookie cop Jamie.1. Pilot43mIn the pilot episode, Jamie graduates from the Police Academy and joins the NYPD after deciding not to pursue his career as a lawyer.2. Samaritan43mA good Samaritan who takes action against a criminal terrorizing the subway has the Reagans pondering the rights and wrongs of vigilantism.3. Privilege43mErin, Frank and Danny must find a way to bring justice for a rape victim when the suspect is protected by diplomatic immunity.4. Officer Down43mThe entire NYPD is mobilized to find the killer of a police officer who exchanged gunfire with robbers during a diamond heist.5. What You See43mFrank, Danny and the rest of the NYPD search for a bomb set to detonate in Manhattan. The Reagans argue the merits and downfalls of profiling.6. Smack Attack43mDanny must find the narcotic source when three teenagers die from a drug overdose.7. Brothers44mErin's family debates her methods when she uses a law-abiding citizen as bait to take down his gang leader brother.8. Chinatown43mJamie witnesses a crime in progress and kills the suspect while pursuing him. Danny must solve the case to clear Jamie's name.9. Re-Do42mThree released prison inmates place the Reagan family in danger. They try to get one of the criminal's surviving victims to testify against him.10. After Hours43mWhile Danny investigates the murder of a popular nightclub's doorman, Frank gets information that his ex-partner is covering up crimes.11. Little Fish43mA cold case of Frank's is brought to the forefront when a missing boy's remains are found. Danny and Jackie look into the death of a high-end escort.12. Family Ties43mDanny investigates when the son of a Russian gangster is killed and Erin is assigned a high-profile corruption case.13. Hall of Mirrors41mBecause it involves classified information and a sleeper cell, Frank assigns Danny to cover the shooting of an undercover counter-terrorism agent.14. My Funny Valentine43mA drug addict becomes the prime focus of Danny and Jackie's investigation after the man's girlfriend is kidnapped and held for ransom.15. Dedication42mIs someone out to assassinate the Commissioner or was the shooting random? Danny takes on the assignment to find out the answer.16. Age of Innocence43mNicky goes with Danny to a crime scene where a girl has been murdered, and she has a difficult time coping after seeing her first murder victim.17. Silver Star43mAs a former Marine, Danny feels responsible for finding the killer of a Marine war hero. There's a false rumor that Frank is going to run for mayor.18. To Tell the Truth43mJust before Danny is to testify at a Peruvian drug lord's murder trial, Linda is kidnapped. This drug lord has a history of intimidating witnesses.19. Model Behavior41mDanny and Jackie investigate the cut-throat world of fashion after Linda's runway model niece and a reporter are poisoned at a fashion show.20. All That Glitters43mFrank's frustrations rise when the media sensationalizes the murder of a tourist shot and killed outside a trendy Lower East Side restaurant.21. Cellar Boy43mNeighbors of the Reagans are murdered, and their son becomes the prime suspect. Jamie is convinced he's being pursued by the Blue Templar.22. The Blue Templar44mWhen a drug bust points to dirty cops, Frank decides not to involve Internal Affairs in the hopes of taking down and exposing the Blue Templar., Release Year: 2010, 1. Pilot43mIn the pilot episode, Jamie graduates from the Police Academy and joins the NYPD after deciding not to pursue his career as a lawyer.2. Samaritan43mA good Samaritan who takes action against a criminal terrorizing the subway has the Reagans pondering the rights and wrongs of vigilantism.3. Privilege43mErin, Frank and Danny must find a way to bring justice for a rape victim when the suspect is protected by diplomatic immunity.4. Officer Down43mThe entire NYPD is mobilized to find the killer of a police officer who exchanged gunfire with robbers during a diamond heist.5. What You See43mFrank, Danny and the rest of the NYPD search for a bomb set to detonate in Manhattan. The Reagans argue the merits and downfalls of profiling.6. Smack Attack43mDanny must find the narcotic source when three teenagers die from a drug overdose.7. Brothers44mErin's family debates her methods when she uses a law-abiding citizen as bait to take down his gang leader brother.8. Chinatown43mJamie witnesses a crime in progress and kills the suspect while pursuing him. Danny must solve the case to clear Jamie's name.9. Re-Do42mThree released prison inmates place the Reagan family in danger. They try to get one of the criminal's surviving victims to testify against him.10. After Hours43mWhile Danny investigates the murder of a popular nightclub's doorman, Frank gets information that his ex-partner is covering up crimes.11. Little Fish43mA cold case of Frank's is brought to the forefront when a missing boy's remains are found. Danny and Jackie look into the death of a high-end escort.12. Family Ties43mDanny investigates when the son of a Russian gangster is killed and Erin is assigned a high-profile corruption case.13. Hall of Mirrors41mBecause it involves classified information and a sleeper cell, Frank assigns Danny to cover the shooting of an undercover counter-terrorism agent.14. My Funny Valentine43mA drug addict becomes the prime focus of Danny and Jackie's investigation after the man's girlfriend is kidnapped and held for ransom.15. Dedication42mIs someone out to assassinate the Commissioner or was the shooting random? Danny takes on the assignment to find out the answer.16. Age of Innocence43mNicky goes with Danny to a crime scene where a girl has been murdered, and she has a difficult time coping after seeing her first murder victim.17. Silver Star43mAs a former Marine, Danny feels responsible for finding the killer of a Marine war hero. There's a false rumor that Frank is going to run for mayor.18. To Tell the Truth43mJust before Danny is to testify at a Peruvian drug lord's murder trial, Linda is kidnapped. This drug lord has a history of intimidating witnesses.19. Model Behavior41mDanny and Jackie investigate the cut-throat world of fashion after Linda's runway model niece and a reporter are poisoned at a fashion show.20. All That Glitters43mFrank's frustrations rise when the media sensationalizes the murder of a tourist shot and killed outside a trendy Lower East Side restaurant.21. Cellar Boy43mNeighbors of the Reagans are murdered, and their son becomes the prime suspect. Jamie is convinced he's being pursued by the Blue Templar.22. The Blue Templar44mWhen a drug bust points to dirty cops, Frank decides not to involve Internal Affairs in the hopes of taking down and exposing the Blue Templar., Release Year: 2011In Season 2, Jamie's undercover investigation of the mob becomes dangerous, Frank wrestles with City Hall politics, and Danny faces Erin in court.1. Mercy44mWhen one of his supporters is murdered, the new mayor pressures Frank to spin the killing as a random act of violence.2. Friendly Fire43mAfter Danny accidentally shoots a cop, Internal Affairs starts an investigation, focusing on his state of mind at the time of the shooting.3. Critical Condition42mDanny discovers that a former cop is one of the men who attempted to rob a bank. Meanwhile, Jamie gets a new partner.4. Innocence42mErin reopens an 18-year-old rape case first investigated by Frank. Meanwhile, Danny and Jackie probe the murders of three teens in a park.5. A Night on the Town43mWhile on a case, Danny tries to swing a romantic weekend with Linda. Elsewhere, Jamie's undercover assignment takes him inside a crime family.6. Black and Blue41mFrank must deal with a political crisis after Jamie and Renzulli are injured while attempting to enter a religious center in response to a 911 call.7. Lonely Hearts Club42mWhen a serial killer starts targeting prostitutes, Jackie goes undercover as an escort. Meanwhile, Erin meets a man who shares her interests.8. Thanksgiving44mHenry's heart attack on Thanksgiving eve leaves the family pondering a future without him. Meanwhile, Danny and Jackie look into an alleged suicide.9. Moonlighting42mTo get leniency for his son, an ex-mobster helps Danny on some cold cases. Meanwhile, Jamie works undercover in the Sanfino crime family.10. Whistle Blower42mDanny and Erin must work together to find out who killed her informant.11. The Uniform40mDanny and Jackie investigate when a uniformed officer is seen fleeing the scene of a murder at a diner.12. The Job44mWhile driving his family home, Danny becomes involved in a shooting after his car strikes a man running from a gunman.13. Leap of Faith43mAfter a rich woman dies of a heart attack, her daughter claims God told her that her mother was murdered, prompting Danny and Jackie to investigate.14. Parenthood44mWhen a thief is shot and killed after robbing and beating a family, the Reagans ponder how far they'd go to protect one another.15. The Life We Choose41mDanny's family worries about his emotional state as he and Jackie investigate the murder of a Reagan family friend who was an undercover detective.16. Women with Guns42mA high-profile reporter, who happens to be a close friend of Frank's, is almost assaulted. Elsewhere, Jamie's undercover case reaches a crucial stage.17. Reagan v. Reagan43mWhile Erin is prosecuting a homicide case, the defendant's lawyer is murdered. Danny investigates, and things get tense when Erin cross-examines him.18. No Questions Asked42mA gun buyback program has a no-questions-asked rule, but when a returned gun is linked to a robbery, Danny must decide whether to arrest the suspect.19. Some Kind of Hero41mPressured by the 12-year-old son of a firefighter whose death was ruled a suicide, Danny reopens a closed case, enraging his fellow detectives.20. Working Girls42mAfter an attempt is made on the life of a witness in protective custody, Danny and Jackie discover a leak within the department.21. Collateral Damage42mA big-spending investor's death looks suspicious to Danny and Jackie. Meanwhile, Jamie is placed under house arrest when a hit is put out on his life.22. Mother's Day43mUnbeknownst to his family, Frank must deal with a potential biological weapons attack on New York City as the Reagans celebrate Mother's Day., Release Year: 2011, 1. Mercy44mWhen one of his supporters is murdered, the new mayor pressures Frank to spin the killing as a random act of violence.2. Friendly Fire43mAfter Danny accidentally shoots a cop, Internal Affairs starts an investigation, focusing on his state of mind at the time of the shooting.3. Critical Condition42mDanny discovers that a former cop is one of the men who attempted to rob a bank. Meanwhile, Jamie gets a new partner.4. Innocence42mErin reopens an 18-year-old rape case first investigated by Frank. Meanwhile, Danny and Jackie probe the murders of three teens in a park.5. A Night on the Town43mWhile on a case, Danny tries to swing a romantic weekend with Linda. Elsewhere, Jamie's undercover assignment takes him inside a crime family.6. Black and Blue41mFrank must deal with a political crisis after Jamie and Renzulli are injured while attempting to enter a religious center in response to a 911 call.7. Lonely Hearts Club42mWhen a serial killer starts targeting prostitutes, Jackie goes undercover as an escort. Meanwhile, Erin meets a man who shares her interests.8. Thanksgiving44mHenry's heart attack on Thanksgiving eve leaves the family pondering a future without him. Meanwhile, Danny and Jackie look into an alleged suicide.9. Moonlighting42mTo get leniency for his son, an ex-mobster helps Danny on some cold cases. Meanwhile, Jamie works undercover in the Sanfino crime family.10. Whistle Blower42mDanny and Erin must work together to find out who killed her informant.11. The Uniform40mDanny and Jackie investigate when a uniformed officer is seen fleeing the scene of a murder at a diner.12. The Job44mWhile driving his family home, Danny becomes involved in a shooting after his car strikes a man running from a gunman.13. Leap of Faith43mAfter a rich woman dies of a heart attack, her daughter claims God told her that her mother was murdered, prompting Danny and Jackie to investigate.14. Parenthood44mWhen a thief is shot and killed after robbing and beating a family, the Reagans ponder how far they'd go to protect one another.15. The Life We Choose41mDanny's family worries about his emotional state as he and Jackie investigate the murder of a Reagan family friend who was an undercover detective.16. Women with Guns42mA high-profile reporter, who happens to be a close friend of Frank's, is almost assaulted. Elsewhere, Jamie's undercover case reaches a crucial stage.17. Reagan v. Reagan43mWhile Erin is prosecuting a homicide case, the defendant's lawyer is murdered. Danny investigates, and things get tense when Erin cross-examines him.18. No Questions Asked42mA gun buyback program has a no-questions-asked rule, but when a returned gun is linked to a robbery, Danny must decide whether to arrest the suspect.19. Some Kind of Hero41mPressured by the 12-year-old son of a firefighter whose death was ruled a suicide, Danny reopens a closed case, enraging his fellow detectives.20. Working Girls42mAfter an attempt is made on the life of a witness in protective custody, Danny and Jackie discover a leak within the department.21. Collateral Damage42mA big-spending investor's death looks suspicious to Danny and Jackie. Meanwhile, Jamie is placed under house arrest when a hit is put out on his life.22. Mother's Day43mUnbeknownst to his family, Frank must deal with a potential biological weapons attack on New York City as the Reagans celebrate Mother's Day., Release Year: 2012For Frank Reagan's family, law enforcement is the only business that matters. As NYC Police Commissioner, Frank holds the same position his dad did.1. Family Business41mA dangerous criminal from Danny's past comes back to seek revenge and kidnaps Jackie. Meanwhile, Jamie meets his new partner.2. Domestic Disturbance43mWhen an injured woman recants her claim of domestic violence, Danny and Jackie find that she is involved in a secret relationship.3. Old Wounds43mDanny believes a serial killer is on the loose when two separate murder victims are identified as members of a group charged with a gang rape.4. Scorched Earth42mDanny and Jackie set out to investigate the murder of a bride on her wedding day in a drive-by gang shooting, but are diverted to a different case.5. Risk and Reward40mShortly after Frank awards a detective with a medal for his undercover work in Malaysia, the detective is taken hostage by a Malaysian drug lord.6. Greener Grass41mWhen Erin's key witness, an infamous photographer, is nearly killed in a hit and run, she arranges for Danny to safeguard him.7. Nightmares43mWhen a knife-wielding attacker dressed as Baron Samedi, the Spirit of Death, stabs a man in costume on Halloween, Danny enters the world of voodoo.8. Higher Education44mDanny arrives at a college campus to find a murdered student, who was thought to be dealing drugs.9. Secrets and Lies43mWhen Danny and Kate come up empty-handed on leads for a shooting, Linda overhears the victim telling his priest who is responsible.10. Fathers and Sons40mWhen two motorists driving gas-guzzling cars die at the hands of a sniper, the city believes it's the work of a radical environmental serial killer.11. Front Page News42mJamie must deal with the emotional consequences of his actions on the job when he has a confrontation with a suicidal man.12. Framed42mDanny's car matches an NYPD description of a vehicle involved in a drug deal, and he is taken into custody when cocaine is found in the trunk.13. Inside Jobs42mWhen a man with multiple rat bites is thrown from a moving car, Danny works the case to find out who was trying to send a message and why.14. Men in Black43mBefore a Hasidic grand rebbe passes away, he chooses his youngest son to succeed him. But when the new appointee dies suddenly, Danny investigates.15. Warriors43mWhen a 10-year-old boy is the victim of an incident in the projects, Danny's heated approach to the case lands him in anger management class.16. Quid Pro Quo41mErin and Danny investigate a cold case involving a girl who was attacked by her rich and powerful boyfriend, who was never convicted.17. Protest Too Much43mWhen an off-duty cop tries to stop a bank robbery, he is disarmed by the "Bonnie and Clyde" robbers who take his gun and wound an innocent bystander.18. No Regrets44mWhen the same tragedy occurs to people who don't appear to be connected, Danny must find out what they have in common and who is responsible.19. Loss of Faith42mWhen a religious young woman is murdered, Danny questions her family members, who are shocked to learn that she had a secret relationship.20. Ends &amp; Means43mWhen two Wall Street brokers are killed in drug deals, Danny looks to question a wounded accomplice at the hospital, but he is stopped by Linda.21. Devil's Breath43mWhen Danny finds a disoriented man covered in blood in a park, he finds it hard to believe that the man has no recollection of the night's events.22. The Bitter End40mWhen a young woman commits suicide, Danny is emotional because he promised to help the woman when her parents were taken from her.23. This Way Out41mAs the Reagans rally to take down a gang leader responsible for the murder of someone close to them, Danny looks to the leader's girlfriend for help., Release Year: 2012, 1. Family Business41mA dangerous criminal from Danny's past comes back to seek revenge and kidnaps Jackie. Meanwhile, Jamie meets his new partner.2. Domestic Disturbance43mWhen an injured woman recants her claim of domestic violence, Danny and Jackie find that she is involved in a secret relationship.3. Old Wounds43mDanny believes a serial killer is on the loose when two separate murder victims are identified as members of a group charged with a gang rape.4. Scorched Earth42mDanny and Jackie set out to investigate the murder of a bride on her wedding day in a drive-by gang shooting, but are diverted to a different case.5. Risk and Reward40mShortly after Frank awards a detective with a medal for his undercover work in Malaysia, the detective is taken hostage by a Malaysian drug lord.6. Greener Grass41mWhen Erin's key witness, an infamous photographer, is nearly killed in a hit and run, she arranges for Danny to safeguard him.7. Nightmares43mWhen a knife-wielding attacker dressed as Baron Samedi, the Spirit of Death, stabs a man in costume on Halloween, Danny enters the world of voodoo.8. Higher Education44mDanny arrives at a college campus to find a murdered student, who was thought to be dealing drugs.9. Secrets and Lies43mWhen Danny and Kate come up empty-handed on leads for a shooting, Linda overhears the victim telling his priest who is responsible.10. Fathers and Sons40mWhen two motorists driving gas-guzzling cars die at the hands of a sniper, the city believes it's the work of a radical environmental serial killer.11. Front Page News42mJamie must deal with the emotional consequences of his actions on the job when he has a confrontation with a suicidal man.12. Framed42mDanny's car matches an NYPD description of a vehicle involved in a drug deal, and he is taken into custody when cocaine is found in the trunk.13. Inside Jobs42mWhen a man with multiple rat bites is thrown from a moving car, Danny works the case to find out who was trying to send a message and why.14. Men in Black43mBefore a Hasidic grand rebbe passes away, he chooses his youngest son to succeed him. But when the new appointee dies suddenly, Danny investigates.15. Warriors43mWhen a 10-year-old boy is the victim of an incident in the projects, Danny's heated approach to the case lands him in anger management class.16. Quid Pro Quo41mErin and Danny investigate a cold case involving a girl who was attacked by her rich and powerful boyfriend, who was never convicted.17. Protest Too Much43mWhen an off-duty cop tries to stop a bank robbery, he is disarmed by the "Bonnie and Clyde" robbers who take his gun and wound an innocent bystander.18. No Regrets44mWhen the same tragedy occurs to people who don't appear to be connected, Danny must find out what they have in common and who is responsible.19. Loss of Faith42mWhen a religious young woman is murdered, Danny questions her family members, who are shocked to learn that she had a secret relationship.20. Ends &amp; Means43mWhen two Wall Street brokers are killed in drug deals, Danny looks to question a wounded accomplice at the hospital, but he is stopped by Linda.21. Devil's Breath43mWhen Danny finds a disoriented man covered in blood in a park, he finds it hard to believe that the man has no recollection of the night's events.22. The Bitter End40mWhen a young woman commits suicide, Danny is emotional because he promised to help the woman when her parents were taken from her.23. This Way Out41mAs the Reagans rally to take down a gang leader responsible for the murder of someone close to them, Danny looks to the leader's girlfriend for help., Release Year: 2013In Season 4, the Reagan family's challenges range from police killings to hostage crises to personal issues, but they face them as a family.1. Unwritten Rules44mWhen an armed robbery ends with the death of a police officer, Frank makes it a mission for the NYPD to bring the suspect to justice.2. The City That Never Sleeps44mWhen famous movie star Russell Berke is stabbed, Danny goes to his aid, but must keep the crime on the down-low due to Berke's celebrity status.3. To Protect and Serve41mDanny becomes the lead hostage negotiator when a prime informant in a large drug case holds Erin at gunpoint inside the courtroom.4. The Truth About Lying42mDanny and Baez investigate the death of a teenage girl who appears to have been pushed in front of a subway car by a homeless man.5. Lost and Found42mWhen Danny and Baez suspect a little girl might be the victim of a kidnapping, the girl's mother denies it, but her story doesn't add up.6. Growing Boys43mWhen a gangbanger dies after Jamie chases him away from the boy he's mentoring, Jamie's conduct is called into question.7. Drawing Dead43mWhen an officer is accused of using excessive force on a suspect, Frank finds his department under scrutiny from the community and the mayor.8. Justice Served42mAfter Frank has dinner with mob lawyer Angelo Gallo, Gallo is shot and Frank narrowly escapes with his own life.9. Bad Blood42mDanny and Baez investigate a homicide in which Baez's estranged brother, a former drug addict, is the lead suspect.10. Mistaken Identity41mDanny and Baez investigate a local bombing, but meet with tension and resistance from the community during the investigation.11. Ties That Bind43mDanny's loyalty is tested when he's assigned to the case of a childhood friend who is under investigation for having ties to an infamous mob family.12. The Bogeyman44mWhen Danny learns from Nicky that there's a deadly new brand of heroin hitting the streets, he begins an all-out manhunt for the distributor.13. Unfinished Business43mDanny and Baez must track down a veteran who may be suffering from PTSD. Meanwhile, Frank is caught off-guard during a press conference.14. Manhattan Queens42mDanny and Baez investigate the murder of Tiffany Lamp, a popular drag queen from a reality television show who was found murdered in a local park.15. Open Secrets43mWhen Danny and Baez investigate the kidnapping of a young girl who disappeared after school, it brings back difficult memories for Danny.16. Insult to Injury40mDanny takes a call from a woman who is threatening to kill herself along with the man who killed her parents in a drunk-driving accident.17. Knockout Game43mDanny and Baez investigate when an expectant mother is a victim of a "knockout game," in which teenagers punch unsuspecting civilians in the head.18. Righting Wrongs43mDanny and Baez investigate the death of a woman whose body was dumped after she died in the wake of a "secret" plastic surgery.19. Secret Arrangements44mDanny and Baez investigate the murder of a respected college professor who was involved with a questionable scholarship program.20. Custody Battle42mErin is assigned to investigate a case in which an on-duty police officer is accused of killing a suspect already in custody.21. Above and Beyond42mWhen a detective from Danny's precinct is killed while working undercover, Frank puts on a full-court press to find his killer.22. Exiles43mWhen Danny is placed on modified duty after investigating a case that was off-limits, he realizes somebody is trying to keep something quiet., Release Year: 2013, 1. Unwritten Rules44mWhen an armed robbery ends with the death of a police officer, Frank makes it a mission for the NYPD to bring the suspect to justice.2. The City That Never Sleeps44mWhen famous movie star Russell Berke is stabbed, Danny goes to his aid, but must keep the crime on the down-low due to Berke's celebrity status.3. To Protect and Serve41mDanny becomes the lead hostage negotiator when a prime informant in a large drug case holds Erin at gunpoint inside the courtroom.4. The Truth About Lying42mDanny and Baez investigate the death of a teenage girl who appears to have been pushed in front of a subway car by a homeless man.5. Lost and Found42mWhen Danny and Baez suspect a little girl might be the victim of a kidnapping, the girl's mother denies it, but her story doesn't add up.6. Growing Boys43mWhen a gangbanger dies after Jamie chases him away from the boy he's mentoring, Jamie's conduct is called into question.7. Drawing Dead43mWhen an officer is accused of using excessive force on a suspect, Frank finds his department under scrutiny from the community and the mayor.8. Justice Served42mAfter Frank has dinner with mob lawyer Angelo Gallo, Gallo is shot and Frank narrowly escapes with his own life.9. Bad Blood42mDanny and Baez investigate a homicide in which Baez's estranged brother, a former drug addict, is the lead suspect.10. Mistaken Identity41mDanny and Baez investigate a local bombing, but meet with tension and resistance from the community during the investigation.11. Ties That Bind43mDanny's loyalty is tested when he's assigned to the case of a childhood friend who is under investigation for having ties to an infamous mob family.12. The Bogeyman44mWhen Danny learns from Nicky that there's a deadly new brand of heroin hitting the streets, he begins an all-out manhunt for the distributor.13. Unfinished Business43mDanny and Baez must track down a veteran who may be suffering from PTSD. Meanwhile, Frank is caught off-guard during a press conference.14. Manhattan Queens42mDanny and Baez investigate the murder of Tiffany Lamp, a popular drag queen from a reality television show who was found murdered in a local park.15. Open Secrets43mWhen Danny and Baez investigate the kidnapping of a young girl who disappeared after school, it brings back difficult memories for Danny.16. Insult to Injury40mDanny takes a call from a woman who is threatening to kill herself along with the man who killed her parents in a drunk-driving accident.17. Knockout Game43mDanny and Baez investigate when an expectant mother is a victim of a "knockout game," in which teenagers punch unsuspecting civilians in the head.18. Righting Wrongs43mDanny and Baez investigate the death of a woman whose body was dumped after she died in the wake of a "secret" plastic surgery.19. Secret Arrangements44mDanny and Baez investigate the murder of a respected college professor who was involved with a questionable scholarship program.20. Custody Battle42mErin is assigned to investigate a case in which an on-duty police officer is accused of killing a suspect already in custody.21. Above and Beyond42mWhen a detective from Danny's precinct is killed while working undercover, Frank puts on a full-court press to find his killer.22. Exiles43mWhen Danny is placed on modified duty after investigating a case that was off-limits, he realizes somebody is trying to keep something quiet., Release Year: 2014In Season 5, Jamie faces a backlash for defending an ostracized fellow officer and Frank sounds off about equality, upsetting the Archdiocese.1. Partners43mDanny goes after the drug cartel responsible for Baez's injury. Frank is put in a difficult position when a top lieutenant's behavior is questioned.2. Forgive and Forget43mJamie puts himself on the line for a fellow officer who's being ostracized. Danny and Erin butt heads when an old case takes a new turn.3. Burning Bridges41mDanny and Baez are temporarily assigned new partners when an officer is outed and his current partner won't ride with him.4. Excessive Force44mWhen Danny is accused of police brutality, Frank must choose sides. Jamie's connection to an attractive doctor triggers Eddie's jealousy.5. Loose Lips42mAn abusive boyfriend targets Jamie for intervening in a domestic battle. After Henry's insensitive comments are leaked, Frank must manage the scandal.6. Most Wanted42mFrank and Danny look for evidence to put an international criminal behind bars. Erin considers private practice to pay for Nicky's college.7. Shoot the Messenger42mFrank is taken by surprise during an on-air interview with Erin's boss. Danny and his new boss clash as they investigate a drive-by shooting.8. Power of the Press41mWhen a cop's body camera malfunctions during a civilian scuffle, Frank must handle the backlash. Erin investigates a friend's daughter's alleged rape.9. Under the Gun43mDanny and Baez investigate when three community leaders are killed in apparent hate crimes, while a concerned group puts pressure on Frank.10. Sins of the Father42mFrank wants to put away a suspected cop killer who shot one of Henry's colleagues years earlier. Danny and Baez probe the murders of adult film stars.11. Baggage43mWhile investigating a bank robbery, Danny struggles with the right thing to do when he learns the heist was committed to fund a noble cause.12. Home Sweet Home43mA homeless teen claims his aunt was killed by her boyfriend. Erin is unhappy to be replaced as prosecutor on a case involving a corrections officer.13. Love Stories42mDanny and Baez investigate when a homeowner shoots an intruder. Meanwhile, a young attorney seeks justice for his imprisoned mother.14. The Poor Door44mDanny and Baez investigate the murder of a low-income resident in a luxury building. Frank butts heads with one of Gormley's detective friends.15. Power Players43mA mob informant comes out of hiding to testify at Erin's case. Frank and the mayor face off over police benefits.16. In the Box40mBaez is held hostage by a father fighting a restraining order, and Danny must decide whether to meet his demands. Garrett asks Frank for help.17. Occupational Hazards41mErin is shaken after an assailant breaks into her apartment and assaults her colleague. Frank investigates a charity that's raising money for NYPD.18. Bad Company43mTo take down a kidnapping ring luring young women through fake youth hostel websites, Eddie goes undercover for the first time.19. Through the Looking Glass42mA reporter refuses to reveal the identity of a source who confesses to murder. Danny mentors a troubled teenager in an NYPD youth program.20. Payback42mWhen a TV chef is murdered, Danny and Baez think the confessed killer may be hiding something. Frank's senator friend wants him to fix a DUI charge.21. New Rules43mWhen the NYPD's deputy chief and his wife are murdered, Frank suspects a gang hit and sends Danny and Baez into gang territory.22. The Art of War43mDanny tries to track the gang member responsible for a close-to-home shooting and must convince witnesses to testify., Release Year: 2014, 1. Partners43mDanny goes after the drug cartel responsible for Baez's injury. Frank is put in a difficult position when a top lieutenant's behavior is questioned.2. Forgive and Forget43mJamie puts himself on the line for a fellow officer who's being ostracized. Danny and Erin butt heads when an old case takes a new turn.3. Burning Bridges41mDanny and Baez are temporarily assigned new partners when an officer is outed and his current partner won't ride with him.4. Excessive Force44mWhen Danny is accused of police brutality, Frank must choose sides. Jamie's connection to an attractive doctor triggers Eddie's jealousy.5. Loose Lips42mAn abusive boyfriend targets Jamie for intervening in a domestic battle. After Henry's insensitive comments are leaked, Frank must manage the scandal.6. Most Wanted42mFrank and Danny look for evidence to put an international criminal behind bars. Erin considers private practice to pay for Nicky's college.7. Shoot the Messenger42mFrank is taken by surprise during an on-air interview with Erin's boss. Danny and his new boss clash as they investigate a drive-by shooting.8. Power of the Press41mWhen a cop's body camera malfunctions during a civilian scuffle, Frank must handle the backlash. Erin investigates a friend's daughter's alleged rape.9. Under the Gun43mDanny and Baez investigate when three community leaders are killed in apparent hate crimes, while a concerned group puts pressure on Frank.10. Sins of the Father42mFrank wants to put away a suspected cop killer who shot one of Henry's colleagues years earlier. Danny and Baez probe the murders of adult film stars.11. Baggage43mWhile investigating a bank robbery, Danny struggles with the right thing to do when he learns the heist was committed to fund a noble cause.12. Home Sweet Home43mA homeless teen claims his aunt was killed by her boyfriend. Erin is unhappy to be replaced as prosecutor on a case involving a corrections officer.13. Love Stories42mDanny and Baez investigate when a homeowner shoots an intruder. Meanwhile, a young attorney seeks justice for his imprisoned mother.14. The Poor Door44mDanny and Baez investigate the murder of a low-income resident in a luxury building. Frank butts heads with one of Gormley's detective friends.15. Power Players43mA mob informant comes out of hiding to testify at Erin's case. Frank and the mayor face off over police benefits.16. In the Box40mBaez is held hostage by a father fighting a restraining order, and Danny must decide whether to meet his demands. Garrett asks Frank for help.17. Occupational Hazards41mErin is shaken after an assailant breaks into her apartment and assaults her colleague. Frank investigates a charity that's raising money for NYPD.18. Bad Company43mTo take down a kidnapping ring luring young women through fake youth hostel websites, Eddie goes undercover for the first time.19. Through the Looking Glass42mA reporter refuses to reveal the identity of a source who confesses to murder. Danny mentors a troubled teenager in an NYPD youth program.20. Payback42mWhen a TV chef is murdered, Danny and Baez think the confessed killer may be hiding something. Frank's senator friend wants him to fix a DUI charge.21. New Rules43mWhen the NYPD's deputy chief and his wife are murdered, Frank suspects a gang hit and sends Danny and Baez into gang territory.22. The Art of War43mDanny tries to track the gang member responsible for a close-to-home shooting and must convince witnesses to testify., Release Year: 2015Frank is alerted to a terrorist threat, Danny pursues a taunting serial killer, Erin considers a judgeship, and Jamie is accused of police brutality.1. Worst Case Scenario41mAs terrorists strike around the world, Frank quietly prepares New York for the worst while Danny and Baez try to track suspected bombers.2. Absolute Power43mWhile Danny and Baez hunt a serial killer who targets young women, a mayoral candidate accuses Frank of corruption, and Erin ponders becoming a judge.3. All the News That’s Fit to Click41mShot while riding with Jamie and Eddie, a cocky reporter stymies the hunt for the shooter so he can turn the situation into a career-making story.4. With Friends Like These43mErin turns to a former mob informant for help investigating a murder, and Jamie and Eddie run into red tape trying to help a mentally unstable woman.5. Backstabbers43mDanny and Baez bend the rules to find an escaped convict that Danny wrongfully sent to prison. Meanwhile, Nicky uses family clout to help a friend.6. Rush to Judgement44mInternal Affairs scrutinizes Jamie after he's accused of police brutality at a demonstration, and a civil rights lawyer gets caught up in a rape case.7. The Bullitt Mustang43mDanny and Baez go in search of a stolen car made famous in the movies, and a feud over parking tickets escalates between Erin's office and the cops.8. Unsung Heroes43mWhile Danny tracks a serial killer who's threatening his family, Jamie's run-in with a reckless colleague reveals a troubling secret.9. Hold Outs40mErin tries to locate a witness to re-try a murder case that ended in a hung jury, and Jamie and Eddie go undercover as senior citizens.10. Cursed40mWhen an officer requests Joe's old badge number, Frank wonders if the shield is a bad omen. Meanwhile, Danny and Baez set a trap for a mob killer.11. Flags of Our Fathers43mFrank faces a free-speech showdown when protesters plan to burn the American flag in Central Park, and Danny faces tough questions about an old case.12. Back in the Day42mFrank's old partner threatens to publish a potentially damaging tell-all book, and Jamie and Eddie suffer a rift over responding to an emergency call.13. Stomping Ground43mBaez schemes to bring justice to a drug dealer who once killed a boy in her neighborhood, and Eddie faces sexual harassment from a superior.14. The Road to Hell41mDanny faces a curious problem when several prostitutes each claim to have murdered their pimp, and Nicky clams up after getting busted for possession.15. Fresh Start43mErin faces intense scrutiny when a man she released is accused of murder, and Danny and Baez go in search of a missing cop in need of intervention.16. Help Me Help You42mDanny and Baez intervene when a man becomes increasingly hostile toward his ex-wife's boyfriend, and Erin confronts an old mentor who is now a judge.17. Friends in Need42mJamie agrees to mentor a rookie who turns out to be a loose cannon. Meanwhile, Erin investigates a shady investment scheme that targets police.18. Town Without Pity40mA convicted killer who has turned his life around faces fresh murder charges, and Erin confronts a lawyer who is using a suspect to boost her podcast.19. Blast from the Past42mBaez gets a jolt when she and Danny must team up with her ex-boyfriend. Frank wrestles with promoting a cop who once shot an unarmed teen.20. Down the Rabbit Hole41mDanny forms an uneasy alliance with the FBI when the serial killer who has eluded him strikes again -- this time with Nicky in his sights.21. The Extra Mile43mErin plays her cards shrewdly when a frightened witness goes on the run, and Danny and Baez look into a puzzling convenience store robbery.22. Blowback41mFrank and Erin face a major crisis when public outrage over a cop who shot a teen spills over into violence directed back at the police., Release Year: 2015, 1. Worst Case Scenario41mAs terrorists strike around the world, Frank quietly prepares New York for the worst while Danny and Baez try to track suspected bombers.2. Absolute Power43mWhile Danny and Baez hunt a serial killer who targets young women, a mayoral candidate accuses Frank of corruption, and Erin ponders becoming a judge.3. All the News That’s Fit to Click41mShot while riding with Jamie and Eddie, a cocky reporter stymies the hunt for the shooter so he can turn the situation into a career-making story.4. With Friends Like These43mErin turns to a former mob informant for help investigating a murder, and Jamie and Eddie run into red tape trying to help a mentally unstable woman.5. Backstabbers43mDanny and Baez bend the rules to find an escaped convict that Danny wrongfully sent to prison. Meanwhile, Nicky uses family clout to help a friend.6. Rush to Judgement44mInternal Affairs scrutinizes Jamie after he's accused of police brutality at a demonstration, and a civil rights lawyer gets caught up in a rape case.7. The Bullitt Mustang43mDanny and Baez go in search of a stolen car made famous in the movies, and a feud over parking tickets escalates between Erin's office and the cops.8. Unsung Heroes43mWhile Danny tracks a serial killer who's threatening his family, Jamie's run-in with a reckless colleague reveals a troubling secret.9. Hold Outs40mErin tries to locate a witness to re-try a murder case that ended in a hung jury, and Jamie and Eddie go undercover as senior citizens.10. Cursed40mWhen an officer requests Joe's old badge number, Frank wonders if the shield is a bad omen. Meanwhile, Danny and Baez set a trap for a mob killer.11. Flags of Our Fathers43mFrank faces a free-speech showdown when protesters plan to burn the American flag in Central Park, and Danny faces tough questions about an old case.12. Back in the Day42mFrank's old partner threatens to publish a potentially damaging tell-all book, and Jamie and Eddie suffer a rift over responding to an emergency call.13. Stomping Ground43mBaez schemes to bring justice to a drug dealer who once killed a boy in her neighborhood, and Eddie faces sexual harassment from a superior.14. The Road to Hell41mDanny faces a curious problem when several prostitutes each claim to have murdered their pimp, and Nicky clams up after getting busted for possession.15. Fresh Start43mErin faces intense scrutiny when a man she released is accused of murder, and Danny and Baez go in search of a missing cop in need of intervention.16. Help Me Help You42mDanny and Baez intervene when a man becomes increasingly hostile toward his ex-wife's boyfriend, and Erin confronts an old mentor who is now a judge.17. Friends in Need42mJamie agrees to mentor a rookie who turns out to be a loose cannon. Meanwhile, Erin investigates a shady investment scheme that targets police.18. Town Without Pity40mA convicted killer who has turned his life around faces fresh murder charges, and Erin confronts a lawyer who is using a suspect to boost her podcast.19. Blast from the Past42mBaez gets a jolt when she and Danny must team up with her ex-boyfriend. Frank wrestles with promoting a cop who once shot an unarmed teen.20. Down the Rabbit Hole41mDanny forms an uneasy alliance with the FBI when the serial killer who has eluded him strikes again -- this time with Nicky in his sights.21. The Extra Mile43mErin plays her cards shrewdly when a frightened witness goes on the run, and Danny and Baez look into a puzzling convenience store robbery.22. Blowback41mFrank and Erin face a major crisis when public outrage over a cop who shot a teen spills over into violence directed back at the police., Release Year: 2016In Season 7, Frank deals with a series of crises that could damage the NYPD, while Danny handles several cases that cross international borders.1. The Greater Good43mNew evidence surfaces against Danny in his shooting of a serial killer, and an officer's widow asks Frank to stop her son from joining the force.2. The Price of Justice41mDanny and Baez urge a traumatized hostage to press charges, Jamie gets a job offer as an adviser to a TV show, and Frank faces a publicity nightmare.3. Mob Rules40mFrank accepts the help of a detective with a personal connection to the neighborhood where Lt. Gormley was viciously beaten by a mob.4. Good Cop Bad Cop40mDanny and Baez investigate the death of an elderly woman killed by a stray bullet, and Frank is ridiculed when he disciplines a disrespectful officer.5. For the Community41mErin and Anthony try to prevent the deportation of an activist, and Frank must decide if the NYPD will participate in a gang raid with U.S. Marshals.6. Whistleblowers43mA whistleblower claims to have evidence of abuse of power in the NYPD, and Danny and Baez investigate the suspicious case of a waitress hit by a car.7. Guilt by Association43mDanny's case witness is killed before testifying, and Robert Lewis pressures Frank to support the attorney general's excessive-force investigation.8. Personal Business43mDanny and Baez investigate the murder of a woman's abusive ex-boyfriend, and Frank disciplines an off-duty sergeant who failed to stop an arme robbery.9. Confessions42mThe search for a missing boy is complicated by a priest's duty to keep secret a confession, and Danny and Baez investigate the death of a socialite.10. Unbearable Loss40mA harsh critic of the NYPD must set aside his differences when his son is killed. Erin and Anthony investigate a fatal prisoner-transfer accident.11. Genetics40mEmbroiled in a complex case involving adoptive parents versus birth parents, Eddie and Jamie ask Erin to help them avoid court proceedings.12. Not Fade Away40mWhen he accepts a side job as bodyguard for a recently released ex-con wrongly convicted of murder, Danny uses his position to find the true killer.13. The One That Got Away41mDespite his lack of jurisdiction, Frank intervenes in Danny and Baez's child-abuse case, which is complicated by issues of diplomatic immunity.14. In &amp; Out40mA gang leader's murder exposes a love affair between an ex-con and his parole officer, while Frank tries to moderate a rival gang's response.15. Lost Souls41mWhen a murder victim is revealed to have killed a mother and son years ago while driving drunk, Danny and Baez hesitate to arrest their chief suspect.16. Hard Bargain42mIn trouble with the mob, Danny's brother-in-law begs for protection, while Frank faces a demand to publicly release NYPD disciplinary records.17. Shadow of a Doubt41mJamie and Eddie grow suspicious of an EMT who failed to respond to his wife's 911 call when she suffered a fatal allergic reaction.18. A Deep Blue Goodbye40mAn ex-officer goes missing after revealing her plan to apologize to a wrongly convicted woman, and a chief refuses to accept mandatory retirement.19. Love Lost43mErin is opposed in court by ex-husband Jack on a homicide case that Danny and Baez investigate to determine if an accused husband murdered his wife.20. No Retreat, No Surrender41mErin helps a former witness rid his apartment building of a drug operation, and Frank must look into charges of misconduct in the mayor's office.21. Foreign Interference40mDanny and Baez partner with Russian operatives to locate a dangerous ex-KGB agent, while Frank handles a sensitive case involving an archbishop.22. The Thin Blue Line42mAfter he confiscates millions from a Mexican drug cartel shipment, Danny and his family are targeted for revenge. Jamie tracks a serial killer., Release Year: 2016, 1. The Greater Good43mNew evidence surfaces against Danny in his shooting of a serial killer, and an officer's widow asks Frank to stop her son from joining the force.2. The Price of Justice41mDanny and Baez urge a traumatized hostage to press charges, Jamie gets a job offer as an adviser to a TV show, and Frank faces a publicity nightmare.3. Mob Rules40mFrank accepts the help of a detective with a personal connection to the neighborhood where Lt. Gormley was viciously beaten by a mob.4. Good Cop Bad Cop40mDanny and Baez investigate the death of an elderly woman killed by a stray bullet, and Frank is ridiculed when he disciplines a disrespectful officer.5. For the Community41mErin and Anthony try to prevent the deportation of an activist, and Frank must decide if the NYPD will participate in a gang raid with U.S. Marshals.6. Whistleblowers43mA whistleblower claims to have evidence of abuse of power in the NYPD, and Danny and Baez investigate the suspicious case of a waitress hit by a car.7. Guilt by Association43mDanny's case witness is killed before testifying, and Robert Lewis pressures Frank to support the attorney general's excessive-force investigation.8. Personal Business43mDanny and Baez investigate the murder of a woman's abusive ex-boyfriend, and Frank disciplines an off-duty sergeant who failed to stop an arme robbery.9. Confessions42mThe search for a missing boy is complicated by a priest's duty to keep secret a confession, and Danny and Baez investigate the death of a socialite.10. Unbearable Loss40mA harsh critic of the NYPD must set aside his differences when his son is killed. Erin and Anthony investigate a fatal prisoner-transfer accident.11. Genetics40mEmbroiled in a complex case involving adoptive parents versus birth parents, Eddie and Jamie ask Erin to help them avoid court proceedings.12. Not Fade Away40mWhen he accepts a side job as bodyguard for a recently released ex-con wrongly convicted of murder, Danny uses his position to find the true killer.13. The One That Got Away41mDespite his lack of jurisdiction, Frank intervenes in Danny and Baez's child-abuse case, which is complicated by issues of diplomatic immunity.14. In &amp; Out40mA gang leader's murder exposes a love affair between an ex-con and his parole officer, while Frank tries to moderate a rival gang's response.15. Lost Souls41mWhen a murder victim is revealed to have killed a mother and son years ago while driving drunk, Danny and Baez hesitate to arrest their chief suspect.16. Hard Bargain42mIn trouble with the mob, Danny's brother-in-law begs for protection, while Frank faces a demand to publicly release NYPD disciplinary records.17. Shadow of a Doubt41mJamie and Eddie grow suspicious of an EMT who failed to respond to his wife's 911 call when she suffered a fatal allergic reaction.18. A Deep Blue Goodbye40mAn ex-officer goes missing after revealing her plan to apologize to a wrongly convicted woman, and a chief refuses to accept mandatory retirement.19. Love Lost43mErin is opposed in court by ex-husband Jack on a homicide case that Danny and Baez investigate to determine if an accused husband murdered his wife.20. No Retreat, No Surrender41mErin helps a former witness rid his apartment building of a drug operation, and Frank must look into charges of misconduct in the mayor's office.21. Foreign Interference40mDanny and Baez partner with Russian operatives to locate a dangerous ex-KGB agent, while Frank handles a sensitive case involving an archbishop.22. The Thin Blue Line42mAfter he confiscates millions from a Mexican drug cartel shipment, Danny and his family are targeted for revenge. Jamie tracks a serial killer. 
-The story of a classic Irish Catholic New York family with family throughout the justice system of New York. The father is the Police Commisoner, the sons are both cops, and the daughter is a DA
-</t>
+    <t xml:space="preserve">Release Year: 2010Police Comm. Reagan constantly tends to the well-being of his progeny, which includes Det. Danny, assistant DA Erin and rookie cop Jamie.1. Pilot43mIn the pilot episode, Jamie graduates from the Police Academy and joins the NYPD after deciding not to pursue his career as a lawyer.2. Samaritan43mA good Samaritan who takes action against a criminal terrorizing the subway has the Reagans pondering the rights and wrongs of vigilantism.3. Privilege43mErin, Frank and Danny must find a way to bring justice for a rape victim when the suspect is protected by diplomatic immunity.4. Officer Down43mThe entire NYPD is mobilized to find the killer of a police officer who exchanged gunfire with robbers during a diamond heist.5. What You See43mFrank, Danny and the rest of the NYPD search for a bomb set to detonate in Manhattan. The Reagans argue the merits and downfalls of profiling.6. Smack Attack43mDanny must find the narcotic source when three teenagers die from a drug overdose.7. Brothers44mErin's family debates her methods when she uses a law-abiding citizen as bait to take down his gang leader brother.8. Chinatown43mJamie witnesses a crime in progress and kills the suspect while pursuing him. Danny must solve the case to clear Jamie's name.9. Re-Do42mThree released prison inmates place the Reagan family in danger. They try to get one of the criminal's surviving victims to testify against him.10. After Hours43mWhile Danny investigates the murder of a popular nightclub's doorman, Frank gets information that his ex-partner is covering up crimes.11. Little Fish43mA cold case of Frank's is brought to the forefront when a missing boy's remains are found. Danny and Jackie look into the death of a high-end escort.12. Family Ties43mDanny investigates when the son of a Russian gangster is killed and Erin is assigned a high-profile corruption case.13. Hall of Mirrors41mBecause it involves classified information and a sleeper cell, Frank assigns Danny to cover the shooting of an undercover counter-terrorism agent.14. My Funny Valentine43mA drug addict becomes the prime focus of Danny and Jackie's investigation after the man's girlfriend is kidnapped and held for ransom.15. Dedication42mIs someone out to assassinate the Commissioner or was the shooting random? Danny takes on the assignment to find out the answer.16. Age of Innocence43mNicky goes with Danny to a crime scene where a girl has been murdered, and she has a difficult time coping after seeing her first murder victim.17. Silver Star43mAs a former Marine, Danny feels responsible for finding the killer of a Marine war hero. There's a false rumor that Frank is going to run for mayor.18. To Tell the Truth43mJust before Danny is to testify at a Peruvian drug lord's murder trial, Linda is kidnapped. This drug lord has a history of intimidating witnesses.19. Model Behavior41mDanny and Jackie investigate the cut-throat world of fashion after Linda's runway model niece and a reporter are poisoned at a fashion show.20. All That Glitters43mFrank's frustrations rise when the media sensationalizes the murder of a tourist shot and killed outside a trendy Lower East Side restaurant.21. Cellar Boy43mNeighbors of the Reagans are murdered, and their son becomes the prime suspect. Jamie is convinced he's being pursued by the Blue Templar.22. The Blue Templar44mWhen a drug bust points to dirty cops, Frank decides not to involve Internal Affairs in the hopes of taking down and exposing the Blue Templar., Release Year: 2010, 1. Pilot43mIn the pilot episode, Jamie graduates from the Police Academy and joins the NYPD after deciding not to pursue his career as a lawyer.2. Samaritan43mA good Samaritan who takes action against a criminal terrorizing the subway has the Reagans pondering the rights and wrongs of vigilantism.3. Privilege43mErin, Frank and Danny must find a way to bring justice for a rape victim when the suspect is protected by diplomatic immunity.4. Officer Down43mThe entire NYPD is mobilized to find the killer of a police officer who exchanged gunfire with robbers during a diamond heist.5. What You See43mFrank, Danny and the rest of the NYPD search for a bomb set to detonate in Manhattan. The Reagans argue the merits and downfalls of profiling.6. Smack Attack43mDanny must find the narcotic source when three teenagers die from a drug overdose.7. Brothers44mErin's family debates her methods when she uses a law-abiding citizen as bait to take down his gang leader brother.8. Chinatown43mJamie witnesses a crime in progress and kills the suspect while pursuing him. Danny must solve the case to clear Jamie's name.9. Re-Do42mThree released prison inmates place the Reagan family in danger. They try to get one of the criminal's surviving victims to testify against him.10. After Hours43mWhile Danny investigates the murder of a popular nightclub's doorman, Frank gets information that his ex-partner is covering up crimes.11. Little Fish43mA cold case of Frank's is brought to the forefront when a missing boy's remains are found. Danny and Jackie look into the death of a high-end escort.12. Family Ties43mDanny investigates when the son of a Russian gangster is killed and Erin is assigned a high-profile corruption case.13. Hall of Mirrors41mBecause it involves classified information and a sleeper cell, Frank assigns Danny to cover the shooting of an undercover counter-terrorism agent.14. My Funny Valentine43mA drug addict becomes the prime focus of Danny and Jackie's investigation after the man's girlfriend is kidnapped and held for ransom.15. Dedication42mIs someone out to assassinate the Commissioner or was the shooting random? Danny takes on the assignment to find out the answer.16. Age of Innocence43mNicky goes with Danny to a crime scene where a girl has been murdered, and she has a difficult time coping after seeing her first murder victim.17. Silver Star43mAs a former Marine, Danny feels responsible for finding the killer of a Marine war hero. There's a false rumor that Frank is going to run for mayor.18. To Tell the Truth43mJust before Danny is to testify at a Peruvian drug lord's murder trial, Linda is kidnapped. This drug lord has a history of intimidating witnesses.19. Model Behavior41mDanny and Jackie investigate the cut-throat world of fashion after Linda's runway model niece and a reporter are poisoned at a fashion show.20. All That Glitters43mFrank's frustrations rise when the media sensationalizes the murder of a tourist shot and killed outside a trendy Lower East Side restaurant.21. Cellar Boy43mNeighbors of the Reagans are murdered, and their son becomes the prime suspect. Jamie is convinced he's being pursued by the Blue Templar.22. The Blue Templar44mWhen a drug bust points to dirty cops, Frank decides not to involve Internal Affairs in the hopes of taking down and exposing the Blue Templar., Release Year: 2011In Season 2, Jamie's undercover investigation of the mob becomes dangerous, Frank wrestles with City Hall politics, and Danny faces Erin in court.1. Mercy44mWhen one of his supporters is murdered, the new mayor pressures Frank to spin the killing as a random act of violence.2. Friendly Fire43mAfter Danny accidentally shoots a cop, Internal Affairs starts an investigation, focusing on his state of mind at the time of the shooting.3. Critical Condition42mDanny discovers that a former cop is one of the men who attempted to rob a bank. Meanwhile, Jamie gets a new partner.4. Innocence42mErin reopens an 18-year-old rape case first investigated by Frank. Meanwhile, Danny and Jackie probe the murders of three teens in a park.5. A Night on the Town43mWhile on a case, Danny tries to swing a romantic weekend with Linda. Elsewhere, Jamie's undercover assignment takes him inside a crime family.6. Black and Blue41mFrank must deal with a political crisis after Jamie and Renzulli are injured while attempting to enter a religious center in response to a 911 call.7. Lonely Hearts Club42mWhen a serial killer starts targeting prostitutes, Jackie goes undercover as an escort. Meanwhile, Erin meets a man who shares her interests.8. Thanksgiving44mHenry's heart attack on Thanksgiving eve leaves the family pondering a future without him. Meanwhile, Danny and Jackie look into an alleged suicide.9. Moonlighting42mTo get leniency for his son, an ex-mobster helps Danny on some cold cases. Meanwhile, Jamie works undercover in the Sanfino crime family.10. Whistle Blower42mDanny and Erin must work together to find out who killed her informant.11. The Uniform40mDanny and Jackie investigate when a uniformed officer is seen fleeing the scene of a murder at a diner.12. The Job44mWhile driving his family home, Danny becomes involved in a shooting after his car strikes a man running from a gunman.13. Leap of Faith43mAfter a rich woman dies of a heart attack, her daughter claims God told her that her mother was murdered, prompting Danny and Jackie to investigate.14. Parenthood44mWhen a thief is shot and killed after robbing and beating a family, the Reagans ponder how far they'd go to protect one another.15. The Life We Choose41mDanny's family worries about his emotional state as he and Jackie investigate the murder of a Reagan family friend who was an undercover detective.16. Women with Guns42mA high-profile reporter, who happens to be a close friend of Frank's, is almost assaulted. Elsewhere, Jamie's undercover case reaches a crucial stage.17. Reagan v. Reagan43mWhile Erin is prosecuting a homicide case, the defendant's lawyer is murdered. Danny investigates, and things get tense when Erin cross-examines him.18. No Questions Asked42mA gun buyback program has a no-questions-asked rule, but when a returned gun is linked to a robbery, Danny must decide whether to arrest the suspect.19. Some Kind of Hero41mPressured by the 12-year-old son of a firefighter whose death was ruled a suicide, Danny reopens a closed case, enraging his fellow detectives.20. Working Girls42mAfter an attempt is made on the life of a witness in protective custody, Danny and Jackie discover a leak within the department.21. Collateral Damage42mA big-spending investor's death looks suspicious to Danny and Jackie. Meanwhile, Jamie is placed under house arrest when a hit is put out on his life.22. Mother's Day43mUnbeknownst to his family, Frank must deal with a potential biological weapons attack on New York City as the Reagans celebrate Mother's Day., Release Year: 2011, 1. Mercy44mWhen one of his supporters is murdered, the new mayor pressures Frank to spin the killing as a random act of violence.2. Friendly Fire43mAfter Danny accidentally shoots a cop, Internal Affairs starts an investigation, focusing on his state of mind at the time of the shooting.3. Critical Condition42mDanny discovers that a former cop is one of the men who attempted to rob a bank. Meanwhile, Jamie gets a new partner.4. Innocence42mErin reopens an 18-year-old rape case first investigated by Frank. Meanwhile, Danny and Jackie probe the murders of three teens in a park.5. A Night on the Town43mWhile on a case, Danny tries to swing a romantic weekend with Linda. Elsewhere, Jamie's undercover assignment takes him inside a crime family.6. Black and Blue41mFrank must deal with a political crisis after Jamie and Renzulli are injured while attempting to enter a religious center in response to a 911 call.7. Lonely Hearts Club42mWhen a serial killer starts targeting prostitutes, Jackie goes undercover as an escort. Meanwhile, Erin meets a man who shares her interests.8. Thanksgiving44mHenry's heart attack on Thanksgiving eve leaves the family pondering a future without him. Meanwhile, Danny and Jackie look into an alleged suicide.9. Moonlighting42mTo get leniency for his son, an ex-mobster helps Danny on some cold cases. Meanwhile, Jamie works undercover in the Sanfino crime family.10. Whistle Blower42mDanny and Erin must work together to find out who killed her informant.11. The Uniform40mDanny and Jackie investigate when a uniformed officer is seen fleeing the scene of a murder at a diner.12. The Job44mWhile driving his family home, Danny becomes involved in a shooting after his car strikes a man running from a gunman.13. Leap of Faith43mAfter a rich woman dies of a heart attack, her daughter claims God told her that her mother was murdered, prompting Danny and Jackie to investigate.14. Parenthood44mWhen a thief is shot and killed after robbing and beating a family, the Reagans ponder how far they'd go to protect one another.15. The Life We Choose41mDanny's family worries about his emotional state as he and Jackie investigate the murder of a Reagan family friend who was an undercover detective.16. Women with Guns42mA high-profile reporter, who happens to be a close friend of Frank's, is almost assaulted. Elsewhere, Jamie's undercover case reaches a crucial stage.17. Reagan v. Reagan43mWhile Erin is prosecuting a homicide case, the defendant's lawyer is murdered. Danny investigates, and things get tense when Erin cross-examines him.18. No Questions Asked42mA gun buyback program has a no-questions-asked rule, but when a returned gun is linked to a robbery, Danny must decide whether to arrest the suspect.19. Some Kind of Hero41mPressured by the 12-year-old son of a firefighter whose death was ruled a suicide, Danny reopens a closed case, enraging his fellow detectives.20. Working Girls42mAfter an attempt is made on the life of a witness in protective custody, Danny and Jackie discover a leak within the department.21. Collateral Damage42mA big-spending investor's death looks suspicious to Danny and Jackie. Meanwhile, Jamie is placed under house arrest when a hit is put out on his life.22. Mother's Day43mUnbeknownst to his family, Frank must deal with a potential biological weapons attack on New York City as the Reagans celebrate Mother's Day., Release Year: 2012For Frank Reagan's family, law enforcement is the only business that matters. As NYC Police Commissioner, Frank holds the same position his dad did.1. Family Business41mA dangerous criminal from Danny's past comes back to seek revenge and kidnaps Jackie. Meanwhile, Jamie meets his new partner.2. Domestic Disturbance43mWhen an injured woman recants her claim of domestic violence, Danny and Jackie find that she is involved in a secret relationship.3. Old Wounds43mDanny believes a serial killer is on the loose when two separate murder victims are identified as members of a group charged with a gang rape.4. Scorched Earth42mDanny and Jackie set out to investigate the murder of a bride on her wedding day in a drive-by gang shooting, but are diverted to a different case.5. Risk and Reward40mShortly after Frank awards a detective with a medal for his undercover work in Malaysia, the detective is taken hostage by a Malaysian drug lord.6. Greener Grass41mWhen Erin's key witness, an infamous photographer, is nearly killed in a hit and run, she arranges for Danny to safeguard him.7. Nightmares43mWhen a knife-wielding attacker dressed as Baron Samedi, the Spirit of Death, stabs a man in costume on Halloween, Danny enters the world of voodoo.8. Higher Education44mDanny arrives at a college campus to find a murdered student, who was thought to be dealing drugs.9. Secrets and Lies43mWhen Danny and Kate come up empty-handed on leads for a shooting, Linda overhears the victim telling his priest who is responsible.10. Fathers and Sons40mWhen two motorists driving gas-guzzling cars die at the hands of a sniper, the city believes it's the work of a radical environmental serial killer.11. Front Page News42mJamie must deal with the emotional consequences of his actions on the job when he has a confrontation with a suicidal man.12. Framed42mDanny's car matches an NYPD description of a vehicle involved in a drug deal, and he is taken into custody when cocaine is found in the trunk.13. Inside Jobs42mWhen a man with multiple rat bites is thrown from a moving car, Danny works the case to find out who was trying to send a message and why.14. Men in Black43mBefore a Hasidic grand rebbe passes away, he chooses his youngest son to succeed him. But when the new appointee dies suddenly, Danny investigates.15. Warriors43mWhen a 10-year-old boy is the victim of an incident in the projects, Danny's heated approach to the case lands him in anger management class.16. Quid Pro Quo41mErin and Danny investigate a cold case involving a girl who was attacked by her rich and powerful boyfriend, who was never convicted.17. Protest Too Much43mWhen an off-duty cop tries to stop a bank robbery, he is disarmed by the "Bonnie and Clyde" robbers who take his gun and wound an innocent bystander.18. No Regrets44mWhen the same tragedy occurs to people who don't appear to be connected, Danny must find out what they have in common and who is responsible.19. Loss of Faith42mWhen a religious young woman is murdered, Danny questions her family members, who are shocked to learn that she had a secret relationship.20. Ends &amp; Means43mWhen two Wall Street brokers are killed in drug deals, Danny looks to question a wounded accomplice at the hospital, but he is stopped by Linda.21. Devil's Breath43mWhen Danny finds a disoriented man covered in blood in a park, he finds it hard to believe that the man has no recollection of the night's events.22. The Bitter End40mWhen a young woman commits suicide, Danny is emotional because he promised to help the woman when her parents were taken from her.23. This Way Out41mAs the Reagans rally to take down a gang leader responsible for the murder of someone close to them, Danny looks to the leader's girlfriend for help., Release Year: 2012, 1. Family Business41mA dangerous criminal from Danny's past comes back to seek revenge and kidnaps Jackie. Meanwhile, Jamie meets his new partner.2. Domestic Disturbance43mWhen an injured woman recants her claim of domestic violence, Danny and Jackie find that she is involved in a secret relationship.3. Old Wounds43mDanny believes a serial killer is on the loose when two separate murder victims are identified as members of a group charged with a gang rape.4. Scorched Earth42mDanny and Jackie set out to investigate the murder of a bride on her wedding day in a drive-by gang shooting, but are diverted to a different case.5. Risk and Reward40mShortly after Frank awards a detective with a medal for his undercover work in Malaysia, the detective is taken hostage by a Malaysian drug lord.6. Greener Grass41mWhen Erin's key witness, an infamous photographer, is nearly killed in a hit and run, she arranges for Danny to safeguard him.7. Nightmares43mWhen a knife-wielding attacker dressed as Baron Samedi, the Spirit of Death, stabs a man in costume on Halloween, Danny enters the world of voodoo.8. Higher Education44mDanny arrives at a college campus to find a murdered student, who was thought to be dealing drugs.9. Secrets and Lies43mWhen Danny and Kate come up empty-handed on leads for a shooting, Linda overhears the victim telling his priest who is responsible.10. Fathers and Sons40mWhen two motorists driving gas-guzzling cars die at the hands of a sniper, the city believes it's the work of a radical environmental serial killer.11. Front Page News42mJamie must deal with the emotional consequences of his actions on the job when he has a confrontation with a suicidal man.12. Framed42mDanny's car matches an NYPD description of a vehicle involved in a drug deal, and he is taken into custody when cocaine is found in the trunk.13. Inside Jobs42mWhen a man with multiple rat bites is thrown from a moving car, Danny works the case to find out who was trying to send a message and why.14. Men in Black43mBefore a Hasidic grand rebbe passes away, he chooses his youngest son to succeed him. But when the new appointee dies suddenly, Danny investigates.15. Warriors43mWhen a 10-year-old boy is the victim of an incident in the projects, Danny's heated approach to the case lands him in anger management class.16. Quid Pro Quo41mErin and Danny investigate a cold case involving a girl who was attacked by her rich and powerful boyfriend, who was never convicted.17. Protest Too Much43mWhen an off-duty cop tries to stop a bank robbery, he is disarmed by the "Bonnie and Clyde" robbers who take his gun and wound an innocent bystander.18. No Regrets44mWhen the same tragedy occurs to people who don't appear to be connected, Danny must find out what they have in common and who is responsible.19. Loss of Faith42mWhen a religious young woman is murdered, Danny questions her family members, who are shocked to learn that she had a secret relationship.20. Ends &amp; Means43mWhen two Wall Street brokers are killed in drug deals, Danny looks to question a wounded accomplice at the hospital, but he is stopped by Linda.21. Devil's Breath43mWhen Danny finds a disoriented man covered in blood in a park, he finds it hard to believe that the man has no recollection of the night's events.22. The Bitter End40mWhen a young woman commits suicide, Danny is emotional because he promised to help the woman when her parents were taken from her.23. This Way Out41mAs the Reagans rally to take down a gang leader responsible for the murder of someone close to them, Danny looks to the leader's girlfriend for help., Release Year: 2013In Season 4, the Reagan family's challenges range from police killings to hostage crises to personal issues, but they face them as a family.1. Unwritten Rules44mWhen an armed robbery ends with the death of a police officer, Frank makes it a mission for the NYPD to bring the suspect to justice.2. The City That Never Sleeps44mWhen famous movie star Russell Berke is stabbed, Danny goes to his aid, but must keep the crime on the down-low due to Berke's celebrity status.3. To Protect and Serve41mDanny becomes the lead hostage negotiator when a prime informant in a large drug case holds Erin at gunpoint inside the courtroom.4. The Truth About Lying42mDanny and Baez investigate the death of a teenage girl who appears to have been pushed in front of a subway car by a homeless man.5. Lost and Found42mWhen Danny and Baez suspect a little girl might be the victim of a kidnapping, the girl's mother denies it, but her story doesn't add up.6. Growing Boys43mWhen a gangbanger dies after Jamie chases him away from the boy he's mentoring, Jamie's conduct is called into question.7. Drawing Dead43mWhen an officer is accused of using excessive force on a suspect, Frank finds his department under scrutiny from the community and the mayor.8. Justice Served42mAfter Frank has dinner with mob lawyer Angelo Gallo, Gallo is shot and Frank narrowly escapes with his own life.9. Bad Blood42mDanny and Baez investigate a homicide in which Baez's estranged brother, a former drug addict, is the lead suspect.10. Mistaken Identity41mDanny and Baez investigate a local bombing, but meet with tension and resistance from the community during the investigation.11. Ties That Bind43mDanny's loyalty is tested when he's assigned to the case of a childhood friend who is under investigation for having ties to an infamous mob family.12. The Bogeyman44mWhen Danny learns from Nicky that there's a deadly new brand of heroin hitting the streets, he begins an all-out manhunt for the distributor.13. Unfinished Business43mDanny and Baez must track down a veteran who may be suffering from PTSD. Meanwhile, Frank is caught off-guard during a press conference.14. Manhattan Queens42mDanny and Baez investigate the murder of Tiffany Lamp, a popular drag queen from a reality television show who was found murdered in a local park.15. Open Secrets43mWhen Danny and Baez investigate the kidnapping of a young girl who disappeared after school, it brings back difficult memories for Danny.16. Insult to Injury40mDanny takes a call from a woman who is threatening to kill herself along with the man who killed her parents in a drunk-driving accident.17. Knockout Game43mDanny and Baez investigate when an expectant mother is a victim of a "knockout game," in which teenagers punch unsuspecting civilians in the head.18. Righting Wrongs43mDanny and Baez investigate the death of a woman whose body was dumped after she died in the wake of a "secret" plastic surgery.19. Secret Arrangements44mDanny and Baez investigate the murder of a respected college professor who was involved with a questionable scholarship program.20. Custody Battle42mErin is assigned to investigate a case in which an on-duty police officer is accused of killing a suspect already in custody.21. Above and Beyond42mWhen a detective from Danny's precinct is killed while working undercover, Frank puts on a full-court press to find his killer.22. Exiles43mWhen Danny is placed on modified duty after investigating a case that was off-limits, he realizes somebody is trying to keep something quiet., Release Year: 2013, 1. Unwritten Rules44mWhen an armed robbery ends with the death of a police officer, Frank makes it a mission for the NYPD to bring the suspect to justice.2. The City That Never Sleeps44mWhen famous movie star Russell Berke is stabbed, Danny goes to his aid, but must keep the crime on the down-low due to Berke's celebrity status.3. To Protect and Serve41mDanny becomes the lead hostage negotiator when a prime informant in a large drug case holds Erin at gunpoint inside the courtroom.4. The Truth About Lying42mDanny and Baez investigate the death of a teenage girl who appears to have been pushed in front of a subway car by a homeless man.5. Lost and Found42mWhen Danny and Baez suspect a little girl might be the victim of a kidnapping, the girl's mother denies it, but her story doesn't add up.6. Growing Boys43mWhen a gangbanger dies after Jamie chases him away from the boy he's mentoring, Jamie's conduct is called into question.7. Drawing Dead43mWhen an officer is accused of using excessive force on a suspect, Frank finds his department under scrutiny from the community and the mayor.8. Justice Served42mAfter Frank has dinner with mob lawyer Angelo Gallo, Gallo is shot and Frank narrowly escapes with his own life.9. Bad Blood42mDanny and Baez investigate a homicide in which Baez's estranged brother, a former drug addict, is the lead suspect.10. Mistaken Identity41mDanny and Baez investigate a local bombing, but meet with tension and resistance from the community during the investigation.11. Ties That Bind43mDanny's loyalty is tested when he's assigned to the case of a childhood friend who is under investigation for having ties to an infamous mob family.12. The Bogeyman44mWhen Danny learns from Nicky that there's a deadly new brand of heroin hitting the streets, he begins an all-out manhunt for the distributor.13. Unfinished Business43mDanny and Baez must track down a veteran who may be suffering from PTSD. Meanwhile, Frank is caught off-guard during a press conference.14. Manhattan Queens42mDanny and Baez investigate the murder of Tiffany Lamp, a popular drag queen from a reality television show who was found murdered in a local park.15. Open Secrets43mWhen Danny and Baez investigate the kidnapping of a young girl who disappeared after school, it brings back difficult memories for Danny.16. Insult to Injury40mDanny takes a call from a woman who is threatening to kill herself along with the man who killed her parents in a drunk-driving accident.17. Knockout Game43mDanny and Baez investigate when an expectant mother is a victim of a "knockout game," in which teenagers punch unsuspecting civilians in the head.18. Righting Wrongs43mDanny and Baez investigate the death of a woman whose body was dumped after she died in the wake of a "secret" plastic surgery.19. Secret Arrangements44mDanny and Baez investigate the murder of a respected college professor who was involved with a questionable scholarship program.20. Custody Battle42mErin is assigned to investigate a case in which an on-duty police officer is accused of killing a suspect already in custody.21. Above and Beyond42mWhen a detective from Danny's precinct is killed while working undercover, Frank puts on a full-court press to find his killer.22. Exiles43mWhen Danny is placed on modified duty after investigating a case that was off-limits, he realizes somebody is trying to keep something quiet., Release Year: 2014In Season 5, Jamie faces a backlash for defending an ostracized fellow officer and Frank sounds off about equality, upsetting the Archdiocese.1. Partners43mDanny goes after the drug cartel responsible for Baez's injury. Frank is put in a difficult position when a top lieutenant's behavior is questioned.2. Forgive and Forget43mJamie puts himself on the line for a fellow officer who's being ostracized. Danny and Erin butt heads when an old case takes a new turn.3. Burning Bridges41mDanny and Baez are temporarily assigned new partners when an officer is outed and his current partner won't ride with him.4. Excessive Force44mWhen Danny is accused of police brutality, Frank must choose sides. Jamie's connection to an attractive doctor triggers Eddie's jealousy.5. Loose Lips42mAn abusive boyfriend targets Jamie for intervening in a domestic battle. After Henry's insensitive comments are leaked, Frank must manage the scandal.6. Most Wanted42mFrank and Danny look for evidence to put an international criminal behind bars. Erin considers private practice to pay for Nicky's college.7. Shoot the Messenger42mFrank is taken by surprise during an on-air interview with Erin's boss. Danny and his new boss clash as they investigate a drive-by shooting.8. Power of the Press41mWhen a cop's body camera malfunctions during a civilian scuffle, Frank must handle the backlash. Erin investigates a friend's daughter's alleged rape.9. Under the Gun43mDanny and Baez investigate when three community leaders are killed in apparent hate crimes, while a concerned group puts pressure on Frank.10. Sins of the Father42mFrank wants to put away a suspected cop killer who shot one of Henry's colleagues years earlier. Danny and Baez probe the murders of adult film stars.11. Baggage43mWhile investigating a bank robbery, Danny struggles with the right thing to do when he learns the heist was committed to fund a noble cause.12. Home Sweet Home43mA homeless teen claims his aunt was killed by her boyfriend. Erin is unhappy to be replaced as prosecutor on a case involving a corrections officer.13. Love Stories42mDanny and Baez investigate when a homeowner shoots an intruder. Meanwhile, a young attorney seeks justice for his imprisoned mother.14. The Poor Door44mDanny and Baez investigate the murder of a low-income resident in a luxury building. Frank butts heads with one of Gormley's detective friends.15. Power Players43mA mob informant comes out of hiding to testify at Erin's case. Frank and the mayor face off over police benefits.16. In the Box40mBaez is held hostage by a father fighting a restraining order, and Danny must decide whether to meet his demands. Garrett asks Frank for help.17. Occupational Hazards41mErin is shaken after an assailant breaks into her apartment and assaults her colleague. Frank investigates a charity that's raising money for NYPD.18. Bad Company43mTo take down a kidnapping ring luring young women through fake youth hostel websites, Eddie goes undercover for the first time.19. Through the Looking Glass42mA reporter refuses to reveal the identity of a source who confesses to murder. Danny mentors a troubled teenager in an NYPD youth program.20. Payback42mWhen a TV chef is murdered, Danny and Baez think the confessed killer may be hiding something. Frank's senator friend wants him to fix a DUI charge.21. New Rules43mWhen the NYPD's deputy chief and his wife are murdered, Frank suspects a gang hit and sends Danny and Baez into gang territory.22. The Art of War43mDanny tries to track the gang member responsible for a close-to-home shooting and must convince witnesses to testify., Release Year: 2014, 1. Partners43mDanny goes after the drug cartel responsible for Baez's injury. Frank is put in a difficult position when a top lieutenant's behavior is questioned.2. Forgive and Forget43mJamie puts himself on the line for a fellow officer who's being ostracized. Danny and Erin butt heads when an old case takes a new turn.3. Burning Bridges41mDanny and Baez are temporarily assigned new partners when an officer is outed and his current partner won't ride with him.4. Excessive Force44mWhen Danny is accused of police brutality, Frank must choose sides. Jamie's connection to an attractive doctor triggers Eddie's jealousy.5. Loose Lips42mAn abusive boyfriend targets Jamie for intervening in a domestic battle. After Henry's insensitive comments are leaked, Frank must manage the scandal.6. Most Wanted42mFrank and Danny look for evidence to put an </t>
   </si>
   <si>
     <t xml:space="preserve">Release Year: 2008Meet women who killed their mothers, a wife who hired a hit man to rub out her fourth husband, and a woman charged with her spouse for his hate crime.1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2008, 1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2009Season 2 profiles women who killed their roommates, an arsonist responsible for multiple deaths and a prostitute charged with slaying her pimp lover.1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2009, 1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2010Inmates in Season 3 include a woman who stole a newborn from a hospital, a wife who claims voices told her to kill her husband and more.1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2010, 1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m 
@@ -391,11 +389,12 @@
   </si>
   <si>
     <t xml:space="preserve">After Princess Diana's death, Queen Elizabeth II and Tony Blair face public demands that she be memorialized in a manner beyond standard protocol. 
+The film begins on the eve of the 1997 British general election, which sees Tony Blair (Sheen) elected as the United Kingdom's first Labour Party Prime Minister in 18 years. While posing for an official portrait, the Queen (Mirren) talks with the artist and expresses her regret about not being allowed to vote. She is slightly wary of the new prime minister and his pledge to "modernise" the country, but Blair promises to respect the independence of the Royal Family. When Blair visits Buckingham Palace to kiss hands, the Queen follows custom and asks him to form a Government in her name.Three months later, during a visit to Paris, Diana, Princess of Wales is killed in a car accident in the Pont de l'Alma tunnel along with her companion Dodi Fayed and driver Henri Paul. Blair's director of communications, Alastair Campbell (Mark Bazeley), immediately prepares a speech in which he describes her as "the people's princess." Blair gives the speech the next morning and the phrase catches on immediately. Over the next few days, millions of British people in London erupt in an outpouring of grief, as they flock to Buckingham and Kensington palaces to leave floral tributes and notes.Meanwhile, the Royal Family are still on their summer residence at Balmoral Castle, the Queen's estate in Aberdeenshire, Scotland. Diana's death immediately sparks division among senior members of the family; while the Queen is saddened by Diana's death, she and her husband differ with Prince Charles, Prince of Wales over what arrangements should be made. The Queen observes that since Diana divorced Charles (Alex Jennings) a year earlier, she is no longer a member of the Royal Family. Consequently, she insists that the funeral arrangements are a "private affair" and are best left to the princess's own family, the Spencers. A visibly grief stricken Prince Charles, however, argues that Diana was mother of the future King and that the Queen's suggestion is dismissive of this fact. Following her mother's suggestion, the Queen eventually sanctions the use of an aircraft of the Royal Flight to bring Diana's body back to Britain. Charles ensures that his ex-wife's coffin is draped with a Royal Standard instead of remaining a "wooden crate."In London, the bouquets begin to pile up along the palace railings, forcing the changing of the guard to use another gate. Meanwhile, British tabloids become increasingly inflammatory about the lack of any statement by the Royal Family. Prince Charles, during a brief conversation with Blair and later through back-channel contacts, leaves no doubt that he shares the Prime Minister's views about the need for a more public expression of grief. As the Queen's ratings plummet, Blair's popularity rises sharply, to the delight of the his Anti-Monarchist advisers and wife Cherie (Helen McCrory).Blair, however, does not share these sentiments. Despite not concurring with the Queen's course of action, he admires her and tells his wife that a Republican Britain is a ludicrous idea. Later on, he angrily denounces the anti-royal disdain of his Labour advisors and accuses Diana of having tried to destroy everything which the monarchy stands for. After days of building pressure, Blair calls the Queen at Balmoral and urgently recommends a course of action he believes is needed to regain the public's confidence in the monarchy. These measures include attending a public funeral for Diana at Westminster Abbey, flying a Union flag at half mast over Buckingham Palace (the flag is only meant to be flown when a Royal person is present and has never been used for mourning), and speaking to the nation about Diana's legacy in a live, televised address from the palace.Blair's recommendations outrage Prince Philip, Duke of Edinburgh (James Cromwell) and Queen Elizabeth, the Queen Mother (Sylvia Syms). Philip is also surprised that Elton John is asked to attend and sing a song, "Candle in the Wind" in Diana's honour. They view such steps as an undignified surrender to public hysteria, created by the tabloids, that will eventually calm down when the public comes to its senses. The Queen seems more concerned about this and although she shares their feelings, she begins to have doubts as she closely follows the news coverage. Speaking with her mother, the Queen muses that there has been some shift in public values, that perhaps she should step aside and hand over the monarchy to the next generation. The Queen Mother dismisses these ideas, however, saying that she is one of the greatest assets the monarchy has ever had, stated: "The real problem will come when you leave." She also reminds her daughter of the promise she made in Cape Town, South Africa, on April 21, 1947, her 21st birthday, in which she promised that her "whole life, whether it be long or short, shall be devoted to your service and the service of our great imperial family to which we all belong..."Later at Balmoral, Philip attempts to distract his grandsons from their mother's death by taking them deer stalking. While venturing out alone in her Land Rover, the Queen damages her vehicle while fording a river and has to call for assistance. While waiting, she weeps in frustration but then catches sight of the majestic Red Deer stag which her grandsons have been stalking. Hearing a distant gunshot, she shoos the animal away. Later that day, the Queen decides to carry out the recommendations of Blair. While preparing to return to London, she is horrified to learn that the stag has been killed on a neighbouring estate, by a visiting stockbroker. She visits the estate where the stag is being dressed and expresses dismay at the amateurish way it was hunted.In the film's climax, the Royal Family return to London and inspect the floral tributes. The Queen also goes on live television to speak about Diana's life and legacy, even going so far as calling her "an exceptional and gifted human being." Two months later, Blair comes to Buckingham Palace for a weekly meeting. The Queen has regained her popularity, but believes she will never quite fully recover from "that week." She cautions Blair that one day he too will find that public opinion can rapidly turn against him. She declares, however, that times have changed and that the monarchy must "modernise." When Blair suggests that he can help with this, The Queen responds, "Don't get ahead of yourself Prime Minister. Remember, I'm supposed to be the one advising you".
 </t>
   </si>
   <si>
     <t xml:space="preserve">In this thought-provoking documentary, scholars, activists and politicians analyze the criminalization of African Americans and the U.S. prison boom. 
-In a brief prologue set in 1958, two summer camp counselors at Camp Crystal Lake, named Barry (Willie Adams) and Claudette (Debra S. Hayes), sneak away from a camp fire sing-along to have sex. Before they can completely undress, an unseen assailant sneaks into the room and murders them both.The film moves forward to (the present) Friday June 13th; a young woman named Annie (Robbi Morgan) enters a small diner and asks for directions to Camp Crystal Lake, much to the shock of the restaurant's patrons and staff. A strange old man named Ralph (Walt Gorney) reacts to the news of the camp's reopening by warning Annie that they are "all doomed". Enos (Rex Everhart), a friendly truck driver from the diner, agrees to give Annie a lift halfway to the camp. During the drive, he warns her about the camp, informing her that a young boy drowned in Crystal Lake in 1957, one year before the double murders occurred. After Enos lets her out, Annie walks on. A little later, Annie hitches a ride and gets picked up by an unseen driver in a Jeep. As the driver speeds past the entrance to the camp, Annie becomes concerned and leaps from the moving vehicle when the driver fails to stop, fleeing into the woods. The unseen driver chases her into the woods and slits her throat with a bowie knife.At the camp, the other counselors, Ned (Mark Nelson), Jack (Kevin Bacon), Bill (Harry Crosby), Marcie (Jeannine Taylor), Alice (Adrienne King), and Brenda (Laurie Bartram) are refurbishing the cabins and facilities along with the camp's demanding owner, Steve Christy (Peter Brouwer). They have a few strange incidents, including a prank where one of them pretends to drown, and an unwelcome visit from the local police. They find a large snake in one of the cabins, chopping it in half with a machete. They also receive a visit from Ralph, who again warns them that they are "doomed". As a violent storm closes in on the horizon, Steve leaves the campgrounds to get more supplies.Meanwhile, the unidentified killer (still unseen except for a pair of black slacks, a brown plad shirt and a class ring on his/her left ring finger) begins to isolate and murder the counselors one by one. Ned spots the killer (now wearing a hooded black rainslicker) walking into a cabin. Nick follows the person into the cabin.As the violent rainstorm hits the camp, Marcie and Jack later enter the cabin and have sex in one of the bunks, unaware that Ned's dead body is in the upper berth. Afterwards, Marcie leaves to visit the ladies bathroom, and Jack is attacked by the killer, who is lying in wait underneath the cot. The murderer drives an arrow up through the bed and it pierces Jack's throat, killing him. While using the bathroom, Marcie hears a noise by the showers. Thinking its Jack playing a joke on her, she goes and pulls back a shower curtain. Finding nothing, she turns around and finds the unseen killer wielding an felling axe and gets it slammed in her face.Bill, Alice, and Brenda play "strip Monopoly" in Alice's cabin, until the rain makes Brenda remember she left her cabin windows open. As Brenda settles down to bed, she hears a faint, child-like voice calling "Help me!" from the woods. Brenda walks outside with a flashlight in the pouring rain trying to locate where the child's voice is coming from. She ventures to the archery range where the hooded rainslicker killer turns on the blinding lights at the range, distracting Brenda who is then killed off-screen. Hearing her scream, Bill and Alice go to investigate but only find the bloody axe (the same axe used to kill Marcie) in Brenda's bed. After looking around the camp, they find nobody and begin to suspect that something is up. Attempting to call the police, they discover the phone lines have been cut and that the cars won't start when they try to leave.Meanwhile, Steve is in town having dinner at a local diner when he goes back to his jeep for the drive back to Camp Crystal Lake. But during the drive, his jeep, towing a trailer, gets stuck in the mud off a secondary road. Yet a passing policeman gives him a ride part of the way back to the camp. Steve is let out as the officer gets a call about a car accident in town. With the rain letting up, Steve begins to walk back to the camp alone. When Steve arrives at the entrance to the camp, he is also murdered, apparently familiar with his attacker.When the lights go out all over the camp, Bill goes to check on the power generator, but doesn't know how to operate it or figure out what is wrong. When Bill doesn't return, Alice heads out to the generator cabin looking for him, and she finds his body pinned to a door by several arrows. Now alone, Alice flees back to the main cabin and hides. After a few moments of silence, Brenda's corpse is hurled through a window. Alice hears a vehicle outside the cabin and, thinking it to be Steve, runs out to warn him. Instead she finds a middle-aged woman who introduces herself as Mrs. Voorhees (Betsy Palmer), an "old friend of the Christys". Alice hysterically tries to tell her about the murders. Mrs. Voorhees expresses horror at the sight of Brenda's body, but she soon reveals herself to be the mother of the boy who drowned in the lake in 1957.Talking mostly to herself, she blames her son Jason's drowning on the fact that two counselors were having sex and were unaware of Jason's struggling in the lake. She tells Alice that today happens to be Jason's birthday, which Alice beings to worry on where Steve is. Mrs. Voorhees suddenly turns violent and pulls out her bowie knife (thus revealing the bowie knife as well as her class ring on her left ring finger confirming that Mrs. Voorhees is the killer), rushing at Alice, but Alice uses a fireplace poker and temporally knocks Mrs. Voorhees unconscious. A lengthy chase ensues, during which Alice flees her attacker and finds Steve's and Annie's bodies in the process.Mrs. Voorhees turns back on the generator to the camp and then chases Alice all over the camp in a climatic chase, in which speaks to herself in Jason's voice. She corners Alice in a storage shed, where Alice has found a rifle. Before Alice can load it, Mrs. Voorhees attacks her and slaps her around. Alice escapes and runs back to the main cabin, hiding behind a locked door in the pantry. Mrs. Voorhees, now brandishing a machete breaks the door open and rushes in at Alice. Alice hits her on the side of the head with a frying pan, rendering her unconscious and believing to be dead.Heading out to the side of the lake, Alice sits down next to the water, but Mrs. Voorhees comes rushing out at her again with the machete. Narrowly avoiding her machete, The two of them then wrestle next to the lake. Besting her attacker, Alice gains the upper hand and finally kills Mrs. Voorhees by decapitating her. Now in shock, Alice gets in a canoe and rows out to the middle of the lake, where she falls asleep.Morning comes, and Alice is still asleep in the canoe. Police arrive and call out to her, and she awakens. As she sits up and contemplates her own rescue, the decomposing body of Jason (Ari Lehman), attacks Alice and pulls her out of the canoe. Just as she is dragged underwater, she wakes in a hospital, where a police officer tells her that they pulled her out of the lake, and that everyone at the camp are dead. When she asks about Jason, the officer informs her they never found any boy. Alice replies, "Then he's still there." and shows the lake at peace.
+The 13th Amendment to the U. S. Constitution abolished slavery. But it also included a provision many people don't know about and that is what this documentary brings to view. "Neither slavery nor involuntary servitude, except as a punishment for crime whereof the party shall have been duly convicted, shall exist." That exception justifies the use of forced labor as long as the laborer is a convict. This documentary makes the case that inclusion of this loophole is only one of the justifications for continuing domination of people of color. The 13th Amendment was ratified in 1865 and director Ava DuVernay supports her thesis through the use of both historical footage and interviews. Film clips of former President Richard Nixon call for 'Law &amp; Order' which has resulted in exploding prison populations. The U. S. only has 5% of the world's population but has 25% of the world's prisoners. This Law &amp; Order policy enabled government to imprison blacks. John Ehrlichman was Assistant to President Nixon for Domestic Affairs: "Did we know we were lying? Of course we did." The documentary makes the case that those drug busts, Jim Crow laws and segregation are all variations of domination of black America. Currently the 'Prison/Industrial Complex' is just a new version of the same old problem. Here DuVernay returns to the 13th Amendment and makes the case that the system cannot be dealt with by making small changes. The system itself has to be rebuilt.
 </t>
   </si>
   <si>
@@ -574,61 +573,61 @@
     <t>1. Pilot, 2. Hello, Emma, 3. Wanna Play a Game?, 4. Aftermath, 5. Exposed, 6. Betrayed, 7. In the Trenches, 8. Ghosts, 9. The Dance, 10. Revelations, 1. I Know What You Did Last Summer, 2. Psycho, 3. Vacancy, 4. Happy Birthday to Me, 5. Dawn of the Dead, 6. Jeepers Creepers, 7. Let The Right One In, 8. Village of the Damned, 9. The Orphanage, 10. The Vanishing, 11. Heavenly Creatures, 12. When a Stranger Calls, 13. Finale: Halloween / Halloween II</t>
   </si>
   <si>
+    <t>tt0368008</t>
+  </si>
+  <si>
+    <t>tt3521164</t>
+  </si>
+  <si>
+    <t>tt0100332</t>
+  </si>
+  <si>
+    <t>tt4786824</t>
+  </si>
+  <si>
+    <t>tt1595859</t>
+  </si>
+  <si>
+    <t>tt1181320</t>
+  </si>
+  <si>
+    <t>tt3850214</t>
+  </si>
+  <si>
+    <t>tt1586680</t>
+  </si>
+  <si>
+    <t>tt3339966</t>
+  </si>
+  <si>
+    <t>tt5189670</t>
+  </si>
+  <si>
+    <t>tt1064899</t>
+  </si>
+  <si>
+    <t>tt5826432</t>
+  </si>
+  <si>
+    <t>tt0436697</t>
+  </si>
+  <si>
+    <t>tt5895028</t>
+  </si>
+  <si>
+    <t>tt1837492</t>
+  </si>
+  <si>
+    <t>tt3921180</t>
+  </si>
+  <si>
+    <t>tt0117571</t>
+  </si>
+  <si>
     <t>Movie</t>
   </si>
   <si>
     <t>TV Show</t>
-  </si>
-  <si>
-    <t>tt0056218</t>
-  </si>
-  <si>
-    <t>tt3521164</t>
-  </si>
-  <si>
-    <t>tt4429194</t>
-  </si>
-  <si>
-    <t>tt4786824</t>
-  </si>
-  <si>
-    <t>tt1595859</t>
-  </si>
-  <si>
-    <t>tt1181320</t>
-  </si>
-  <si>
-    <t>tt3850214</t>
-  </si>
-  <si>
-    <t>tt1586680</t>
-  </si>
-  <si>
-    <t>tt3339966</t>
-  </si>
-  <si>
-    <t>tt5189670</t>
-  </si>
-  <si>
-    <t>tt1064899</t>
-  </si>
-  <si>
-    <t>tt5826432</t>
-  </si>
-  <si>
-    <t>tt4341582</t>
-  </si>
-  <si>
-    <t>tt0080761</t>
-  </si>
-  <si>
-    <t>tt1837492</t>
-  </si>
-  <si>
-    <t>tt3921180</t>
-  </si>
-  <si>
-    <t>tt0117571</t>
   </si>
 </sst>
 </file>
@@ -762,34 +761,34 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>88</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>104</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>121</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>138</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>146</v>
-      </c>
-      <c r="K2" t="e">
-        <v>#N/A</v>
       </c>
       <c r="L2" t="e">
         <v>#N/A</v>
@@ -800,41 +799,41 @@
       <c r="N2" t="s">
         <v>175</v>
       </c>
-      <c r="O2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P2" t="s">
-        <v>177</v>
+      <c r="O2" t="s">
+        <v>192</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6.0037627E7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.543637</v>
+        <v>0.147552</v>
       </c>
       <c r="R2" t="n">
-        <v>0.171218</v>
+        <v>0.088705</v>
       </c>
       <c r="S2" t="n">
-        <v>0.109075</v>
+        <v>0.555339</v>
       </c>
       <c r="T2" t="n">
-        <v>0.536843</v>
+        <v>0.152022</v>
       </c>
       <c r="U2" t="n">
-        <v>0.531827</v>
+        <v>0.568121</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2872434745852267</v>
+        <v>0.09760414992270491</v>
       </c>
       <c r="W2" t="n">
-        <v>0.09046708232061715</v>
+        <v>0.058677456889052945</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05763235760329705</v>
+        <v>0.367351110211485</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.28365370389939765</v>
+        <v>0.10056100953934509</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.2810033815914615</v>
+        <v>0.37580627343741213</v>
       </c>
     </row>
     <row r="3">
@@ -842,35 +841,35 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>76</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>84</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>105</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>122</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>139</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>147</v>
       </c>
-      <c r="K3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="L3" t="e">
         <v>#N/A</v>
       </c>
@@ -878,13 +877,13 @@
         <v>#N/A</v>
       </c>
       <c r="N3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P3" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+      <c r="O3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8.0108238E7</v>
       </c>
       <c r="Q3" t="n">
         <v>0.097571</v>
@@ -922,32 +921,32 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>77</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>83</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>90</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>106</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>123</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>140</v>
       </c>
-      <c r="J4" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="K4" t="e">
         <v>#N/A</v>
       </c>
@@ -958,13 +957,13 @@
         <v>#N/A</v>
       </c>
       <c r="N4" t="s">
-        <v>175</v>
-      </c>
-      <c r="O4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P4" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="O4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6.0036691E7</v>
       </c>
       <c r="Q4" t="n">
         <v>0.065575</v>
@@ -1002,49 +1001,49 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>62</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>76</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>85</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>91</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>107</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>124</v>
       </c>
-      <c r="I5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="J5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K5" t="s">
         <v>148</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>159</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>166</v>
       </c>
-      <c r="M5" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="N5" t="s">
-        <v>176</v>
-      </c>
-      <c r="O5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P5" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="O5" t="s">
+        <v>193</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8.0025678E7</v>
       </c>
       <c r="Q5" t="n">
         <v>0.174922</v>
@@ -1082,79 +1081,79 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>78</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>86</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>92</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>108</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>125</v>
       </c>
-      <c r="I6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="J6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K6" t="s">
         <v>149</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>160</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>167</v>
       </c>
-      <c r="M6" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="N6" t="s">
-        <v>176</v>
-      </c>
-      <c r="O6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P6" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="O6" t="s">
+        <v>193</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.0177083E7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.477527</v>
+        <v>0.216033</v>
       </c>
       <c r="R6" t="n">
-        <v>0.530428</v>
+        <v>0.534474</v>
       </c>
       <c r="S6" t="n">
-        <v>0.170599</v>
+        <v>0.168338</v>
       </c>
       <c r="T6" t="n">
-        <v>0.062769</v>
+        <v>0.090367</v>
       </c>
       <c r="U6" t="n">
-        <v>0.573188</v>
+        <v>0.520245</v>
       </c>
       <c r="V6" t="n">
-        <v>0.26317117945275614</v>
+        <v>0.14124816846763263</v>
       </c>
       <c r="W6" t="n">
-        <v>0.29232559075144765</v>
+        <v>0.3494534334734485</v>
       </c>
       <c r="X6" t="n">
-        <v>0.09401927020558155</v>
+        <v>0.11006389849469453</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.03459279111562289</v>
+        <v>0.05908436785081242</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3158911684745918</v>
+        <v>0.340150131713412</v>
       </c>
     </row>
     <row r="7">
@@ -1162,49 +1161,49 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>79</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>86</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>93</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>109</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>126</v>
       </c>
-      <c r="I7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="J7" t="e">
         <v>#N/A</v>
       </c>
       <c r="K7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M7" t="s">
         <v>168</v>
       </c>
-      <c r="M7" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="N7" t="s">
-        <v>176</v>
-      </c>
-      <c r="O7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P7" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="O7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8.0144588E7</v>
       </c>
       <c r="Q7" t="n">
         <v>0.027752</v>
@@ -1242,35 +1241,35 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>80</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>83</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>94</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>110</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>127</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>141</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>150</v>
       </c>
-      <c r="K8" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="L8" t="e">
         <v>#N/A</v>
       </c>
@@ -1278,13 +1277,13 @@
         <v>#N/A</v>
       </c>
       <c r="N8" t="s">
-        <v>175</v>
-      </c>
-      <c r="O8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P8" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="O8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8.0037759E7</v>
       </c>
       <c r="Q8" t="n">
         <v>0.119754</v>
@@ -1322,49 +1321,49 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>66</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>76</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>85</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>95</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>111</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>128</v>
       </c>
-      <c r="I9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="J9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K9" t="s">
         <v>151</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>161</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>169</v>
       </c>
-      <c r="M9" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="N9" t="s">
-        <v>176</v>
-      </c>
-      <c r="O9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P9" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="O9" t="s">
+        <v>193</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7.0184207E7</v>
       </c>
       <c r="Q9" t="n">
         <v>0.155662</v>
@@ -1402,49 +1401,49 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>67</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>78</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>86</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>96</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>112</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>129</v>
       </c>
-      <c r="I10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="J10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K10" t="s">
         <v>152</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>162</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>170</v>
       </c>
-      <c r="M10" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="N10" t="s">
-        <v>176</v>
-      </c>
-      <c r="O10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P10" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="O10" t="s">
+        <v>193</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8.0025384E7</v>
       </c>
       <c r="Q10" t="n">
         <v>0.175798</v>
@@ -1482,49 +1481,49 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>68</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>80</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>86</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>97</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>113</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>130</v>
       </c>
-      <c r="I11" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="J11" t="e">
         <v>#N/A</v>
       </c>
       <c r="K11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M11" t="s">
         <v>171</v>
       </c>
-      <c r="M11" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="N11" t="s">
-        <v>176</v>
-      </c>
-      <c r="O11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P11" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="O11" t="s">
+        <v>193</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8.000077E7</v>
       </c>
       <c r="Q11" t="n">
         <v>0.49291</v>
@@ -1562,49 +1561,49 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>76</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>86</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>98</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>114</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>131</v>
       </c>
-      <c r="I12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="J12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K12" t="s">
         <v>153</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>163</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>172</v>
       </c>
-      <c r="M12" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="N12" t="s">
-        <v>176</v>
-      </c>
-      <c r="O12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P12" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="O12" t="s">
+        <v>193</v>
+      </c>
+      <c r="P12" t="n">
+        <v>8.0107369E7</v>
       </c>
       <c r="Q12" t="n">
         <v>0.167316</v>
@@ -1642,35 +1641,35 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>78</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>85</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>94</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>115</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>132</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>142</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>154</v>
       </c>
-      <c r="K13" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="L13" t="e">
         <v>#N/A</v>
       </c>
@@ -1678,13 +1677,13 @@
         <v>#N/A</v>
       </c>
       <c r="N13" t="s">
-        <v>175</v>
-      </c>
-      <c r="O13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P13" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="O13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P13" t="n">
+        <v>8.0097003E7</v>
       </c>
       <c r="Q13" t="n">
         <v>0.567008</v>
@@ -1722,35 +1721,35 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>81</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>87</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>99</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>116</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>133</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>143</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>155</v>
       </c>
-      <c r="K14" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="L14" t="e">
         <v>#N/A</v>
       </c>
@@ -1758,43 +1757,43 @@
         <v>#N/A</v>
       </c>
       <c r="N14" t="s">
-        <v>175</v>
-      </c>
-      <c r="O14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P14" t="s">
-        <v>189</v>
+        <v>187</v>
+      </c>
+      <c r="O14" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7.0052705E7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.149287</v>
+        <v>0.124213</v>
       </c>
       <c r="R14" t="n">
-        <v>0.558095</v>
+        <v>0.142243</v>
       </c>
       <c r="S14" t="n">
-        <v>0.085299</v>
+        <v>0.100112</v>
       </c>
       <c r="T14" t="n">
-        <v>0.089026</v>
+        <v>0.52995</v>
       </c>
       <c r="U14" t="n">
-        <v>0.197994</v>
+        <v>0.505148</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1382669831740454</v>
+        <v>0.08861811587068531</v>
       </c>
       <c r="W14" t="n">
-        <v>0.5168977337244293</v>
+        <v>0.1014813800149251</v>
       </c>
       <c r="X14" t="n">
-        <v>0.07900242752391634</v>
+        <v>0.07142357737149935</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.08245430910965165</v>
+        <v>0.3780857921930046</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.18337854646795734</v>
+        <v>0.36039113454988564</v>
       </c>
     </row>
     <row r="15">
@@ -1802,32 +1801,32 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>55</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>76</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>85</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>100</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>117</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>134</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>144</v>
       </c>
-      <c r="J15" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="K15" t="e">
         <v>#N/A</v>
       </c>
@@ -1838,43 +1837,43 @@
         <v>#N/A</v>
       </c>
       <c r="N15" t="s">
-        <v>175</v>
-      </c>
-      <c r="O15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P15" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="O15" t="s">
+        <v>192</v>
+      </c>
+      <c r="P15" t="n">
+        <v>8.0091741E7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.196093</v>
+        <v>0.424133</v>
       </c>
       <c r="R15" t="n">
-        <v>0.165125</v>
+        <v>0.148124</v>
       </c>
       <c r="S15" t="n">
-        <v>0.495154</v>
+        <v>0.049082</v>
       </c>
       <c r="T15" t="n">
-        <v>0.116503</v>
+        <v>0.075673</v>
       </c>
       <c r="U15" t="n">
-        <v>0.234206</v>
+        <v>0.521167</v>
       </c>
       <c r="V15" t="n">
-        <v>0.16245222980065133</v>
+        <v>0.34816968606419907</v>
       </c>
       <c r="W15" t="n">
-        <v>0.13679695066031194</v>
+        <v>0.1215946096591716</v>
       </c>
       <c r="X15" t="n">
-        <v>0.41020776567604</v>
+        <v>0.04029128724103764</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0965163066935856</v>
+        <v>0.062119770575588644</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.19402674716941118</v>
+        <v>0.427824646460003</v>
       </c>
     </row>
     <row r="16">
@@ -1882,49 +1881,49 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>73</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>78</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>85</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>101</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>118</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>135</v>
       </c>
-      <c r="I16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="J16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K16" t="s">
         <v>156</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>164</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>173</v>
       </c>
-      <c r="M16" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="N16" t="s">
-        <v>176</v>
-      </c>
-      <c r="O16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P16" t="s">
-        <v>191</v>
+        <v>189</v>
+      </c>
+      <c r="O16" t="s">
+        <v>193</v>
+      </c>
+      <c r="P16" t="n">
+        <v>8.011747E7</v>
       </c>
       <c r="Q16" t="n">
         <v>0.490106</v>
@@ -1962,49 +1961,49 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>76</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>86</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>102</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>119</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>136</v>
       </c>
-      <c r="I17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="J17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K17" t="s">
         <v>157</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>165</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>174</v>
       </c>
-      <c r="M17" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="N17" t="s">
-        <v>176</v>
-      </c>
-      <c r="O17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P17" t="s">
-        <v>192</v>
+        <v>190</v>
+      </c>
+      <c r="O17" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" t="n">
+        <v>8.0053653E7</v>
       </c>
       <c r="Q17" t="n">
         <v>0.129567</v>
@@ -2042,35 +2041,35 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>74</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>82</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>83</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>103</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>120</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>137</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>145</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>158</v>
       </c>
-      <c r="K18" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="L18" t="e">
         <v>#N/A</v>
       </c>
@@ -2078,13 +2077,13 @@
         <v>#N/A</v>
       </c>
       <c r="N18" t="s">
-        <v>175</v>
-      </c>
-      <c r="O18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P18" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="O18" t="s">
+        <v>192</v>
+      </c>
+      <c r="P18" t="n">
+        <v>939827.0</v>
       </c>
       <c r="Q18" t="n">
         <v>0.526154</v>

--- a/netflix_items_watson_analysis.xlsx
+++ b/netflix_items_watson_analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="306">
   <si>
     <t>NA..1</t>
   </si>
@@ -20,6 +20,9 @@
     <t>NA.</t>
   </si>
   <si>
+    <t>Netflix_id</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
@@ -56,9 +59,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>Netflix_id</t>
-  </si>
-  <si>
     <t>anger</t>
   </si>
   <si>
@@ -140,6 +140,54 @@
     <t>17</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>60037627</t>
   </si>
   <si>
@@ -191,6 +239,39 @@
     <t>939827</t>
   </si>
   <si>
+    <t>70178217</t>
+  </si>
+  <si>
+    <t>80117485</t>
+  </si>
+  <si>
+    <t>80168188</t>
+  </si>
+  <si>
+    <t>70049392</t>
+  </si>
+  <si>
+    <t>80024103</t>
+  </si>
+  <si>
+    <t>80088567</t>
+  </si>
+  <si>
+    <t>70153404</t>
+  </si>
+  <si>
+    <t>80133335</t>
+  </si>
+  <si>
+    <t>70300205</t>
+  </si>
+  <si>
+    <t>70208248</t>
+  </si>
+  <si>
+    <t>60029157</t>
+  </si>
+  <si>
     <t>The Manchurian Candidate</t>
   </si>
   <si>
@@ -239,6 +320,39 @@
     <t>Scream</t>
   </si>
   <si>
+    <t>House of Cards</t>
+  </si>
+  <si>
+    <t>Friends from College</t>
+  </si>
+  <si>
+    <t>Chasing Coral</t>
+  </si>
+  <si>
+    <t>The Astronaut Farmer</t>
+  </si>
+  <si>
+    <t>American Crime</t>
+  </si>
+  <si>
+    <t>Captain America: Civil War</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>Call My Agent!</t>
+  </si>
+  <si>
+    <t>The Babadook</t>
+  </si>
+  <si>
+    <t>J. Edgar</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
+  </si>
+  <si>
     <t>2004</t>
   </si>
   <si>
@@ -263,6 +377,15 @@
     <t>1996</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
@@ -278,6 +401,12 @@
     <t>PG-13</t>
   </si>
   <si>
+    <t>TV-PG</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
     <t>2h 9m</t>
   </si>
   <si>
@@ -324,6 +453,39 @@
   </si>
   <si>
     <t>1h 51m</t>
+  </si>
+  <si>
+    <t>57m, 49m, 51m, 49m, 53m, 50m, 54m, 47m, 52m, 53m, 54m, 53m, 50m, 50m, 49m, 52m, 48m, 50m, 52m, 49m, 48m, 50m, 51m, 54m, 48m, 60m, 59m, 55m, 53m, 48m, 52m, 54m, 53m, 44m, 52m, 57m, 53m, 50m, 58m, 49m, 42m, 55m, 43m, 48m, 48m, 52m, 47m, 46m, 57m, 52m, 47m, 55m, 55m, 52m, 53m, 45m, 52m, 55m, 49m, 46m, 55m, 57m, 51m, 54m, 56m</t>
+  </si>
+  <si>
+    <t>31m, 28m, 31m, 31m, 32m, 33m, 30m, 35m</t>
+  </si>
+  <si>
+    <t>1h 29m</t>
+  </si>
+  <si>
+    <t>1h 44m</t>
+  </si>
+  <si>
+    <t>44m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 43m, 42m, 43m, 43m, 43m, 43m, 43m, 43m</t>
+  </si>
+  <si>
+    <t>2h 28m</t>
+  </si>
+  <si>
+    <t>23m, 23m, 23m, 23m, 23m, 21m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 22m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 22m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 23m, 22m, 22m, 22m, 22m, 22m, 22m, 23m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 23m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 21m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 21m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 22m, 23m, 23m, 23m, 23m, 23m, 32m, 23m, 25m, 23m, 23m, 23m, 23m, 31m, 23m, 23m, 23m, 24m, 23m, 24m, 24m, 27m, 25m, 21m, 21m, 29m, 24m, 24m, 23m, 28m, 24m, 23m, 23m, 25m, 23m, 27m, 30m, 24m, 23m, 23m, 23m, 48m</t>
+  </si>
+  <si>
+    <t>55m, 53m, 52m, 53m, 48m, 52m</t>
+  </si>
+  <si>
+    <t>1h 33m</t>
+  </si>
+  <si>
+    <t>2h 16m</t>
+  </si>
+  <si>
+    <t>2h 23m</t>
   </si>
   <si>
     <t xml:space="preserve">Two U.S. soldiers in the first Gulf War are programmed to rebel once they return home. Several years later, one becomes a vice presidential candidate. 
@@ -343,7 +505,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Release Year: 2010Police Comm. Reagan constantly tends to the well-being of his progeny, which includes Det. Danny, assistant DA Erin and rookie cop Jamie.1. Pilot43mIn the pilot episode, Jamie graduates from the Police Academy and joins the NYPD after deciding not to pursue his career as a lawyer.2. Samaritan43mA good Samaritan who takes action against a criminal terrorizing the subway has the Reagans pondering the rights and wrongs of vigilantism.3. Privilege43mErin, Frank and Danny must find a way to bring justice for a rape victim when the suspect is protected by diplomatic immunity.4. Officer Down43mThe entire NYPD is mobilized to find the killer of a police officer who exchanged gunfire with robbers during a diamond heist.5. What You See43mFrank, Danny and the rest of the NYPD search for a bomb set to detonate in Manhattan. The Reagans argue the merits and downfalls of profiling.6. Smack Attack43mDanny must find the narcotic source when three teenagers die from a drug overdose.7. Brothers44mErin's family debates her methods when she uses a law-abiding citizen as bait to take down his gang leader brother.8. Chinatown43mJamie witnesses a crime in progress and kills the suspect while pursuing him. Danny must solve the case to clear Jamie's name.9. Re-Do42mThree released prison inmates place the Reagan family in danger. They try to get one of the criminal's surviving victims to testify against him.10. After Hours43mWhile Danny investigates the murder of a popular nightclub's doorman, Frank gets information that his ex-partner is covering up crimes.11. Little Fish43mA cold case of Frank's is brought to the forefront when a missing boy's remains are found. Danny and Jackie look into the death of a high-end escort.12. Family Ties43mDanny investigates when the son of a Russian gangster is killed and Erin is assigned a high-profile corruption case.13. Hall of Mirrors41mBecause it involves classified information and a sleeper cell, Frank assigns Danny to cover the shooting of an undercover counter-terrorism agent.14. My Funny Valentine43mA drug addict becomes the prime focus of Danny and Jackie's investigation after the man's girlfriend is kidnapped and held for ransom.15. Dedication42mIs someone out to assassinate the Commissioner or was the shooting random? Danny takes on the assignment to find out the answer.16. Age of Innocence43mNicky goes with Danny to a crime scene where a girl has been murdered, and she has a difficult time coping after seeing her first murder victim.17. Silver Star43mAs a former Marine, Danny feels responsible for finding the killer of a Marine war hero. There's a false rumor that Frank is going to run for mayor.18. To Tell the Truth43mJust before Danny is to testify at a Peruvian drug lord's murder trial, Linda is kidnapped. This drug lord has a history of intimidating witnesses.19. Model Behavior41mDanny and Jackie investigate the cut-throat world of fashion after Linda's runway model niece and a reporter are poisoned at a fashion show.20. All That Glitters43mFrank's frustrations rise when the media sensationalizes the murder of a tourist shot and killed outside a trendy Lower East Side restaurant.21. Cellar Boy43mNeighbors of the Reagans are murdered, and their son becomes the prime suspect. Jamie is convinced he's being pursued by the Blue Templar.22. The Blue Templar44mWhen a drug bust points to dirty cops, Frank decides not to involve Internal Affairs in the hopes of taking down and exposing the Blue Templar., Release Year: 2010, 1. Pilot43mIn the pilot episode, Jamie graduates from the Police Academy and joins the NYPD after deciding not to pursue his career as a lawyer.2. Samaritan43mA good Samaritan who takes action against a criminal terrorizing the subway has the Reagans pondering the rights and wrongs of vigilantism.3. Privilege43mErin, Frank and Danny must find a way to bring justice for a rape victim when the suspect is protected by diplomatic immunity.4. Officer Down43mThe entire NYPD is mobilized to find the killer of a police officer who exchanged gunfire with robbers during a diamond heist.5. What You See43mFrank, Danny and the rest of the NYPD search for a bomb set to detonate in Manhattan. The Reagans argue the merits and downfalls of profiling.6. Smack Attack43mDanny must find the narcotic source when three teenagers die from a drug overdose.7. Brothers44mErin's family debates her methods when she uses a law-abiding citizen as bait to take down his gang leader brother.8. Chinatown43mJamie witnesses a crime in progress and kills the suspect while pursuing him. Danny must solve the case to clear Jamie's name.9. Re-Do42mThree released prison inmates place the Reagan family in danger. They try to get one of the criminal's surviving victims to testify against him.10. After Hours43mWhile Danny investigates the murder of a popular nightclub's doorman, Frank gets information that his ex-partner is covering up crimes.11. Little Fish43mA cold case of Frank's is brought to the forefront when a missing boy's remains are found. Danny and Jackie look into the death of a high-end escort.12. Family Ties43mDanny investigates when the son of a Russian gangster is killed and Erin is assigned a high-profile corruption case.13. Hall of Mirrors41mBecause it involves classified information and a sleeper cell, Frank assigns Danny to cover the shooting of an undercover counter-terrorism agent.14. My Funny Valentine43mA drug addict becomes the prime focus of Danny and Jackie's investigation after the man's girlfriend is kidnapped and held for ransom.15. Dedication42mIs someone out to assassinate the Commissioner or was the shooting random? Danny takes on the assignment to find out the answer.16. Age of Innocence43mNicky goes with Danny to a crime scene where a girl has been murdered, and she has a difficult time coping after seeing her first murder victim.17. Silver Star43mAs a former Marine, Danny feels responsible for finding the killer of a Marine war hero. There's a false rumor that Frank is going to run for mayor.18. To Tell the Truth43mJust before Danny is to testify at a Peruvian drug lord's murder trial, Linda is kidnapped. This drug lord has a history of intimidating witnesses.19. Model Behavior41mDanny and Jackie investigate the cut-throat world of fashion after Linda's runway model niece and a reporter are poisoned at a fashion show.20. All That Glitters43mFrank's frustrations rise when the media sensationalizes the murder of a tourist shot and killed outside a trendy Lower East Side restaurant.21. Cellar Boy43mNeighbors of the Reagans are murdered, and their son becomes the prime suspect. Jamie is convinced he's being pursued by the Blue Templar.22. The Blue Templar44mWhen a drug bust points to dirty cops, Frank decides not to involve Internal Affairs in the hopes of taking down and exposing the Blue Templar., Release Year: 2011In Season 2, Jamie's undercover investigation of the mob becomes dangerous, Frank wrestles with City Hall politics, and Danny faces Erin in court.1. Mercy44mWhen one of his supporters is murdered, the new mayor pressures Frank to spin the killing as a random act of violence.2. Friendly Fire43mAfter Danny accidentally shoots a cop, Internal Affairs starts an investigation, focusing on his state of mind at the time of the shooting.3. Critical Condition42mDanny discovers that a former cop is one of the men who attempted to rob a bank. Meanwhile, Jamie gets a new partner.4. Innocence42mErin reopens an 18-year-old rape case first investigated by Frank. Meanwhile, Danny and Jackie probe the murders of three teens in a park.5. A Night on the Town43mWhile on a case, Danny tries to swing a romantic weekend with Linda. Elsewhere, Jamie's undercover assignment takes him inside a crime family.6. Black and Blue41mFrank must deal with a political crisis after Jamie and Renzulli are injured while attempting to enter a religious center in response to a 911 call.7. Lonely Hearts Club42mWhen a serial killer starts targeting prostitutes, Jackie goes undercover as an escort. Meanwhile, Erin meets a man who shares her interests.8. Thanksgiving44mHenry's heart attack on Thanksgiving eve leaves the family pondering a future without him. Meanwhile, Danny and Jackie look into an alleged suicide.9. Moonlighting42mTo get leniency for his son, an ex-mobster helps Danny on some cold cases. Meanwhile, Jamie works undercover in the Sanfino crime family.10. Whistle Blower42mDanny and Erin must work together to find out who killed her informant.11. The Uniform40mDanny and Jackie investigate when a uniformed officer is seen fleeing the scene of a murder at a diner.12. The Job44mWhile driving his family home, Danny becomes involved in a shooting after his car strikes a man running from a gunman.13. Leap of Faith43mAfter a rich woman dies of a heart attack, her daughter claims God told her that her mother was murdered, prompting Danny and Jackie to investigate.14. Parenthood44mWhen a thief is shot and killed after robbing and beating a family, the Reagans ponder how far they'd go to protect one another.15. The Life We Choose41mDanny's family worries about his emotional state as he and Jackie investigate the murder of a Reagan family friend who was an undercover detective.16. Women with Guns42mA high-profile reporter, who happens to be a close friend of Frank's, is almost assaulted. Elsewhere, Jamie's undercover case reaches a crucial stage.17. Reagan v. Reagan43mWhile Erin is prosecuting a homicide case, the defendant's lawyer is murdered. Danny investigates, and things get tense when Erin cross-examines him.18. No Questions Asked42mA gun buyback program has a no-questions-asked rule, but when a returned gun is linked to a robbery, Danny must decide whether to arrest the suspect.19. Some Kind of Hero41mPressured by the 12-year-old son of a firefighter whose death was ruled a suicide, Danny reopens a closed case, enraging his fellow detectives.20. Working Girls42mAfter an attempt is made on the life of a witness in protective custody, Danny and Jackie discover a leak within the department.21. Collateral Damage42mA big-spending investor's death looks suspicious to Danny and Jackie. Meanwhile, Jamie is placed under house arrest when a hit is put out on his life.22. Mother's Day43mUnbeknownst to his family, Frank must deal with a potential biological weapons attack on New York City as the Reagans celebrate Mother's Day., Release Year: 2011, 1. Mercy44mWhen one of his supporters is murdered, the new mayor pressures Frank to spin the killing as a random act of violence.2. Friendly Fire43mAfter Danny accidentally shoots a cop, Internal Affairs starts an investigation, focusing on his state of mind at the time of the shooting.3. Critical Condition42mDanny discovers that a former cop is one of the men who attempted to rob a bank. Meanwhile, Jamie gets a new partner.4. Innocence42mErin reopens an 18-year-old rape case first investigated by Frank. Meanwhile, Danny and Jackie probe the murders of three teens in a park.5. A Night on the Town43mWhile on a case, Danny tries to swing a romantic weekend with Linda. Elsewhere, Jamie's undercover assignment takes him inside a crime family.6. Black and Blue41mFrank must deal with a political crisis after Jamie and Renzulli are injured while attempting to enter a religious center in response to a 911 call.7. Lonely Hearts Club42mWhen a serial killer starts targeting prostitutes, Jackie goes undercover as an escort. Meanwhile, Erin meets a man who shares her interests.8. Thanksgiving44mHenry's heart attack on Thanksgiving eve leaves the family pondering a future without him. Meanwhile, Danny and Jackie look into an alleged suicide.9. Moonlighting42mTo get leniency for his son, an ex-mobster helps Danny on some cold cases. Meanwhile, Jamie works undercover in the Sanfino crime family.10. Whistle Blower42mDanny and Erin must work together to find out who killed her informant.11. The Uniform40mDanny and Jackie investigate when a uniformed officer is seen fleeing the scene of a murder at a diner.12. The Job44mWhile driving his family home, Danny becomes involved in a shooting after his car strikes a man running from a gunman.13. Leap of Faith43mAfter a rich woman dies of a heart attack, her daughter claims God told her that her mother was murdered, prompting Danny and Jackie to investigate.14. Parenthood44mWhen a thief is shot and killed after robbing and beating a family, the Reagans ponder how far they'd go to protect one another.15. The Life We Choose41mDanny's family worries about his emotional state as he and Jackie investigate the murder of a Reagan family friend who was an undercover detective.16. Women with Guns42mA high-profile reporter, who happens to be a close friend of Frank's, is almost assaulted. Elsewhere, Jamie's undercover case reaches a crucial stage.17. Reagan v. Reagan43mWhile Erin is prosecuting a homicide case, the defendant's lawyer is murdered. Danny investigates, and things get tense when Erin cross-examines him.18. No Questions Asked42mA gun buyback program has a no-questions-asked rule, but when a returned gun is linked to a robbery, Danny must decide whether to arrest the suspect.19. Some Kind of Hero41mPressured by the 12-year-old son of a firefighter whose death was ruled a suicide, Danny reopens a closed case, enraging his fellow detectives.20. Working Girls42mAfter an attempt is made on the life of a witness in protective custody, Danny and Jackie discover a leak within the department.21. Collateral Damage42mA big-spending investor's death looks suspicious to Danny and Jackie. Meanwhile, Jamie is placed under house arrest when a hit is put out on his life.22. Mother's Day43mUnbeknownst to his family, Frank must deal with a potential biological weapons attack on New York City as the Reagans celebrate Mother's Day., Release Year: 2012For Frank Reagan's family, law enforcement is the only business that matters. As NYC Police Commissioner, Frank holds the same position his dad did.1. Family Business41mA dangerous criminal from Danny's past comes back to seek revenge and kidnaps Jackie. Meanwhile, Jamie meets his new partner.2. Domestic Disturbance43mWhen an injured woman recants her claim of domestic violence, Danny and Jackie find that she is involved in a secret relationship.3. Old Wounds43mDanny believes a serial killer is on the loose when two separate murder victims are identified as members of a group charged with a gang rape.4. Scorched Earth42mDanny and Jackie set out to investigate the murder of a bride on her wedding day in a drive-by gang shooting, but are diverted to a different case.5. Risk and Reward40mShortly after Frank awards a detective with a medal for his undercover work in Malaysia, the detective is taken hostage by a Malaysian drug lord.6. Greener Grass41mWhen Erin's key witness, an infamous photographer, is nearly killed in a hit and run, she arranges for Danny to safeguard him.7. Nightmares43mWhen a knife-wielding attacker dressed as Baron Samedi, the Spirit of Death, stabs a man in costume on Halloween, Danny enters the world of voodoo.8. Higher Education44mDanny arrives at a college campus to find a murdered student, who was thought to be dealing drugs.9. Secrets and Lies43mWhen Danny and Kate come up empty-handed on leads for a shooting, Linda overhears the victim telling his priest who is responsible.10. Fathers and Sons40mWhen two motorists driving gas-guzzling cars die at the hands of a sniper, the city believes it's the work of a radical environmental serial killer.11. Front Page News42mJamie must deal with the emotional consequences of his actions on the job when he has a confrontation with a suicidal man.12. Framed42mDanny's car matches an NYPD description of a vehicle involved in a drug deal, and he is taken into custody when cocaine is found in the trunk.13. Inside Jobs42mWhen a man with multiple rat bites is thrown from a moving car, Danny works the case to find out who was trying to send a message and why.14. Men in Black43mBefore a Hasidic grand rebbe passes away, he chooses his youngest son to succeed him. But when the new appointee dies suddenly, Danny investigates.15. Warriors43mWhen a 10-year-old boy is the victim of an incident in the projects, Danny's heated approach to the case lands him in anger management class.16. Quid Pro Quo41mErin and Danny investigate a cold case involving a girl who was attacked by her rich and powerful boyfriend, who was never convicted.17. Protest Too Much43mWhen an off-duty cop tries to stop a bank robbery, he is disarmed by the "Bonnie and Clyde" robbers who take his gun and wound an innocent bystander.18. No Regrets44mWhen the same tragedy occurs to people who don't appear to be connected, Danny must find out what they have in common and who is responsible.19. Loss of Faith42mWhen a religious young woman is murdered, Danny questions her family members, who are shocked to learn that she had a secret relationship.20. Ends &amp; Means43mWhen two Wall Street brokers are killed in drug deals, Danny looks to question a wounded accomplice at the hospital, but he is stopped by Linda.21. Devil's Breath43mWhen Danny finds a disoriented man covered in blood in a park, he finds it hard to believe that the man has no recollection of the night's events.22. The Bitter End40mWhen a young woman commits suicide, Danny is emotional because he promised to help the woman when her parents were taken from her.23. This Way Out41mAs the Reagans rally to take down a gang leader responsible for the murder of someone close to them, Danny looks to the leader's girlfriend for help., Release Year: 2012, 1. Family Business41mA dangerous criminal from Danny's past comes back to seek revenge and kidnaps Jackie. Meanwhile, Jamie meets his new partner.2. Domestic Disturbance43mWhen an injured woman recants her claim of domestic violence, Danny and Jackie find that she is involved in a secret relationship.3. Old Wounds43mDanny believes a serial killer is on the loose when two separate murder victims are identified as members of a group charged with a gang rape.4. Scorched Earth42mDanny and Jackie set out to investigate the murder of a bride on her wedding day in a drive-by gang shooting, but are diverted to a different case.5. Risk and Reward40mShortly after Frank awards a detective with a medal for his undercover work in Malaysia, the detective is taken hostage by a Malaysian drug lord.6. Greener Grass41mWhen Erin's key witness, an infamous photographer, is nearly killed in a hit and run, she arranges for Danny to safeguard him.7. Nightmares43mWhen a knife-wielding attacker dressed as Baron Samedi, the Spirit of Death, stabs a man in costume on Halloween, Danny enters the world of voodoo.8. Higher Education44mDanny arrives at a college campus to find a murdered student, who was thought to be dealing drugs.9. Secrets and Lies43mWhen Danny and Kate come up empty-handed on leads for a shooting, Linda overhears the victim telling his priest who is responsible.10. Fathers and Sons40mWhen two motorists driving gas-guzzling cars die at the hands of a sniper, the city believes it's the work of a radical environmental serial killer.11. Front Page News42mJamie must deal with the emotional consequences of his actions on the job when he has a confrontation with a suicidal man.12. Framed42mDanny's car matches an NYPD description of a vehicle involved in a drug deal, and he is taken into custody when cocaine is found in the trunk.13. Inside Jobs42mWhen a man with multiple rat bites is thrown from a moving car, Danny works the case to find out who was trying to send a message and why.14. Men in Black43mBefore a Hasidic grand rebbe passes away, he chooses his youngest son to succeed him. But when the new appointee dies suddenly, Danny investigates.15. Warriors43mWhen a 10-year-old boy is the victim of an incident in the projects, Danny's heated approach to the case lands him in anger management class.16. Quid Pro Quo41mErin and Danny investigate a cold case involving a girl who was attacked by her rich and powerful boyfriend, who was never convicted.17. Protest Too Much43mWhen an off-duty cop tries to stop a bank robbery, he is disarmed by the "Bonnie and Clyde" robbers who take his gun and wound an innocent bystander.18. No Regrets44mWhen the same tragedy occurs to people who don't appear to be connected, Danny must find out what they have in common and who is responsible.19. Loss of Faith42mWhen a religious young woman is murdered, Danny questions her family members, who are shocked to learn that she had a secret relationship.20. Ends &amp; Means43mWhen two Wall Street brokers are killed in drug deals, Danny looks to question a wounded accomplice at the hospital, but he is stopped by Linda.21. Devil's Breath43mWhen Danny finds a disoriented man covered in blood in a park, he finds it hard to believe that the man has no recollection of the night's events.22. The Bitter End40mWhen a young woman commits suicide, Danny is emotional because he promised to help the woman when her parents were taken from her.23. This Way Out41mAs the Reagans rally to take down a gang leader responsible for the murder of someone close to them, Danny looks to the leader's girlfriend for help., Release Year: 2013In Season 4, the Reagan family's challenges range from police killings to hostage crises to personal issues, but they face them as a family.1. Unwritten Rules44mWhen an armed robbery ends with the death of a police officer, Frank makes it a mission for the NYPD to bring the suspect to justice.2. The City That Never Sleeps44mWhen famous movie star Russell Berke is stabbed, Danny goes to his aid, but must keep the crime on the down-low due to Berke's celebrity status.3. To Protect and Serve41mDanny becomes the lead hostage negotiator when a prime informant in a large drug case holds Erin at gunpoint inside the courtroom.4. The Truth About Lying42mDanny and Baez investigate the death of a teenage girl who appears to have been pushed in front of a subway car by a homeless man.5. Lost and Found42mWhen Danny and Baez suspect a little girl might be the victim of a kidnapping, the girl's mother denies it, but her story doesn't add up.6. Growing Boys43mWhen a gangbanger dies after Jamie chases him away from the boy he's mentoring, Jamie's conduct is called into question.7. Drawing Dead43mWhen an officer is accused of using excessive force on a suspect, Frank finds his department under scrutiny from the community and the mayor.8. Justice Served42mAfter Frank has dinner with mob lawyer Angelo Gallo, Gallo is shot and Frank narrowly escapes with his own life.9. Bad Blood42mDanny and Baez investigate a homicide in which Baez's estranged brother, a former drug addict, is the lead suspect.10. Mistaken Identity41mDanny and Baez investigate a local bombing, but meet with tension and resistance from the community during the investigation.11. Ties That Bind43mDanny's loyalty is tested when he's assigned to the case of a childhood friend who is under investigation for having ties to an infamous mob family.12. The Bogeyman44mWhen Danny learns from Nicky that there's a deadly new brand of heroin hitting the streets, he begins an all-out manhunt for the distributor.13. Unfinished Business43mDanny and Baez must track down a veteran who may be suffering from PTSD. Meanwhile, Frank is caught off-guard during a press conference.14. Manhattan Queens42mDanny and Baez investigate the murder of Tiffany Lamp, a popular drag queen from a reality television show who was found murdered in a local park.15. Open Secrets43mWhen Danny and Baez investigate the kidnapping of a young girl who disappeared after school, it brings back difficult memories for Danny.16. Insult to Injury40mDanny takes a call from a woman who is threatening to kill herself along with the man who killed her parents in a drunk-driving accident.17. Knockout Game43mDanny and Baez investigate when an expectant mother is a victim of a "knockout game," in which teenagers punch unsuspecting civilians in the head.18. Righting Wrongs43mDanny and Baez investigate the death of a woman whose body was dumped after she died in the wake of a "secret" plastic surgery.19. Secret Arrangements44mDanny and Baez investigate the murder of a respected college professor who was involved with a questionable scholarship program.20. Custody Battle42mErin is assigned to investigate a case in which an on-duty police officer is accused of killing a suspect already in custody.21. Above and Beyond42mWhen a detective from Danny's precinct is killed while working undercover, Frank puts on a full-court press to find his killer.22. Exiles43mWhen Danny is placed on modified duty after investigating a case that was off-limits, he realizes somebody is trying to keep something quiet., Release Year: 2013, 1. Unwritten Rules44mWhen an armed robbery ends with the death of a police officer, Frank makes it a mission for the NYPD to bring the suspect to justice.2. The City That Never Sleeps44mWhen famous movie star Russell Berke is stabbed, Danny goes to his aid, but must keep the crime on the down-low due to Berke's celebrity status.3. To Protect and Serve41mDanny becomes the lead hostage negotiator when a prime informant in a large drug case holds Erin at gunpoint inside the courtroom.4. The Truth About Lying42mDanny and Baez investigate the death of a teenage girl who appears to have been pushed in front of a subway car by a homeless man.5. Lost and Found42mWhen Danny and Baez suspect a little girl might be the victim of a kidnapping, the girl's mother denies it, but her story doesn't add up.6. Growing Boys43mWhen a gangbanger dies after Jamie chases him away from the boy he's mentoring, Jamie's conduct is called into question.7. Drawing Dead43mWhen an officer is accused of using excessive force on a suspect, Frank finds his department under scrutiny from the community and the mayor.8. Justice Served42mAfter Frank has dinner with mob lawyer Angelo Gallo, Gallo is shot and Frank narrowly escapes with his own life.9. Bad Blood42mDanny and Baez investigate a homicide in which Baez's estranged brother, a former drug addict, is the lead suspect.10. Mistaken Identity41mDanny and Baez investigate a local bombing, but meet with tension and resistance from the community during the investigation.11. Ties That Bind43mDanny's loyalty is tested when he's assigned to the case of a childhood friend who is under investigation for having ties to an infamous mob family.12. The Bogeyman44mWhen Danny learns from Nicky that there's a deadly new brand of heroin hitting the streets, he begins an all-out manhunt for the distributor.13. Unfinished Business43mDanny and Baez must track down a veteran who may be suffering from PTSD. Meanwhile, Frank is caught off-guard during a press conference.14. Manhattan Queens42mDanny and Baez investigate the murder of Tiffany Lamp, a popular drag queen from a reality television show who was found murdered in a local park.15. Open Secrets43mWhen Danny and Baez investigate the kidnapping of a young girl who disappeared after school, it brings back difficult memories for Danny.16. Insult to Injury40mDanny takes a call from a woman who is threatening to kill herself along with the man who killed her parents in a drunk-driving accident.17. Knockout Game43mDanny and Baez investigate when an expectant mother is a victim of a "knockout game," in which teenagers punch unsuspecting civilians in the head.18. Righting Wrongs43mDanny and Baez investigate the death of a woman whose body was dumped after she died in the wake of a "secret" plastic surgery.19. Secret Arrangements44mDanny and Baez investigate the murder of a respected college professor who was involved with a questionable scholarship program.20. Custody Battle42mErin is assigned to investigate a case in which an on-duty police officer is accused of killing a suspect already in custody.21. Above and Beyond42mWhen a detective from Danny's precinct is killed while working undercover, Frank puts on a full-court press to find his killer.22. Exiles43mWhen Danny is placed on modified duty after investigating a case that was off-limits, he realizes somebody is trying to keep something quiet., Release Year: 2014In Season 5, Jamie faces a backlash for defending an ostracized fellow officer and Frank sounds off about equality, upsetting the Archdiocese.1. Partners43mDanny goes after the drug cartel responsible for Baez's injury. Frank is put in a difficult position when a top lieutenant's behavior is questioned.2. Forgive and Forget43mJamie puts himself on the line for a fellow officer who's being ostracized. Danny and Erin butt heads when an old case takes a new turn.3. Burning Bridges41mDanny and Baez are temporarily assigned new partners when an officer is outed and his current partner won't ride with him.4. Excessive Force44mWhen Danny is accused of police brutality, Frank must choose sides. Jamie's connection to an attractive doctor triggers Eddie's jealousy.5. Loose Lips42mAn abusive boyfriend targets Jamie for intervening in a domestic battle. After Henry's insensitive comments are leaked, Frank must manage the scandal.6. Most Wanted42mFrank and Danny look for evidence to put an international criminal behind bars. Erin considers private practice to pay for Nicky's college.7. Shoot the Messenger42mFrank is taken by surprise during an on-air interview with Erin's boss. Danny and his new boss clash as they investigate a drive-by shooting.8. Power of the Press41mWhen a cop's body camera malfunctions during a civilian scuffle, Frank must handle the backlash. Erin investigates a friend's daughter's alleged rape.9. Under the Gun43mDanny and Baez investigate when three community leaders are killed in apparent hate crimes, while a concerned group puts pressure on Frank.10. Sins of the Father42mFrank wants to put away a suspected cop killer who shot one of Henry's colleagues years earlier. Danny and Baez probe the murders of adult film stars.11. Baggage43mWhile investigating a bank robbery, Danny struggles with the right thing to do when he learns the heist was committed to fund a noble cause.12. Home Sweet Home43mA homeless teen claims his aunt was killed by her boyfriend. Erin is unhappy to be replaced as prosecutor on a case involving a corrections officer.13. Love Stories42mDanny and Baez investigate when a homeowner shoots an intruder. Meanwhile, a young attorney seeks justice for his imprisoned mother.14. The Poor Door44mDanny and Baez investigate the murder of a low-income resident in a luxury building. Frank butts heads with one of Gormley's detective friends.15. Power Players43mA mob informant comes out of hiding to testify at Erin's case. Frank and the mayor face off over police benefits.16. In the Box40mBaez is held hostage by a father fighting a restraining order, and Danny must decide whether to meet his demands. Garrett asks Frank for help.17. Occupational Hazards41mErin is shaken after an assailant breaks into her apartment and assaults her colleague. Frank investigates a charity that's raising money for NYPD.18. Bad Company43mTo take down a kidnapping ring luring young women through fake youth hostel websites, Eddie goes undercover for the first time.19. Through the Looking Glass42mA reporter refuses to reveal the identity of a source who confesses to murder. Danny mentors a troubled teenager in an NYPD youth program.20. Payback42mWhen a TV chef is murdered, Danny and Baez think the confessed killer may be hiding something. Frank's senator friend wants him to fix a DUI charge.21. New Rules43mWhen the NYPD's deputy chief and his wife are murdered, Frank suspects a gang hit and sends Danny and Baez into gang territory.22. The Art of War43mDanny tries to track the gang member responsible for a close-to-home shooting and must convince witnesses to testify., Release Year: 2014, 1. Partners43mDanny goes after the drug cartel responsible for Baez's injury. Frank is put in a difficult position when a top lieutenant's behavior is questioned.2. Forgive and Forget43mJamie puts himself on the line for a fellow officer who's being ostracized. Danny and Erin butt heads when an old case takes a new turn.3. Burning Bridges41mDanny and Baez are temporarily assigned new partners when an officer is outed and his current partner won't ride with him.4. Excessive Force44mWhen Danny is accused of police brutality, Frank must choose sides. Jamie's connection to an attractive doctor triggers Eddie's jealousy.5. Loose Lips42mAn abusive boyfriend targets Jamie for intervening in a domestic battle. After Henry's insensitive comments are leaked, Frank must manage the scandal.6. Most Wanted42mFrank and Danny look for evidence to put an </t>
+    <t xml:space="preserve">Release Year: 2010Police Comm. Reagan constantly tends to the well-being of his progeny, which includes Det. Danny, assistant DA Erin and rookie cop Jamie.1. Pilot43mIn the pilot episode, Jamie graduates from the Police Academy and joins the NYPD after deciding not to pursue his career as a lawyer.2. Samaritan43mA good Samaritan who takes action against a criminal terrorizing the subway has the Reagans pondering the rights and wrongs of vigilantism.3. Privilege43mErin, Frank and Danny must find a way to bring justice for a rape victim when the suspect is protected by diplomatic immunity.4. Officer Down43mThe entire NYPD is mobilized to find the killer of a police officer who exchanged gunfire with robbers during a diamond heist.5. What You See43mFrank, Danny and the rest of the NYPD search for a bomb set to detonate in Manhattan. The Reagans argue the merits and downfalls of profiling.6. Smack Attack43mDanny must find the narcotic source when three teenagers die from a drug overdose.7. Brothers44mErin's family debates her methods when she uses a law-abiding citizen as bait to take down his gang leader brother.8. Chinatown43mJamie witnesses a crime in progress and kills the suspect while pursuing him. Danny must solve the case to clear Jamie's name.9. Re-Do42mThree released prison inmates place the Reagan family in danger. They try to get one of the criminal's surviving victims to testify against him.10. After Hours43mWhile Danny investigates the murder of a popular nightclub's doorman, Frank gets information that his ex-partner is covering up crimes.11. Little Fish43mA cold case of Frank's is brought to the forefront when a missing boy's remains are found. Danny and Jackie look into the death of a high-end escort.12. Family Ties43mDanny investigates when the son of a Russian gangster is killed and Erin is assigned a high-profile corruption case.13. Hall of Mirrors41mBecause it involves classified information and a sleeper cell, Frank assigns Danny to cover the shooting of an undercover counter-terrorism agent.14. My Funny Valentine43mA drug addict becomes the prime focus of Danny and Jackie's investigation after the man's girlfriend is kidnapped and held for ransom.15. Dedication42mIs someone out to assassinate the Commissioner or was the shooting random? Danny takes on the assignment to find out the answer.16. Age of Innocence43mNicky goes with Danny to a crime scene where a girl has been murdered, and she has a difficult time coping after seeing her first murder victim.17. Silver Star43mAs a former Marine, Danny feels responsible for finding the killer of a Marine war hero. There's a false rumor that Frank is going to run for mayor.18. To Tell the Truth43mJust before Danny is to testify at a Peruvian drug lord's murder trial, Linda is kidnapped. This drug lord has a history of intimidating witnesses.19. Model Behavior41mDanny and Jackie investigate the cut-throat world of fashion after Linda's runway model niece and a reporter are poisoned at a fashion show.20. All That Glitters43mFrank's frustrations rise when the media sensationalizes the murder of a tourist shot and killed outside a trendy Lower East Side restaurant.21. Cellar Boy43mNeighbors of the Reagans are murdered, and their son becomes the prime suspect. Jamie is convinced he's being pursued by the Blue Templar.22. The Blue Templar44mWhen a drug bust points to dirty cops, Frank decides not to involve Internal Affairs in the hopes of taking down and exposing the Blue Templar., Release Year: 2010, 1. Pilot43mIn the pilot episode, Jamie graduates from the Police Academy and joins the NYPD after deciding not to pursue his career as a lawyer.2. Samaritan43mA good Samaritan who takes action against a criminal terrorizing the subway has the Reagans pondering the rights and wrongs of vigilantism.3. Privilege43mErin, Frank and Danny must find a way to bring justice for a rape victim when the suspect is protected by diplomatic immunity.4. Officer Down43mThe entire NYPD is mobilized to find the killer of a police officer who exchanged gunfire with robbers during a diamond heist.5. What You See43mFrank, Danny and the rest of the NYPD search for a bomb set to detonate in Manhattan. The Reagans argue the merits and downfalls of profiling.6. Smack Attack43mDanny must find the narcotic source when three teenagers die from a drug overdose.7. Brothers44mErin's family debates her methods when she uses a law-abiding citizen as bait to take down his gang leader brother.8. Chinatown43mJamie witnesses a crime in progress and kills the suspect while pursuing him. Danny must solve the case to clear Jamie's name.9. Re-Do42mThree released prison inmates place the Reagan family in danger. They try to get one of the criminal's surviving victims to testify against him.10. After Hours43mWhile Danny investigates the murder of a popular nightclub's doorman, Frank gets information that his ex-partner is covering up crimes.11. Little Fish43mA cold case of Frank's is brought to the forefront when a missing boy's remains are found. Danny and Jackie look into the death of a high-end escort.12. Family Ties43mDanny investigates when the son of a Russian gangster is killed and Erin is assigned a high-profile corruption case.13. Hall of Mirrors41mBecause it involves classified information and a sleeper cell, Frank assigns Danny to cover the shooting of an undercover counter-terrorism agent.14. My Funny Valentine43mA drug addict becomes the prime focus of Danny and Jackie's investigation after the man's girlfriend is kidnapped and held for ransom.15. Dedication42mIs someone out to assassinate the Commissioner or was the shooting random? Danny takes on the assignment to find out the answer.16. Age of Innocence43mNicky goes with Danny to a crime scene where a girl has been murdered, and she has a difficult time coping after seeing her first murder victim.17. Silver Star43mAs a former Marine, Danny feels responsible for finding the killer of a Marine war hero. There's a false rumor that Frank is going to run for mayor.18. To Tell the Truth43mJust before Danny is to testify at a Peruvian drug lord's murder trial, Linda is kidnapped. This drug lord has a history of intimidating witnesses.19. Model Behavior41mDanny and Jackie investigate the cut-throat world of fashion after Linda's runway model niece and a reporter are poisoned at a fashion show.20. All That Glitters43mFrank's frustrations rise when the media sensationalizes the murder of a tourist shot and killed outside a trendy Lower East Side restaurant.21. Cellar Boy43mNeighbors of the Reagans are murdered, and their son becomes the prime suspect. Jamie is convinced he's being pursued by the Blue Templar.22. The Blue Templar44mWhen a drug bust points to dirty cops, Frank decides not to involve Internal Affairs in the hopes of taking down and exposing the Blue Templar., Release Year: 2011In Season 2, Jamie's undercover investigation of the mob becomes dangerous, Frank wrestles with City Hall politics, and Danny faces Erin in court.1. Mercy44mWhen one of his supporters is murdered, the new mayor pressures Frank to spin the killing as a random act of violence.2. Friendly Fire43mAfter Danny accidentally shoots a cop, Internal Affairs starts an investigation, focusing on his state of mind at the time of the shooting.3. Critical Condition42mDanny discovers that a former cop is one of the men who attempted to rob a bank. Meanwhile, Jamie gets a new partner.4. Innocence42mErin reopens an 18-year-old rape case first investigated by Frank. Meanwhile, Danny and Jackie probe the murders of three teens in a park.5. A Night on the Town43mWhile on a case, Danny tries to swing a romantic weekend with Linda. Elsewhere, Jamie's undercover assignment takes him inside a crime family.6. Black and Blue41mFrank must deal with a political crisis after Jamie and Renzulli are injured while attempting to enter a religious center in response to a 911 call.7. Lonely Hearts Club42mWhen a serial killer starts targeting prostitutes, Jackie goes undercover as an escort. Meanwhile, Erin meets a man who shares her interests.8. Thanksgiving44mHenry's heart attack on Thanksgiving eve leaves the family pondering a future without him. Meanwhile, Danny and Jackie look into an alleged suicide.9. Moonlighting42mTo get leniency for his son, an ex-mobster helps Danny on some cold cases. Meanwhile, Jamie works undercover in the Sanfino crime family.10. Whistle Blower42mDanny and Erin must work together to find out who killed her informant.11. The Uniform40mDanny and Jackie investigate when a uniformed officer is seen fleeing the scene of a murder at a diner.12. The Job44mWhile driving his family home, Danny becomes involved in a shooting after his car strikes a man running from a gunman.13. Leap of Faith43mAfter a rich woman dies of a heart attack, her daughter claims God told her that her mother was murdered, prompting Danny and Jackie to investigate.14. Parenthood44mWhen a thief is shot and killed after robbing and beating a family, the Reagans ponder how far they'd go to protect one another.15. The Life We Choose41mDanny's family worries about his emotional state as he and Jackie investigate the murder of a Reagan family friend who was an undercover detective.16. Women with Guns42mA high-profile reporter, who happens to be a close friend of Frank's, is almost assaulted. Elsewhere, Jamie's undercover case reaches a crucial stage.17. Reagan v. Reagan43mWhile Erin is prosecuting a homicide case, the defendant's lawyer is murdered. Danny investigates, and things get tense when Erin cross-examines him.18. No Questions Asked42mA gun buyback program has a no-questions-asked rule, but when a returned gun is linked to a robbery, Danny must decide whether to arrest the suspect.19. Some Kind of Hero41mPressured by the 12-year-old son of a firefighter whose death was ruled a suicide, Danny reopens a closed case, enraging his fellow detectives.20. Working Girls42mAfter an attempt is made on the life of a witness in protective custody, Danny and Jackie discover a leak within the department.21. Collateral Damage42mA big-spending investor's death looks suspicious to Danny and Jackie. Meanwhile, Jamie is placed under house arrest when a hit is put out on his life.22. Mother's Day43mUnbeknownst to his family, Frank must deal with a potential biological weapons attack on New York City as the Reagans celebrate Mother's Day., Release Year: 2011, 1. Mercy44mWhen one of his supporters is murdered, the new mayor pressures Frank to spin the killing as a random act of violence.2. Friendly Fire43mAfter Danny accidentally shoots a cop, Internal Affairs starts an investigation, focusing on his state of mind at the time of the shooting.3. Critical Condition42mDanny discovers that a former cop is one of the men who attempted to rob a bank. Meanwhile, Jamie gets a new partner.4. Innocence42mErin reopens an 18-year-old rape case first investigated by Frank. Meanwhile, Danny and Jackie probe the murders of three teens in a park.5. A Night on the Town43mWhile on a case, Danny tries to swing a romantic weekend with Linda. Elsewhere, Jamie's undercover assignment takes him inside a crime family.6. Black and Blue41mFrank must deal with a political crisis after Jamie and Renzulli are injured while attempting to enter a religious center in response to a 911 call.7. Lonely Hearts Club42mWhen a serial killer starts targeting prostitutes, Jackie goes undercover as an escort. Meanwhile, Erin meets a man who shares her interests.8. Thanksgiving44mHenry's heart attack on Thanksgiving eve leaves the family pondering a future without him. Meanwhile, Danny and Jackie look into an alleged suicide.9. Moonlighting42mTo get leniency for his son, an ex-mobster helps Danny on some cold cases. Meanwhile, Jamie works undercover in the Sanfino crime family.10. Whistle Blower42mDanny and Erin must work together to find out who killed her informant.11. The Uniform40mDanny and Jackie investigate when a uniformed officer is seen fleeing the scene of a murder at a diner.12. The Job44mWhile driving his family home, Danny becomes involved in a shooting after his car strikes a man running from a gunman.13. Leap of Faith43mAfter a rich woman dies of a heart attack, her daughter claims God told her that her mother was murdered, prompting Danny and Jackie to investigate.14. Parenthood44mWhen a thief is shot and killed after robbing and beating a family, the Reagans ponder how far they'd go to protect one another.15. The Life We Choose41mDanny's family worries about his emotional state as he and Jackie investigate the murder of a Reagan family friend who was an undercover detective.16. Women with Guns42mA high-profile reporter, who happens to be a close friend of Frank's, is almost assaulted. Elsewhere, Jamie's undercover case reaches a crucial stage.17. Reagan v. Reagan43mWhile Erin is prosecuting a homicide case, the defendant's lawyer is murdered. Danny investigates, and things get tense when Erin cross-examines him.18. No Questions Asked42mA gun buyback program has a no-questions-asked rule, but when a returned gun is linked to a robbery, Danny must decide whether to arrest the suspect.19. Some Kind of Hero41mPressured by the 12-year-old son of a firefighter whose death was ruled a suicide, Danny reopens a closed case, enraging his fellow detectives.20. Working Girls42mAfter an attempt is made on the life of a witness in protective custody, Danny and Jackie discover a leak within the department.21. Collateral Damage42mA big-spending investor's death looks suspicious to Danny and Jackie. Meanwhile, Jamie is placed under house arrest when a hit is put out on his life.22. Mother's Day43mUnbeknownst to his family, Frank must deal with a potential biological weapons attack on New York City as the Reagans celebrate Mother's Day., Release Year: 2012For Frank Reagan's family, law enforcement is the only business that matters. As NYC Police Commissioner, Frank holds the same position his dad did.1. Family Business41mA dangerous criminal from Danny's past comes back to seek revenge and kidnaps Jackie. Meanwhile, Jamie meets his new partner.2. Domestic Disturbance43mWhen an injured woman recants her claim of domestic violence, Danny and Jackie find that she is involved in a secret relationship.3. Old Wounds43mDanny believes a serial killer is on the loose when two separate murder victims are identified as members of a group charged with a gang rape.4. Scorched Earth42mDanny and Jackie set out to investigate the murder of a bride on her wedding day in a drive-by gang shooting, but are diverted to a different case.5. Risk and Reward40mShortly after Frank awards a detective with a medal for his undercover work in Malaysia, the detective is taken hostage by a Malaysian drug lord.6. Greener Grass41mWhen Erin's key witness, an infamous photographer, is nearly killed in a hit and run, she arranges for Danny to safeguard him.7. Nightmares43mWhen a knife-wielding attacker dressed as Baron Samedi, the Spirit of Death, stabs a man in costume on Halloween, Danny enters the world of voodoo.8. Higher Education44mDanny arrives at a college campus to find a murdered student, who was thought to be dealing drugs.9. Secrets and Lies43mWhen Danny and Kate come up empty-handed on leads for a shooting, Linda overhears the victim telling his priest who is responsible.10. Fathers and Sons40mWhen two motorists driving gas-guzzling cars die at the hands of a sniper, the city believes it's the work of a radical environmental serial killer.11. Front Page News42mJamie must deal with the emotional consequences of his actions on the job when he has a confrontation with a suicidal man.12. Framed42mDanny's car matches an NYPD description of a vehicle involved in a drug deal, and he is taken into custody when cocaine is found in the trunk.13. Inside Jobs42mWhen a man with multiple rat bites is thrown from a moving car, Danny works the case to find out who was trying to send a message and why.14. Men in Black43mBefore a Hasidic grand rebbe passes away, he chooses his youngest son to succeed him. But when the new appointee dies suddenly, Danny investigates.15. Warriors43mWhen a 10-year-old boy is the victim of an incident in the projects, Danny's heated approach to the case lands him in anger management class.16. Quid Pro Quo41mErin and Danny investigate a cold case involving a girl who was attacked by her rich and powerful boyfriend, who was never convicted.17. Protest Too Much43mWhen an off-duty cop tries to stop a bank robbery, he is disarmed by the "Bonnie and Clyde" robbers who take his gun and wound an innocent bystander.18. No Regrets44mWhen the same tragedy occurs to people who don't appear to be connected, Danny must find out what they have in common and who is responsible.19. Loss of Faith42mWhen a religious young woman is murdered, Danny questions her family members, who are shocked to learn that she had a secret relationship.20. Ends &amp; Means43mWhen two Wall Street brokers are killed in drug deals, Danny looks to question a wounded accomplice at the hospital, but he is stopped by Linda.21. Devil's Breath43mWhen Danny finds a disoriented man covered in blood in a park, he finds it hard to believe that the man has no recollection of the night's events.22. The Bitter End40mWhen a young woman commits suicide, Danny is emotional because he promised to help the woman when her parents were taken from her.23. This Way Out41mAs the Reagans rally to take down a gang leader responsible for the murder of someone close to them, Danny looks to the leader's girlfriend for help., Release Year: 2012, 1. Family Business41mA dangerous criminal from Danny's past comes back to seek revenge and kidnaps Jackie. Meanwhile, Jamie meets his new partner.2. Domestic Disturbance43mWhen an injured woman recants her claim of domestic violence, Danny and Jackie find that she is involved in a secret relationship.3. Old Wounds43mDanny believes a serial killer is on the loose when two separate murder victims are identified as members of a group charged with a gang rape.4. Scorched Earth42mDanny and Jackie set out to investigate the murder of a bride on her wedding day in a drive-by gang shooting, but are diverted to a different case.5. Risk and Reward40mShortly after Frank awards a detective with a medal for his undercover work in Malaysia, the detective is taken hostage by a Malaysian drug lord.6. Greener Grass41mWhen Erin's key witness, an infamous photographer, is nearly killed in a hit and run, she arranges for Danny to safeguard him.7. Nightmares43mWhen a knife-wielding attacker dressed as Baron Samedi, the Spirit of Death, stabs a man in costume on Halloween, Danny enters the world of voodoo.8. Higher Education44mDanny arrives at a college campus to find a murdered student, who was thought to be dealing drugs.9. Secrets and Lies43mWhen Danny and Kate come up empty-handed on leads for a shooting, Linda overhears the victim telling his priest who is responsible.10. Fathers and Sons40mWhen two motorists driving gas-guzzling cars die at the hands of a sniper, the city believes it's the work of a radical environmental serial killer.11. Front Page News42mJamie must deal with the emotional consequences of his actions on the job when he has a confrontation with a suicidal man.12. Framed42mDanny's car matches an NYPD description of a vehicle involved in a drug deal, and he is taken into custody when cocaine is found in the trunk.13. Inside Jobs42mWhen a man with multiple rat bites is thrown from a moving car, Danny works the case to find out who was trying to send a message and why.14. Men in Black43mBefore a Hasidic grand rebbe passes away, he chooses his youngest son to succeed him. But when the new appointee dies suddenly, Danny investigates.15. Warriors43mWhen a 10-year-old boy is the victim of an incident in the projects, Danny's heated approach to the case lands him in anger management class.16. Quid Pro Quo41mErin and Danny investigate a cold case involving a girl who was attacked by her rich and powerful boyfriend, who was never convicted.17. Protest Too Much43mWhen an off-duty cop tries to stop a bank robbery, he is disarmed by the "Bonnie and Clyde" robbers who take his gun and wound an innocent bystander.18. No Regrets44mWhen the same tragedy occurs to people who don't appear to be connected, Danny must find out what they have in common and who is responsible.19. Loss of Faith42mWhen a religious young woman is murdered, Danny questions her family members, who are shocked to learn that she had a secret relationship.20. Ends &amp; Means43mWhen two Wall Street brokers are killed in drug deals, Danny looks to question a wounded accomplice at the hospital, but he is stopped by Linda.21. Devil's Breath43mWhen Danny finds a disoriented man covered in blood in a park, he finds it hard to believe that the man has no recollection of the night's events.22. The Bitter End40mWhen a young woman commits suicide, Danny is emotional because he promised to help the woman when her parents were taken from her.23. This Way Out41mAs the Reagans rally to take down a gang leader responsible for the murder of someone close to them, Danny looks to the leader's girlfriend for help., Release Year: 2013In Season 4, the Reagan family's challenges range from police killings to hostage crises to personal issues, but they face them as a family.1. Unwritten Rules44mWhen an armed robbery ends with the death of a police officer, Frank makes it a mission for the NYPD to bring the suspect to justice.2. The City That Never Sleeps44mWhen famous movie star Russell Berke is stabbed, Danny goes to his aid, but must keep the crime on the down-low due to Berke's celebrity status.3. To Protect and Serve41mDanny becomes the lead hostage negotiator when a prime informant in a large drug case holds Erin at gunpoint inside the courtroom.4. The Truth About Lying42mDanny and Baez investigate the death of a teenage girl who appears to have been pushed in front of a subway car by a homeless man.5. Lost and Found42mWhen Danny and Baez suspect a little girl might be the victim of a kidnapping, the girl's mother denies it, but her story doesn't add up.6. Growing Boys43mWhen a gangbanger dies after Jamie chases him away from the boy he's mentoring, Jamie's conduct is called into question.7. Drawing Dead43mWhen an officer is accused of using excessive force on a suspect, Frank finds his department under scrutiny from the community and the mayor.8. Justice Served42mAfter Frank has dinner with mob lawyer Angelo Gallo, Gallo is shot and Frank narrowly escapes with his own life.9. Bad Blood42mDanny and Baez investigate a homicide in which Baez's estranged brother, a former drug addict, is the lead suspect.10. Mistaken Identity41mDanny and Baez investigate a local bombing, but meet with tension and resistance from the community during the investigation.11. Ties That Bind43mDanny's loyalty is tested when he's assigned to the case of a childhood friend who is under investigation for having ties to an infamous mob family.12. The Bogeyman44mWhen Danny learns from Nicky that there's a deadly new brand of heroin hitting the streets, he begins an all-out manhunt for the distributor.13. Unfinished Business43mDanny and Baez must track down a veteran who may be suffering from PTSD. Meanwhile, Frank is caught off-guard during a press conference.14. Manhattan Queens42mDanny and Baez investigate the murder of Tiffany Lamp, a popular drag queen from a reality television show who was found murdered in a local park.15. Open Secrets43mWhen Danny and Baez investigate the kidnapping of a young girl who disappeared after school, it brings back difficult memories for Danny.16. Insult to Injury40mDanny takes a call from a woman who is threatening to kill herself along with the man who killed her parents in a drunk-driving accident.17. Knockout Game43mDanny and Baez investigate when an expectant mother is a victim of a "knockout game," in which teenagers punch unsuspecting civilians in the head.18. Righting Wrongs43mDanny and Baez investigate the death of a woman whose body was dumped after she died in the wake of a "secret" plastic surgery.19. Secret Arrangements44mDanny and Baez investigate the murder of a respected college professor who was involved with a questionable scholarship program.20. Custody Battle42mErin is assigned to investigate a case in which an on-duty police officer is accused of killing a suspect already in custody.21. Above and Beyond42mWhen a detective from Danny's precinct is killed while working undercover, Frank puts on a full-court press to find his killer.22. Exiles43mWhen Danny is placed on modified duty after investigating a case that was off-limits, he realizes somebody is trying to keep something quiet., Release Year: 2013, 1. Unwritten Rules44mWhen an armed robbery ends with the death of a police officer, Frank makes it a mission for the NYPD to bring the suspect to justice.2. The City That Never Sleeps44mWhen famous movie star Russell Berke is stabbed, Danny goes to his aid, but must keep the crime on the down-low due to Berke's celebrity status.3. To Protect and Serve41mDanny becomes the lead hostage negotiator when a prime informant in a large drug case holds Erin at gunpoint inside the courtroom.4. The Truth About Lying42mDanny and Baez investigate the death of a teenage girl who appears to have been pushed in front of a subway car by a homeless man.5. Lost and Found42mWhen Danny and Baez suspect a little girl might be the victim of a kidnapping, the girl's mother denies it, but her story doesn't add up.6. Growing Boys43mWhen a gangbanger dies after Jamie chases him away from the boy he's mentoring, Jamie's conduct is called into question.7. Drawing Dead43mWhen an officer is accused of using excessive force on a suspect, Frank finds his department under scrutiny from the community and the mayor.8. Justice Served42mAfter Frank has dinner with mob lawyer Angelo Gallo, Gallo is shot and Frank narrowly escapes with his own life.9. Bad Blood42mDanny and Baez investigate a homicide in which Baez's estranged brother, a former drug addict, is the lead suspect.10. Mistaken Identity41mDanny and Baez investigate a local bombing, but meet with tension and resistance from the community during the investigation.11. Ties That Bind43mDanny's loyalty is tested when he's assigned to the case of a childhood friend who is under investigation for having ties to an infamous mob family.12. The Bogeyman44mWhen Danny learns from Nicky that there's a deadly new brand of heroin hitting the streets, he begins an all-out manhunt for the distributor.13. Unfinished Business43mDanny and Baez must track down a veteran who may be suffering from PTSD. Meanwhile, Frank is caught off-guard during a press conference.14. Manhattan Queens42mDanny and Baez investigate the murder of Tiffany Lamp, a popular drag queen from a reality television show who was found murdered in a local park.15. Open Secrets43mWhen Danny and Baez investigate the kidnapping of a young girl who disappeared after school, it brings back difficult memories for Danny.16. Insult to Injury40mDanny takes a call from a woman who is threatening to kill herself along with the man who killed her parents in a drunk-driving accident.17. Knockout Game43mDanny and Baez investigate when an expectant mother is a victim of a "knockout game," in which teenagers punch unsuspecting civilians in the head.18. Righting Wrongs43mDanny and Baez investigate the death of a woman whose body was dumped after she died in the wake of a "secret" plastic surgery.19. Secret Arrangements44mDanny and Baez investigate the murder of a respected college professor who was involved with a questionable scholarship program.20. Custody Battle42mErin is assigned to investigate a case in which an on-duty police officer is accused of killing a suspect already in custody.21. Above and Beyond42mWhen a detective from Danny's precinct is killed while working undercover, Frank puts on a full-court press to find his killer.22. Exiles43mWhen Danny is placed on modified duty after investigating a case that was off-limits, he realizes somebody is trying to keep something quiet., Release Year: 2014In Season 5, Jamie faces a backlash for defending an ostracized fellow officer and Frank sounds off about equality, upsetting the Archdiocese.1. Partners43mDanny goes after the drug cartel responsible for Baez's injury. Frank is put in a difficult position when a top lieutenant's behavior is questioned.2. Forgive and Forget43mJamie puts himself on the line for a fellow officer who's being ostracized. Danny and Erin butt heads when an old case takes a new turn.3. Burning Bridges41mDanny and Baez are temporarily assigned new partners when an officer is outed and his current partner won't ride with him.4. Excessive Force44mWhen Danny is accused of police brutality, Frank must choose sides. Jamie's connection to an attractive doctor triggers Eddie's jealousy.5. Loose Lips42mAn abusive boyfriend targets Jamie for intervening in a domestic battle. After Henry's insensitive comments are leaked, Frank must manage the scandal.6. Most Wanted42mFrank and Danny look for evidence to put an international criminal behind bars. Erin considers private practice to pay for Nicky's college.7. Shoot the Messenger42mFrank is taken by surprise during an on-air interview with Erin's boss. Danny and his new boss clash as they investigate a drive-by shooting.8. Power of the Press41mWhen a cop's body camera malfunctions during a civilian scuffle, Frank must handle the backlash. Erin investigates a friend's daughter's alleged rape.9. Under the Gun43mDanny and Baez investigate when three community leaders are killed in apparent hate crimes, while a concerned group puts pressure on Frank.10. Sins of the Father42mFrank wants to put away a suspected cop killer who shot one of Henry's colleagues years earlier. Danny and Baez probe the murders of adult film stars.11. Baggage43mWhile investigating a bank robbery, Danny struggles with the right thing to do when he learns the heist was committed to fund a noble cause.12. Home Sweet Home43mA homeless teen claims his aunt was killed by her boyfriend. Erin is unhappy to be replaced as prosecutor on a case involving a corrections officer.13. Love Stories42mDanny and Baez investigate when a homeowner shoots an intruder. Meanwhile, a young attorney seeks justice for his imprisoned mother.14. The Poor Door44mDanny and Baez investigate the murder of a low-income resident in a luxury building. Frank butts heads with one of Gormley's detective friends.15. Power Players43mA mob informant comes out of hiding to testify at Erin's case. Frank and the mayor face off over police benefits.16. In the Box40mBaez is held hostage by a father fighting a restraining order, and Danny must decide whether to meet his demands. Garrett asks Frank for help.17. Occupational Hazards41mErin is shaken after an assailant breaks into her apartment and assaults her colleague. Frank investigates a charity that's raising money for NYPD.18. Bad Company43mTo take down a kidnapping ring luring young women through fake youth hostel websites, Eddie goes undercover for the first time.19. Through the Looking Glass42mA reporter refuses to reveal the identity of a source who confesses to murder. Danny mentors a troubled teenager in an NYPD youth program.20. Payback42mWhen a TV chef is murdered, Danny and Baez think the confessed killer may be hiding something. Frank's senator friend wants him to fix a DUI charge.21. New Rules43mWhen the NYPD's deputy chief and his wife are murdered, Frank suspects a gang hit and sends Danny and Baez into gang territory.22. The Art of War43mDanny tries to track the gang member responsible for a close-to-home shooting and must convince witnesses to testify., Release Year: 2014, 1. Partners43mDanny goes after the drug cartel responsible for Baez's injury. Frank is put in a difficult position when a top lieutenant's behavior is questioned.2. Forgive and Forget43mJamie puts himself on the line for a fellow officer who's being ostracized. Danny and Erin butt heads when an old case takes a new turn.3. Burning Bridges41mDanny and Baez are temporarily assigned new partners when an officer is outed and his current partner won't ride with him.4. Excessive Force44mWhen Danny is accused of police brutality, Frank must choose sides. Jamie's connection to an attractive doctor triggers Eddie's jealousy.5. Loose Lips42mAn abusive boyfriend targets Jamie for intervening in a domestic battle. After Henry's insensitive comments are leaked, Frank must manage the scandal.6. Most Wanted42mFrank and Danny look for evidence to put an international criminal behind bars. Erin considers private practice to pay for Nicky's college.7. Shoot the Messenger42mFrank is taken by surprise during an on-air interview with Erin's boss. Danny and his new boss clash as they investigate a drive-by shooting.8. Power of the Press41mWhen a cop's body camera malfunctions during a civilian scuffle, Frank must handle the backlash. Erin investigates a friend's daughter's alleged rape.9. Under the Gun43mDanny and Baez investigate when three community leaders are killed in apparent hate crimes, while a concerned group puts pressure on Frank.10. Sins of the Father42mFrank wants to put away a suspected cop killer who shot one of Henry's colleagues years earlier. Danny and Baez probe the murders of adult film stars.11. Baggage43mWhile investigating a bank robbery, Danny struggles with the right thing to do when he learns the heist was committed to fund a noble cause.12. Home Sweet Home43mA homeless teen claims his aunt was killed by her boyfriend. Erin is unhappy to be replaced as prosecutor on a case involving a corrections officer.13. Love Stories42mDanny and Baez investigate when a homeowner shoots an intruder. Meanwhile, a young attorney seeks justice for his imprisoned mother.14. The Poor Door44mDanny and Baez investigate the murder of a low-income resident in a luxury building. Frank butts heads with one of Gormley's detective friends.15. Power Players43mA mob informant comes out of hiding to testify at Erin's case. Frank and the mayor face off over police benefits.16. In the Box40mBaez is held hostage by a father fighting a restraining order, and Danny must decide whether to meet his demands. Garrett asks Frank for help.17. Occupational Hazards41mErin is shaken after an assailant breaks into her apartment and assaults her colleague. Frank investigates a charity that's raising money for NYPD.18. Bad Company43mTo take down a kidnapping ring luring young women through fake youth hostel websites, Eddie goes undercover for the first time.19. Through the Looking Glass42mA reporter refuses to reveal the identity of a source who confesses to murder. Danny mentors a troubled teenager in an NYPD youth program.20. Payback42mWhen a TV chef is murdered, Danny and Baez think the confessed killer may be hiding something. Frank's senator friend wants him to fix a DUI charge.21. New Rules43mWhen the NYPD's deputy chief and his wife are murdered, Frank suspects a gang hit and sends Danny and Baez into gang territory.22. The Art of War43mDanny tries to track the gang member responsible for a close-to-home shooting and must convince witnesses to testify., Release Year: 2015Frank is alerted to a terrorist threat, Danny pursues a taunting serial killer, Erin considers a judgeship, and Jamie is accused of police brutality.1. Worst Case Scenario41mAs terrorists strike around the world, Frank quietly prepares New York for the worst while Danny and Baez try to track suspected bombers.2. Absolute Power43mWhile Danny and Baez hunt a serial killer who targets young women, a mayoral candidate accuses Frank of corruption, and Erin ponders becoming a judge.3. All the News That’s Fit to Click41mShot while riding with Jamie and Eddie, a cocky reporter stymies the hunt for the shooter so he can turn the situation into a career-making story.4. With Friends Like These43mErin turns to a former mob informant for help investigating a murder, and Jamie and Eddie run into red tape trying to help a mentally unstable woman.5. Backstabbers43mDanny and Baez bend the rules to find an escaped convict that Danny wrongfully sent to prison. Meanwhile, Nicky uses family clout to help a friend.6. Rush to Judgement44mInternal Affairs scrutinizes Jamie after he's accused of police brutality at a demonstration, and a civil rights lawyer gets caught up in a rape case.7. The Bullitt Mustang43mDanny and Baez go in search of a stolen car made famous in the movies, and a feud over parking tickets escalates between Erin's office and the cops.8. Unsung Heroes43mWhile Danny tracks a serial killer who's threatening his family, Jamie's run-in with a reckless colleague reveals a troubling secret.9. Hold Outs40mErin tries to locate a witness to re-try a murder case that ended in a hung jury, and Jamie and Eddie go undercover as senior citizens.10. Cursed40mWhen an officer requests Joe's old badge number, Frank wonders if the shield is a bad omen. Meanwhile, Danny and Baez set a trap for a mob killer.11. Flags of Our Fathers43mFrank faces a free-speech showdown when protesters plan to burn the American flag in Central Park, and Danny faces tough questions about an old case.12. Back in the Day42mFrank's old partner threatens to publish a potentially damaging tell-all book, and Jamie and Eddie suffer a rift over responding to an emergency call.13. Stomping Ground43mBaez schemes to bring justice to a drug dealer who once killed a boy in her neighborhood, and Eddie faces sexual harassment from a superior.14. The Road to Hell41mDanny faces a curious problem when several prostitutes each claim to have murdered their pimp, and Nicky clams up after getting busted for possession.15. Fresh Start43mErin faces intense scrutiny when a man she released is accused of murder, and Danny and Baez go in search of a missing cop in need of intervention.16. Help Me Help You42mDanny and Baez intervene when a man becomes increasingly hostile toward his ex-wife's boyfriend, and Erin confronts an old mentor who is now a judge.17. Friends in Need42mJamie agrees to mentor a rookie who turns out to be a loose cannon. Meanwhile, Erin investigates a shady investment scheme that targets police.18. Town Without Pity40mA convicted killer who has turned his life around faces fresh murder charges, and Erin confronts a lawyer who is using a suspect to boost her podcast.19. Blast from the Past42mBaez gets a jolt when she and Danny must team up with her ex-boyfriend. Frank wrestles with promoting a cop who once shot an unarmed teen.20. Down the Rabbit Hole41mDanny forms an uneasy alliance with the FBI when the serial killer who has eluded him strikes again -- this time with Nicky in his sights.21. The Extra Mile43mErin plays her cards shrewdly when a frightened witness goes on the run, and Danny and Baez look into a puzzling convenience store robbery.22. Blowback41mFrank and Erin face a major crisis when public outrage over a cop who shot a teen spills over into violence directed back at the police., Release Year: 2015, 1. Worst Case Scenario41mAs terrorists strike around the world, Frank quietly prepares New York for the worst while Danny and Baez try to track suspected bombers.2. Absolute Power43mWhile Danny and Baez hunt a serial killer who targets young women, a mayoral candidate accuses Frank of corruption, and Erin ponders becoming a judge.3. All the News That’s Fit to Click41mShot while riding with Jamie and Eddie, a cocky reporter stymies the hunt for the shooter so he can turn the situation into a career-making story.4. With Friends Like These43mErin turns to a former mob informant for help investigating a murder, and Jamie and Eddie run into red tape trying to help a mentally unstable woman.5. Backstabbers43mDanny and Baez bend the rules to find an escaped convict that Danny wrongfully sent to prison. Meanwhile, Nicky uses family clout to help a friend.6. Rush to Judgement44mInternal Affairs scrutinizes Jamie after he's accused of police brutality at a demonstration, and a civil rights lawyer gets caught up in a rape case.7. The Bullitt Mustang43mDanny and Baez go in search of a stolen car made famous in the movies, and a feud over parking tickets escalates between Erin's office and the cops.8. Unsung Heroes43mWhile Danny tracks a serial killer who's threatening his family, Jamie's run-in with a reckless colleague reveals a troubling secret.9. Hold Outs40mErin tries to locate a witness to re-try a murder case that ended in a hung jury, and Jamie and Eddie go undercover as senior citizens.10. Cursed40mWhen an officer requests Joe's old badge number, Frank wonders if the shield is a bad omen. Meanwhile, Danny and Baez set a trap for a mob killer.11. Flags of Our Fathers43mFrank faces a free-speech showdown when protesters plan to burn the American flag in Central Park, and Danny faces tough questions about an old case.12. Back in the Day42mFrank's old partner threatens to publish a potentially damaging tell-all book, and Jamie and Eddie suffer a rift over responding to an emergency call.13. Stomping Ground43mBaez schemes to bring justice to a drug dealer who once killed a boy in her neighborhood, and Eddie faces sexual harassment from a superior.14. The Road to Hell41mDanny faces a curious problem when several prostitutes each claim to have murdered their pimp, and Nicky clams up after getting busted for possession.15. Fresh Start43mErin faces intense scrutiny when a man she released is accused of murder, and Danny and Baez go in search of a missing cop in need of intervention.16. Help Me Help You42mDanny and Baez intervene when a man becomes increasingly hostile toward his ex-wife's boyfriend, and Erin confronts an old mentor who is now a judge.17. Friends in Need42mJamie agrees to mentor a rookie who turns out to be a loose cannon. Meanwhile, Erin investigates a shady investment scheme that targets police.18. Town Without Pity40mA convicted killer who has turned his life around faces fresh murder charges, and Erin confronts a lawyer who is using a suspect to boost her podcast.19. Blast from the Past42mBaez gets a jolt when she and Danny must team up with her ex-boyfriend. Frank wrestles with promoting a cop who once shot an unarmed teen.20. Down the Rabbit Hole41mDanny forms an uneasy alliance with the FBI when the serial killer who has eluded him strikes again -- this time with Nicky in his sights.21. The Extra Mile43mErin plays her cards shrewdly when a frightened witness goes on the run, and Danny and Baez look into a puzzling convenience store robbery.22. Blowback41mFrank and Erin face a major crisis when public outrage over a cop who shot a teen spills over into violence directed back at the police., Release Year: 2016In Season 7, Frank deals with a series of crises that could damage the NYPD, while Danny handles several cases that cross international borders.1. The Greater Good43mNew evidence surfaces against Danny in his shooting of a serial killer, and an officer's widow asks Frank to stop her son from joining the force.2. The Price of Justice41mDanny and Baez urge a traumatized hostage to press charges, Jamie gets a job offer as an adviser to a TV show, and Frank faces a publicity nightmare.3. Mob Rules40mFrank accepts the help of a detective with a personal connection to the neighborhood where Lt. Gormley was viciously beaten by a mob.4. Good Cop Bad Cop40mDanny and Baez investigate the death of an elderly woman killed by a stray bullet, and Frank is ridiculed when he disciplines a disrespectful officer.5. For the Community41mErin and Anthony try to prevent the deportation of an activist, and Frank must decide if the NYPD will participate in a gang raid with U.S. Marshals.6. Whistleblowers43mA whistleblower claims to have evidence of abuse of power in the NYPD, and Danny and Baez investigate the suspicious case of a waitress hit by a car.7. Guilt by Association43mDanny's case witness is killed before testifying, and Robert Lewis pressures Frank to support the attorney general's excessive-force investigation.8. Personal Business43mDanny and Baez investigate the murder of a woman's abusive ex-boyfriend, and Frank disciplines an off-duty sergeant who failed to stop an arme robbery.9. Confessions42mThe search for a missing boy is complicated by a priest's duty to keep secret a confession, and Danny and Baez investigate the death of a socialite.10. Unbearable Loss40mA harsh critic of the NYPD must set aside his differences when his son is killed. Erin and Anthony investigate a fatal prisoner-transfer accident.11. Genetics40mEmbroiled in a complex case involving adoptive parents versus birth parents, Eddie and Jamie ask Erin to help them avoid court proceedings.12. Not Fade Away40mWhen he accepts a side job as bodyguard for a recently released ex-con wrongly convicted of murder, Danny uses his position to find the true killer.13. The One That Got Away41mDespite his lack of jurisdiction, Frank intervenes in Danny and Baez's child-abuse case, which is complicated by issues of diplomatic immunity.14. In &amp; Out40mA gang leader's murder exposes a love affair between an ex-con and his parole officer, while Frank tries to moderate a rival gang's response.15. Lost Souls41mWhen a murder victim is revealed to have killed a mother and son years ago while driving drunk, Danny and Baez hesitate to arrest their chief suspect.16. Hard Bargain42mIn trouble with the mob, Danny's brother-in-law begs for protection, while Frank faces a demand to publicly release NYPD disciplinary records.17. Shadow of a Doubt41mJamie and Eddie grow suspicious of an EMT who failed to respond to his wife's 911 call when she suffered a fatal allergic reaction.18. A Deep Blue Goodbye40mAn ex-officer goes missing after revealing her plan to apologize to a wrongly convicted woman, and a chief refuses to accept mandatory retirement.19. Love Lost43mErin is opposed in court by ex-husband Jack on a homicide case that Danny and Baez investigate to determine if an accused husband murdered his wife.20. No Retreat, No Surrender41mErin helps a former witness rid his apartment building of a drug operation, and Frank must look into charges of misconduct in the mayor's office.21. Foreign Interference40mDanny and Baez partner with Russian operatives to locate a dangerous ex-KGB agent, while Frank handles a sensitive case involving an archbishop.22. The Thin Blue Line42mAfter he confiscates millions from a Mexican drug cartel shipment, Danny and his family are targeted for revenge. Jamie tracks a serial killer., Release Year: 2016, 1. The Greater Good43mNew evidence surfaces against Danny in his shooting of a serial killer, and an officer's widow asks Frank to stop her son from joining the force.2. The Price of Justice41mDanny and Baez urge a traumatized hostage to press charges, Jamie gets a job offer as an adviser to a TV show, and Frank faces a publicity nightmare.3. Mob Rules40mFrank accepts the help of a detective with a personal connection to the neighborhood where Lt. Gormley was viciously beaten by a mob.4. Good Cop Bad Cop40mDanny and Baez investigate the death of an elderly woman killed by a stray bullet, and Frank is ridiculed when he disciplines a disrespectful officer.5. For the Community41mErin and Anthony try to prevent the deportation of an activist, and Frank must decide if the NYPD will participate in a gang raid with U.S. Marshals.6. Whistleblowers43mA whistleblower claims to have evidence of abuse of power in the NYPD, and Danny and Baez investigate the suspicious case of a waitress hit by a car.7. Guilt by Association43mDanny's case witness is killed before testifying, and Robert Lewis pressures Frank to support the attorney general's excessive-force investigation.8. Personal Business43mDanny and Baez investigate the murder of a woman's abusive ex-boyfriend, and Frank disciplines an off-duty sergeant who failed to stop an arme robbery.9. Confessions42mThe search for a missing boy is complicated by a priest's duty to keep secret a confession, and Danny and Baez investigate the death of a socialite.10. Unbearable Loss40mA harsh critic of the NYPD must set aside his differences when his son is killed. Erin and Anthony investigate a fatal prisoner-transfer accident.11. Genetics40mEmbroiled in a complex case involving adoptive parents versus birth parents, Eddie and Jamie ask Erin to help them avoid court proceedings.12. Not Fade Away40mWhen he accepts a side job as bodyguard for a recently released ex-con wrongly convicted of murder, Danny uses his position to find the true killer.13. The One That Got Away41mDespite his lack of jurisdiction, Frank intervenes in Danny and Baez's child-abuse case, which is complicated by issues of diplomatic immunity.14. In &amp; Out40mA gang leader's murder exposes a love affair between an ex-con and his parole officer, while Frank tries to moderate a rival gang's response.15. Lost Souls41mWhen a murder victim is revealed to have killed a mother and son years ago while driving drunk, Danny and Baez hesitate to arrest their chief suspect.16. Hard Bargain42mIn trouble with the mob, Danny's brother-in-law begs for protection, while Frank faces a demand to publicly release NYPD disciplinary records.17. Shadow of a Doubt41mJamie and Eddie grow suspicious of an EMT who failed to respond to his wife's 911 call when she suffered a fatal allergic reaction.18. A Deep Blue Goodbye40mAn ex-officer goes missing after revealing her plan to apologize to a wrongly convicted woman, and a chief refuses to accept mandatory retirement.19. Love Lost43mErin is opposed in court by ex-husband Jack on a homicide case that Danny and Baez investigate to determine if an accused husband murdered his wife.20. No Retreat, No Surrender41mErin helps a former witness rid his apartment building of a drug operation, and Frank must look into charges of misconduct in the mayor's office.21. Foreign Interference40mDanny and Baez partner with Russian operatives to locate a dangerous ex-KGB agent, while Frank handles a sensitive case involving an archbishop.22. The Thin Blue Line42mAfter he confiscates millions from a Mexican drug cartel shipment, Danny and his family are targeted for revenge. Jamie tracks a serial killer. 
+The story of a classic Irish Catholic New York family with family throughout the justice system of New York. The father is the Police Commisoner, the sons are both cops, and the daughter is a DA
+</t>
   </si>
   <si>
     <t xml:space="preserve">Release Year: 2008Meet women who killed their mothers, a wife who hired a hit man to rub out her fourth husband, and a woman charged with her spouse for his hate crime.1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2008, 1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2009Season 2 profiles women who killed their roommates, an arsonist responsible for multiple deaths and a prostitute charged with slaying her pimp lover.1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2009, 1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2010Inmates in Season 3 include a woman who stole a newborn from a hospital, a wife who claims voices told her to kill her husband and more.1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m, Release Year: 2010, 1. Episode 143m2. Episode 243m3. Episode 343m4. Episode 443m5. Episode 543m6. Episode 643m7. Episode 743m8. Episode 843m9. Episode 943m10. Episode 1043m11. Episode 1143m12. Episode 1243m 
@@ -411,6 +575,55 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Release Year: 2013Betrayed by the White House, Congressman Frank Underwood embarks on a ruthless rise to power. Blackmail, seduction and ambition are his weapons.1. Chapter 157mWhen the newly elected President reneges on a promise, Frank and Claire decide to sever all allegiances and toss the rules out the window.2. Chapter 249mFrank uses a young reporter, Zoe Barnes, to spin a story that puts the White House on its heels. Claire makes a cold-blooded move at work.3. Chapter 351mFrank must leave union negotiations to deal with a crisis in his home district. Zoe negotiates the politics of being a journalist on the rise.4. Chapter 449mFrank shakes down the Congressional leadership. Peter Russo must choose between politics and family.5. Chapter 553mFrank's fight over the Education Bill threatens Claire's own ambitions. Zoe mixes work and play.6. Chapter 650mFrank strikes back at the striking teachers. Claire is caught off guard by a deathbed confession.7. Chapter 754mFrank wins a major battle, but doesn't pause to rest on his laurels. Peter must face his past. Stamper hushes a secret.8. Chapter 847mFrank is honored at his alma mater, while Peter returns to Philly. Both men tackle unfinished business.9. Chapter 952mRusso hits the road with V.P. Matthews. Frank and Stamper try to whip up support in Congress. Claire looks out for herself.10. Chapter 1053mRebellion on all fronts. Claire defies Frank, Zoe finds comfort in someone new, and Peter makes an ultimatum.11. Chapter 1154mClaire fuels an old flame. Peter wrestles with his demons. Frank crosses the point of no return.12. Chapter 1253mFrank must make an unforeseen detour. Zoe, Lucas and Janine get closer to the truth.13. Chapter 1350mFrank scrambles to keep his plan on track. Claire is haunted by choices old and new. Zoe poses a serious threat., Release Year: 2013, 1. Chapter 157mWhen the newly elected President reneges on a promise, Frank and Claire decide to sever all allegiances and toss the rules out the window.2. Chapter 249mFrank uses a young reporter, Zoe Barnes, to spin a story that puts the White House on its heels. Claire makes a cold-blooded move at work.3. Chapter 351mFrank must leave union negotiations to deal with a crisis in his home district. Zoe negotiates the politics of being a journalist on the rise.4. Chapter 449mFrank shakes down the Congressional leadership. Peter Russo must choose between politics and family.5. Chapter 553mFrank's fight over the Education Bill threatens Claire's own ambitions. Zoe mixes work and play.6. Chapter 650mFrank strikes back at the striking teachers. Claire is caught off guard by a deathbed confession.7. Chapter 754mFrank wins a major battle, but doesn't pause to rest on his laurels. Peter must face his past. Stamper hushes a secret.8. Chapter 847mFrank is honored at his alma mater, while Peter returns to Philly. Both men tackle unfinished business.9. Chapter 952mRusso hits the road with V.P. Matthews. Frank and Stamper try to whip up support in Congress. Claire looks out for herself.10. Chapter 1053mRebellion on all fronts. Claire defies Frank, Zoe finds comfort in someone new, and Peter makes an ultimatum.11. Chapter 1154mClaire fuels an old flame. Peter wrestles with his demons. Frank crosses the point of no return.12. Chapter 1253mFrank must make an unforeseen detour. Zoe, Lucas and Janine get closer to the truth.13. Chapter 1350mFrank scrambles to keep his plan on track. Claire is haunted by choices old and new. Zoe poses a serious threat., Release Year: 2014In their ruthless rise to power, Frank and Claire battle threats past and present, and form new alliances while old ones succumb to betrayal.1. Chapter 1450mThe Underwoods tackle two threats that could bring their plans to ruin. Frank grooms his replacement as Whip. Claire goes on the offensive.2. Chapter 1549mFrank puts China in the cross-hairs. Claire confronts a painful trauma from her past. Lucas Goodwin presses for the truth.3. Chapter 1652mTension rises between Frank and Raymond Tusk as the situation with China deteriorates. A battle in the Senate pits Frank against the Republicans.4. Chapter 1748mA terror scare at the Capitol traps Frank with a resentful Donald Blythe. Claire gives a live interview that rocks the media.5. Chapter 1850mFrank back-channels with a Chinese billionaire. Lucas uses extreme measures to expose the Vice President. A shadowy figure joins Team Underwood.6. Chapter 1952mAmidst an energy crisis, Frank and Tusk end their shaky alliance. Lucas must make a difficult choice. Stamper grows closer to Rachel.7. Chapter 2049mDespite some friction, the Walkers deepen their friendship with the Underwoods. But it's all-out war between Frank and Tusk.8. Chapter 2148mThe war with Tusk intensifies. Claire influences Tricia Walker politically and domestically. Frank has a show-down with Linda Vasquez.9. Chapter 2250mThings get personal when Tusk blindsides the Underwoods with a scandal. Freddy and his BBQ joint get caught up in the mix.10. Chapter 2351mWith a military stand-off overseas and potential violence at home, Frank wants to finish off Tusk for good. Claire and Jackie Sharp collide.11. Chapter 2454mA Special Prosecutor interrogates Frank. Remy Danton tries to keep his options open. Stamper wrestles with his demons.12. Chapter 2548mFrank finds himself shut out, and Claire makes a difficult sacrifice. Stamper tries to regain control.13. Chapter 2660mFrank faces annihilation while the nation is in an uproar. Stamper must tie up loose ends. Claire feels the cost of ruthlessness., Release Year: 2014, 1. Chapter 1450mThe Underwoods tackle two threats that could bring their plans to ruin. Frank grooms his replacement as Whip. Claire goes on the offensive.2. Chapter 1549mFrank puts China in the cross-hairs. Claire confronts a painful trauma from her past. Lucas Goodwin presses for the truth.3. Chapter 1652mTension rises between Frank and Raymond Tusk as the situation with China deteriorates. A battle in the Senate pits Frank against the Republicans.4. Chapter 1748mA terror scare at the Capitol traps Frank with a resentful Donald Blythe. Claire gives a live interview that rocks the media.5. Chapter 1850mFrank back-channels with a Chinese billionaire. Lucas uses extreme measures to expose the Vice President. A shadowy figure joins Team Underwood.6. Chapter 1952mAmidst an energy crisis, Frank and Tusk end their shaky alliance. Lucas must make a difficult choice. Stamper grows closer to Rachel.7. Chapter 2049mDespite some friction, the Walkers deepen their friendship with the Underwoods. But it's all-out war between Frank and Tusk.8. Chapter 2148mThe war with Tusk intensifies. Claire influences Tricia Walker politically and domestically. Frank has a show-down with Linda Vasquez.9. Chapter 2250mThings get personal when Tusk blindsides the Underwoods with a scandal. Freddy and his BBQ joint get caught up in the mix.10. Chapter 2351mWith a military stand-off overseas and potential violence at home, Frank wants to finish off Tusk for good. Claire and Jackie Sharp collide.11. Chapter 2454mA Special Prosecutor interrogates Frank. Remy Danton tries to keep his options open. Stamper wrestles with his demons.12. Chapter 2548mFrank finds himself shut out, and Claire makes a difficult sacrifice. Stamper tries to regain control.13. Chapter 2660mFrank faces annihilation while the nation is in an uproar. Stamper must tie up loose ends. Claire feels the cost of ruthlessness., Release Year: 2015President Underwood fights to secure his legacy. Claire wants more than being First Lady. The biggest threat they face is contending with each other.1. Chapter 2759mA rocky start for the Underwood Presidency. Frank wants to introduce an ambitious jobs program, while Claire sets her sights on the United Nations.2. Chapter 2855mClaire’s U.N. bid runs into trouble. Frank fights off mutiny with a bold address to the country.3. Chapter 2953mThe Russian president’s state visit becomes a cold war of wills, and some punks heat things up.4. Chapter 3048mClaire bypasses Russia at the U.N. Frank tries to outmaneuver a potential challenger and ends up face to face with a higher power.5. Chapter 3152mFrank declares war on Congress to jump-start his jobs program. Claire spars with the Russian Ambassador.6. Chapter 3254mFrank and Claire travel to Moscow to negotiate the return of an imprisoned U.S. citizen. Claire takes a stand that jeopardizes their plans.7. Chapter 3353mThe damage is done and the Underwoods must repair it. But deep wounds don't heal fast, and sometimes not at all.8. Chapter 3444mA hurricane endangers more than just the entire East Coast and Frank must make a difficult choice.9. Chapter 3552mThe Jordan Valley erupts in chaos just as Frank's campaign is picking up steam. Claire gets disturbing intel and counsels him.10. Chapter 3657mFrank needs to deal with Petrov one on one while Claire tries to preserve the peace-keeping mission. Sacrifices must be made.11. Chapter 3753mThings turn ugly when Frank, Jackie, and Heather square off during their first debate. Tom joins Claire on the campaign trail.12. Chapter 3850mHeather Dunbar goes for the jugular, forcing Claire to confront her worst fears. The rift between Frank and Claire widens.13. Chapter 3958mIn the midst of the Iowa caucuses, Frank and Claire must confront hard truths about each other., Release Year: 2015, 1. Chapter 2759mA rocky start for the Underwood Presidency. Frank wants to introduce an ambitious jobs program, while Claire sets her sights on the United Nations.2. Chapter 2855mClaire’s U.N. bid runs into trouble. Frank fights off mutiny with a bold address to the country.3. Chapter 2953mThe Russian president’s state visit becomes a cold war of wills, and some punks heat things up.4. Chapter 3048mClaire bypasses Russia at the U.N. Frank tries to outmaneuver a potential challenger and ends up face to face with a higher power.5. Chapter 3152mFrank declares war on Congress to jump-start his jobs program. Claire spars with the Russian Ambassador.6. Chapter 3254mFrank and Claire travel to Moscow to negotiate the return of an imprisoned U.S. citizen. Claire takes a stand that jeopardizes their plans.7. Chapter 3353mThe damage is done and the Underwoods must repair it. But deep wounds don't heal fast, and sometimes not at all.8. Chapter 3444mA hurricane endangers more than just the entire East Coast and Frank must make a difficult choice.9. Chapter 3552mThe Jordan Valley erupts in chaos just as Frank's campaign is picking up steam. Claire gets disturbing intel and counsels him.10. Chapter 3657mFrank needs to deal with Petrov one on one while Claire tries to preserve the peace-keeping mission. Sacrifices must be made.11. Chapter 3753mThings turn ugly when Frank, Jackie, and Heather square off during their first debate. Tom joins Claire on the campaign trail.12. Chapter 3850mHeather Dunbar goes for the jugular, forcing Claire to confront her worst fears. The rift between Frank and Claire widens.13. Chapter 3958mIn the midst of the Iowa caucuses, Frank and Claire must confront hard truths about each other., Release Year: 2016They've always been a great team. But now Frank and Claire become even greater adversaries as their marriage stumbles and their ambitions are at odds.1. Chapter 4049mClaire's absence causes problems for Frank on the campaign trail amid rumors of a marital rift. Claire tries to strike out on her own.2. Chapter 4142mAs Claire begins exploring a campaign of her own, she and Frank engage in backdoor political maneuvering. But this time they're not on the same side.3. Chapter 4255mClaire joins Frank as he stumps in South Carolina, but he doesn't trust her. A disastrous scandal blindsides Frank's campaign on primary day.4. Chapter 4343mClaire threatens Frank. Frank makes a politically bold move that may provoke Russia. An event at a campaign stop changes everything.5. Chapter 4448mClaire advises Donald Blythe on dealing with Petrov. Further investigation of Lucas Goodwin dredges up his accusations against Frank.6. Chapter 4548mClaire clashes with the Secretary of State over her involvement in negotiations with Russia. Dunbar must choose between her campaign and her ethics.7. Chapter 4652mFrank and Claire adjust to their new reality. The search for Frank's running mate begins. Frank starts a campaign to weaken Conway's strong support.8. Chapter 4747mFormidable as ever, both Underwoods have their eyes on the big picture as they manipulate a potential running mate and push the gun bill.9. Chapter 4846mAt the convention, Frank and his team publicly push for Catherine Durant to be chosen as his running mate, but privately pursue a different agenda.10. Chapter 4957mAs Frank deals with a new threat to his candidacy, Claire has doubts about their plan. Claire faces a difficult decision concerning her mother.11. Chapter 5052mFrank ups the ante on the war on terror to counter Conway's public show of strength. Tom joins Claire on the campaign trail.12. Chapter 5147mFrank asks Will to help deal with extremists threatening to murder hostages. Hammerschmidt digs deeper into the allegations against Frank.13. Chapter 5255mAs the hostage situation continues, Claire secretly negotiates with Yusuf al Ahmadi. Frank confronts Hammerschmidt., Release Year: 2016, 1. Chapter 4049mClaire's absence causes problems for Frank on the campaign trail amid rumors of a marital rift. Claire tries to strike out on her own.2. Chapter 4142mAs Claire begins exploring a campaign of her own, she and Frank engage in backdoor political maneuvering. But this time they're not on the same side.3. Chapter 4255mClaire joins Frank as he stumps in South Carolina, but he doesn't trust her. A disastrous scandal blindsides Frank's campaign on primary day.4. Chapter 4343mClaire threatens Frank. Frank makes a politically bold move that may provoke Russia. An event at a campaign stop changes everything.5. Chapter 4448mClaire advises Donald Blythe on dealing with Petrov. Further investigation of Lucas Goodwin dredges up his accusations against Frank.6. Chapter 4548mClaire clashes with the Secretary of State over her involvement in negotiations with Russia. Dunbar must choose between her campaign and her ethics.7. Chapter 4652mFrank and Claire adjust to their new reality. The search for Frank's running mate begins. Frank starts a campaign to weaken Conway's strong support.8. Chapter 4747mFormidable as ever, both Underwoods have their eyes on the big picture as they manipulate a potential running mate and push the gun bill.9. Chapter 4846mAt the convention, Frank and his team publicly push for Catherine Durant to be chosen as his running mate, but privately pursue a different agenda.10. Chapter 4957mAs Frank deals with a new threat to his candidacy, Claire has doubts about their plan. Claire faces a difficult decision concerning her mother.11. Chapter 5052mFrank ups the ante on the war on terror to counter Conway's public show of strength. Tom joins Claire on the campaign trail.12. Chapter 5147mFrank asks Will to help deal with extremists threatening to murder hostages. Hammerschmidt digs deeper into the allegations against Frank.13. Chapter 5255mAs the hostage situation continues, Claire secretly negotiates with Yusuf al Ahmadi. Frank confronts Hammerschmidt., Release Year: 2017With the stakes higher than ever, Frank and Claire work together to consolidate their power and win the White House by any means possible.1. Chapter 5355mAs Congress debates investigating Frank, he and Claire attempt to stoke fear of terrorism. Tom Yates continues his stay in the White House.2. Chapter 5452mFrank and his team work to leverage support in key states by any means necessary. Claire learns some upsetting news about one of Frank's friends.3. Chapter 5553mThe day before the election, Conway holds a 24-hour Skype session with voters, while Frank and Claire stump in key states and try to discredit him.4. Chapter 5645mWith a tight race and low voter turnout on Election Day, things look grim for Frank. But he's still got one more trick up his sleeve.5. Chapter 5752mNine weeks after Election Day, the Underwoods work to consolidate their power. LeAnn tries to track down a missing Aidan Macallan.6. Chapter 5855mIn the midst of uncertainty, suspected Russian forces take over an American station in Antarctica. Meanwhile, a damaging news leak could hurt Frank.7. Chapter 5949mWhen a crisis forces White House personnel to take shelter in a bunker, Commerce Department official Jane Davis negotiates through back channels.8. Chapter 6046mWhile Frank attends an elite men's weekend gathering to firm up support, Claire deals with a stranded Russian ship and threats from Petrov.9. Chapter 6155mPetrov tries to influence affairs in the U.S. Jane discusses her agenda with Claire. With her job at stake, LeAnn reaches out to a reporter for help.10. Chapter 6257mThe Underwoods and their team angle to undermine the revived committee investigating Frank. Hammerschmidt's investigation heats up.11. Chapter 6351mAs the team tries to control fallout from damaging testimony and leaks, everyone is under suspicion and tensions flare between Frank and Claire.12. Chapter 6454mFrank attempts to stop Cathy from testifying. With Hammerschmidt sniffing out the truth, the Underwoods throw someone close to them under the bus.13. Chapter 6556mIn the wake of a surprising announcement, everything at the White House is shaken up. A decision must be made about whether to go to war., Release Year: 2017, 1. Chapter 5355mAs Congress debates investigating Frank, he and Claire attempt to stoke fear of terrorism. Tom Yates continues his stay in the White House.2. Chapter 5452mFrank and his team work to leverage support in key states by any means necessary. Claire learns some upsetting news about one of Frank's friends.3. Chapter 5553mThe day before the election, Conway holds a 24-hour Skype session with voters, while Frank and Claire stump in key states and try to discredit him.4. Chapter 5645mWith a tight race and low voter turnout on Election Day, things look grim for Frank. But he's still got one more trick up his sleeve.5. Chapter 5752mNine weeks after Election Day, the Underwoods work to consolidate their power. LeAnn tries to track down a missing Aidan Macallan.6. Chapter 5855mIn the midst of uncertainty, suspected Russian forces take over an American station in Antarctica. Meanwhile, a damaging news leak could hurt Frank.7. Chapter 5949mWhen a crisis forces White House personnel to take shelter in a bunker, Commerce Department official Jane Davis negotiates through back channels.8. Chapter 6046mWhile Frank attends an elite men's weekend gathering to firm up support, Claire deals with a stranded Russian ship and threats from Petrov.9. Chapter 6155mPetrov tries to influence affairs in the U.S. Jane discusses her agenda with Claire. With her job at stake, LeAnn reaches out to a reporter for help.10. Chapter 6257mThe Underwoods and their team angle to undermine the revived committee investigating Frank. Hammerschmidt's investigation heats up.11. Chapter 6351mAs the team tries to control fallout from damaging testimony and leaks, everyone is under suspicion and tensions flare between Frank and Claire.12. Chapter 6454mFrank attempts to stop Cathy from testifying. With Hammerschmidt sniffing out the truth, the Underwoods throw someone close to them under the bus.13. Chapter 6556mIn the wake of a surprising announcement, everything at the White House is shaken up. A decision must be made about whether to go to war. 
+Season 1The series opens with congressman Francis "Frank" Underwood displaying his ruthless pragmatism by killing a suffering pet dog with his bare hands while explaining to the audience how there are times when we require someone to do the unpleasant yet necessary thing. Along this theme we follow Underwood, a power-hungry Democratic congressman from South Carolina and House majority whip. After securing the election of President Garrett Walker to get himself appointed Secretary of State, Underwood is devastated to learn that he is being passed over. Chief of Staff Linda Vasquez tells Underwood that the president wants him to promote his agenda in Congress and will not honor their agreement. Inwardly seething, Underwood quickly gains control of his anger and hides his disappointment to present himself as a helpful lieutenant to the president and his agenda. In reality, Underwood begins an elaborate plan behind the president's back, with the ultimate goal of gaining power for himself.Frank's wife Claire runs an NGO, the Clean Water Initiative ("CWI"), but her intentions are not made explicit. She seems to use her charity to cultivate her own power and influence, yet its ultimate purpose remains unknown. In the opening episode, she deems the otherwise-successful charity to have too limited a footprint. Keen to be on the international stage, she decides to change her organization to one that supports international well-digging to provide clean water. This is met with great misgivings by her office manager. Claire directs her to fire CWI employees, cutting the staff by half. At the end of the week, she checks in to ask how the process went and then informs the manager she is being let go as well. It is clear from the outset that Claire shares both her husband's cold-hearted, ruthless pragmatism and his lust for power.Underwood begins a highly intricate plan to obtain a cabinet position, acquiring pawns he can manipulate in his power play. He begins a symbiotic, and ultimately sexual, relationship with Zoe Barnes, an ambitious young political reporter, and then makes a deal with her that she will publish damaging stories he leaks about his political rivals. Meanwhile, he manipulates Peter Russo, a troubled alcoholic and congressman from Pennsylvania, into helping him undermine Walker's pick for Secretary of State, Senator Michael Kern. Underwood eventually has Kern replaced with his own choice, Senator Catherine Durant. Underwood also uses Russo in a plot to end a teachers' strike and pass an education bill, which improves Underwood's standing with President Walker.Because the new Vice President is the former governor of Pennsylvania, a special election is to be held for governor. Underwood helps Russo get clean and props up his candidacy but later uses call girl Rachel Posner to break his sobriety and trigger his downfall shortly before the election, by Russo's being drunk while appearing on a radio interview. Distraught, Russo decides to make amends for his failure by coming clean to the press about his role in Underwood's schemes. In response, Frank kills Russo by leaving him passed out in a closed garage with Russo's car running, asphyxiating him. With the Pennsylvania special election in chaos, Underwood convinces the vice president to step down and run for his old position of governor leaving the vice presidency open to Underwood, as was his plan all along.President Walker appears to have other plans, however. Underwood ends up vetting a surprising choice for vice president: Missouri billionaire Raymond Tusk. Tusk later reveals that he is actually appraising Underwood for vice president and has been a close advisor and friends with Walker for many years. Tusk reveals he suggested that Walker break his agreement to make Underwood Secretary of State. Tusk explains he will influence Walker to nominate Underwood if Underwood agrees to perform one unnamed favor for him that will benefit Tusk's financial interests. Underwood, after some thought, counterproposes to Tusk that they work together to fulfill both their interests, and Tusk accepts. Meanwhile, after Underwood ends their affair, Zoe begins piecing together clues about Underwood's scheming. The season ends when Underwood receives and accepts the nomination for vice president.Season 2With Frank on the verge of being sworn in as vice president, Zoe and her colleagues, Lucas Goodwin and Janine Skorsky, continue to dig for information and ultimately locate Rachel Posner. Frank's aide, Doug Stamper, brings Rachel to a safe house while Frank lures Zoe to a D.C. Metro station and, unseen by witnesses or security cameras, pushes her in front of a train. As a result, Janine abandons the digging and accepts a teaching position in Ithaca, NY, to stay away from the potential danger that could get her killed, too.Zoe's death galvanizes Lucas to continue the search alone, and he solicits the help of a hacker to retrieve Frank's text history from AT&amp;T. However, the hacker, Gavin Orsay, is actually working for Doug Stamper to entrap Lucas, and he leads the reporter to be ultimately caught in an FBI sting and plead guilty to cyber-terrorism. Later, the hacker uses the existence of Rachel Posner to extort Doug. Fearing another relocation, potential harm, and Doug's increasing obsession with her, Rachel hits Doug with a rock, leaves him for dead, and flees the scene in his car.Claire becomes close with the First Lady, and they support a bill to reform the military's prosecution of sexual assault, after Claire reveals in an interview that she had an abortion after being raped in college by a man who has just been commissioned as a general. She learns the president's marriage is strained and offers the First Lady the aid of a spiritual advisor and marriage counselor.Though Raymond Tusk wields major influence over the president, Frank aims to drive a wedge between them. He meets Xander Feng, a Chinese businessman and ally of Tusk's, to engage in backchannel diplomatic negotiations which Frank intentionally scuttles, though he uses the chaos of the situation to make it appear as if Tusk is equally responsible for the failed talks. This sours Sino-U.S. relations and leads to a trade war over rare earth minerals and a spike in U.S. energy prices. Tusk openly opposes the president's efforts to deal with the crisis and begins having a tribal casino funnel money into Republican PACs in retaliation. When Frank discovers that the source of the funneled money is in fact Xander Feng, he gets Feng to end his partnership with Tusk in exchange for a lucrative bridge contract.The Department of Justice discovers that Doug Stamper was videotaped at the casino and begins to investigate the relationships among Feng, Tusk, and the White House. Seeking to establish trust with the special prosecutor, Frank manipulates the president into volunteering his travel records, which reveal his visits to the marriage counselor and raise questions about whether the illicit campaign donations were ever discussed. Wishing to avoid public disclosure of his personal issues, the president has the White House Counsel coach the counselor, which the special prosecutor interprets as witness tampering. As the House Judiciary Committee begins drafting articles of impeachment, both the President and Frank offer Tusk a presidential pardon in exchange for implicating each other. Tusk sides with the president at first, leaving Frank no other option than to regain the president's trust as a friend. The president calls off Tusk's pardon deal as a sign of friendship to Frank. Tusk appears before the Judiciary Committee where he mostly pleads the fifth. He ultimately confesses that the president knew about the deal with China. This leaves the president with no choice but to resign. Frank is sworn in as the new president of the United States.Season 3The season starts six months after Frank Underwood's ascension to the Presidency. Frank begins by pushing for a new jobs program called "America Works" or "AmWorks" for short. He immediately faces immense pressure as betrayal and opposition grow inside his party. This is mostly because "America Works" features cutting many social programs to fund the work stations and pay workers. Determined to leave a legacy and not be a "placeholder" president after assuming the office, Underwood makes ambitious moves to run in the 2016 presidential elections, starting with the Democratic primaries, where he faces off against Heather Dunbar. This decision to run is announced several months after he states he will not run for the presidency during a nationwide press conference.Meanwhile, Doug Stamper recovers from the injuries caused by Rachel Posner. During his recovery, Frank Underwood will not allow Doug to help or return to his former position as Frank's chief of staff. Doug appears to switch sides and begins to work for Heather Dunbar, helping with her 2016 presidential campaign. Gavin Orsay helps Doug find Rachel in exchange for lifting the ban on his passport; the findings he delivers are of a body reported as a Jane Doe but with fingerprints matching Rachel's. Distraught and once again struggling with alcoholism, Doug entreats his brother Gary to stay with him for two months. Doug tells Frank of what has been going on while he worked for Heather Dunbar and Frank blames Doug's relapse on the extra stress. After fleeing to Venezuela, Gavin reveals he gave Doug false information and that Rachel is alive. He says he will reveal her location if Doug helps a friend get out of jail. Doug tracks down Gavin and brutalizes him for the information, then sets out to find Rachel, who is working odd jobs in New Mexico to pay for a false identity. Doug captures Rachel and drives into the desert with her, intending to kill her. He reconsiders when she tries to assure Doug she won't reveal any information about Frank Underwood's crimes and shows proof of her new identity to him. He releases her along a desolate road, but vacillates and is last seen burying her body. He returns to work as Frank Underwood's Chief of Staff after Remy Danton resigns, presumably jaded by the treatment Frank showed Jackie Sharp during the presidential debate.Meanwhile, First Lady Claire Underwood is named the United States Ambassador to the United Nations after being rejected once by the senate and given a recess appointment by Frank. She then faces a crisis in the Jordan Valley, where Frank and the United States are pitted against the cunning President Petrov of Russia. During this crisis President Petrov has an American gay rights activist arrested in Russia and held under violation of his law on sexuality in public. Frank and Claire both try to persuade Petrov to release the man and they eventually agree on terms for release. However, one of Petrov's demands is that the activist must apologize on national television to the country for the trouble he has caused. The activist decides he would rather hang himself than apologize and does so when Claire comes to visit him. Later, after Russian troops are killed in the Jordan Valley, Petrov convinces Frank to remove Claire as ambassador to the UN in exchange for the removal of Russian troops from the Valley. Claire resigns, giving the reason that she wants to be more active in Frank's presidential campaign and would not be able to perform her duties as ambassador.During most of the season a writer, Thomas Yates, follows the Underwoods. Yates is hired by Frank to write a biography that Frank plans to use as publicity towards his "AmWorks" bill. Yates, a fiction writer with a dark past of his own, decides to put a different spin on the book and writes less about just Frank and more about the relationship between Frank and Claire. Yates reads Frank his prologue which Frank does not understand at first, but agrees is a decent beginning. By the end of the season, Yates has the first chapter written and Frank, not liking the direction the book has taken, fires Yates.In the season finale, tensions rise between Frank and Claire and culminate in Claire's declaration that she intends to leave Frank.Season 4Immediately after the events of Season 3, Claire leaves D.C. for Dallas, intending to run for Congress in her home district. The incumbent, Doris Jones, is planning to retire and endorse her daughter Celia to replace her. Claire offers them federal funding for a key Planned Parenthood clinic in exchange for stepping down in the upcoming election, but they refuse the offer. Frank desperately seeks to get Claire back by his side as he loses ground in key primary states. He convinces her to return to his side after promising not to sabotage her campaign in Texas, but he later blocks Claire's congressional bid by publicly endorsing Celia Jones at the State of the Union address weeks later. Frank and Claire travel to South Carolina for the primary, but a series of scandals casts Frank in a bad light and causes him to narrowly lose the state to Heather Dunbar. Frank discovers that Claire had been leaking information to Dunbar's campaign to fuel the negative press, and she threatens to continue sabotaging his presidential bid unless he puts her on the ticket for vice presidency, which he refuses to do.Lucas Goodwin is released from prison and seeks revenge against Frank. He approaches Dunbar at a campaign event and explains his story, but she turns him away. Desperate, he attempts to assassinate Frank following a public speech; he shoots the president in the abdomen and also mortally wounds Edward Meechum, but Meechum shoots Goodwin dead before dying. Frank remains comatose for weeks pending a liver transplant, and Donald Blythe is sworn in as acting president. Blythe is indecisive during a critical military situation involving Russia, and turns to Claire for guidance on foreign policy. Claire goes against Franks wishes by convincing Blythe to involve China in the ensuing dispute and maneuvering into a meeting with Russian President Petrov, where she brokers an ambitious peace deal single-handedly. While Frank remains incapacitated, Doug Stamper decides to go after Dunbar by leaking information about her secret meeting with Lucas prior to the assassination attempt. Dunbar is questioned about the meeting, and she publicly denounces the proceedings as a smear campaign by the Underwoods, a move that is widely panned and leads to her suspending her presidential bid. Frank undergoes transplant surgery and recovers fully, resuming his position as president, and agrees to put Claire on the ticket for the upcoming election. Meanwhile, Will Conway, a social-media-savvy Republican nominee for president, attracts mass public attention with his release of private family footage to show full disclosure of his past, encouraging opposition for the Underwood's gun bill and annoying Frank.Tom Hammerschmidt, Goodwin's former editor at The Washington Herald, digs deeper into Lucas's claims of Frank's misdeeds. He approaches Remy Danton looking for information, and with his help, starts to piece together Frank's corruption. Tom meets with former President Walker to expose the Underwoods, convincing him to help by appealing to his anger for being forced to resign thanks to Frank's meddling. Danton and Jackie Sharp also decide to go on the record against Frank to lend credibility to the story.A hostage crisis involving an American family and a radical Islamic group called Islamic Caliphate Organization (ICO) makes national headlines after the kidnappers agree to negotiate only with Governor Will Conway, the Republican nominee. Frank invites Conway to the White House to assist in the negotiations, and Conway helps buy critical time in locating the suspects, earning him public praise. However, tensions between the Conways and Underwoods lead to the governor ending his role in the crisis and leaving D.C. with his family. Frank and Claire allow the kidnappers to speak to the deposed leader of ICO, Yusuf al Ahmadi, in an attempt to defuse the situation. Instead, al Ahmadi urges his followers to kill one of the hostages and broadcast the killing to the public. Meanwhile, Hammerschmidt publishes his story through the Herald and threatens to end Frank's campaign weeks before the election. Claire convinces Frank to use a heavier hand in the situation, and Frank addresses the public declaring that the nation is at war, ordering the full force of the military be used to incite fear around the world. Frank and Claire watch the live execution of the American hostage together, and the season closes with Claire breaking through the 'fourth wall', staring into the camera for the first time alongside Frank to illustrate her descent into further ruthlessness and corruption.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release Year: 2017As they face down their forties, a group of friends who met at Harvard experiences a range of success -- or lack thereof -- in this comedy series.1. Welcome to New York31mLisa and Ethan move to New York, reconnect with old college friends and learn that some secrets are harder to keep than others.2. Connecticut House28mLisa’s new career gets off to a dubious start. Meanwhile, Marianne prepares for a play and Ethan proves himself a less-than-stellar petsitter.3. All-Nighter31mFacing a brutal deadline, Ethan brainstorms ideas for his Y.A. novel. Meanwhile, Sam, Lisa and Marianne meet some admirers out on the town.4. Mission Impossible31mEthan and Lisa run the gauntlet to ensure their IVF is a success. Max and Felix celebrate a special occasion. Sam opens up.5. Party Bus32mEthan organizes a wine-tasting trip for his wife and friends, but his perfectly planned excursion hits a few bumps in the road.6. Second Wedding33mTensions flare, suspicions grow and mics drop at a lavish wedding reception, where Ethan takes his new persona out for a spin.7. Grand Cayman30mLisa makes a big decision, Ethan and Sam reminisce about old times, Nick plays a prank, and Max makes an awkward confession.8. A Night of Surprises35mThe gang gets together to celebrate Sam’s 40th birthday, where Lisa suffers a crisis of conscience and Nick’s announcement catches everyone off guard., Release Year: 2017As they face down their forties, a group of friends who met at Harvard experiences a range of success -- or lack thereof -- in this comedy series.1. Welcome to New York31mLisa and Ethan move to New York, reconnect with old college friends and learn that some secrets are harder to keep than others.2. Connecticut House28mLisa’s new career gets off to a dubious start. Meanwhile, Marianne prepares for a play and Ethan proves himself a less-than-stellar petsitter.3. All-Nighter31mFacing a brutal deadline, Ethan brainstorms ideas for his Y.A. novel. Meanwhile, Sam, Lisa and Marianne meet some admirers out on the town.4. Mission Impossible31mEthan and Lisa run the gauntlet to ensure their IVF is a success. Max and Felix celebrate a special occasion. Sam opens up.5. Party Bus32mEthan organizes a wine-tasting trip for his wife and friends, but his perfectly planned excursion hits a few bumps in the road.6. Second Wedding33mTensions flare, suspicions grow and mics drop at a lavish wedding reception, where Ethan takes his new persona out for a spin.7. Grand Cayman30mLisa makes a big decision, Ethan and Sam reminisce about old times, Nick plays a prank, and Max makes an awkward confession.8. A Night of Surprises35mThe gang gets together to celebrate Sam’s 40th birthday, where Lisa suffers a crisis of conscience and Nick’s announcement catches everyone off guard., Release Year: 2017, 1. Welcome to New York31mLisa and Ethan move to New York, reconnect with old college friends and learn that some secrets are harder to keep than others.2. Connecticut House28mLisa’s new career gets off to a dubious start. Meanwhile, Marianne prepares for a play and Ethan proves himself a less-than-stellar petsitter.3. All-Nighter31mFacing a brutal deadline, Ethan brainstorms ideas for his Y.A. novel. Meanwhile, Sam, Lisa and Marianne meet some admirers out on the town.4. Mission Impossible31mEthan and Lisa run the gauntlet to ensure their IVF is a success. Max and Felix celebrate a special occasion. Sam opens up.5. Party Bus32mEthan organizes a wine-tasting trip for his wife and friends, but his perfectly planned excursion hits a few bumps in the road.6. Second Wedding33mTensions flare, suspicions grow and mics drop at a lavish wedding reception, where Ethan takes his new persona out for a spin.7. Grand Cayman30mLisa makes a big decision, Ethan and Sam reminisce about old times, Nick plays a prank, and Max makes an awkward confession.8. A Night of Surprises35mThe gang gets together to celebrate Sam’s 40th birthday, where Lisa suffers a crisis of conscience and Nick’s announcement catches everyone off guard. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divers, scientists and photographers around the world mount an epic underwater campaign to document the disappearance of coral reefs. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A NASA astronaut in training must shelve his dream to save his family's farm -- until one day, he decides to build a homegrown rocket in his barn. 
+Charles Farmer, played by Billy Bob Thornton, is a soft-spoken, wellliked, small town family man who has spent years building a rocket ship in his barn. As he nears completion of his project, however, several complications appear in his trajectory in the form of government interference and economic problems. Once the media got a hold of the story, the money woes seemed to make less sense to me. Look for Bruce Willis as a former astronaut, who visits Farmer. We spend the film watching and wondering whether these issues can be overcome and allow him to launch, and whether or not he should even try. Virginia Madsen stars as his supportive wife and Max Thieriot is his fifteen-year old son and assistant.(this first appeared on realmoviereview.com)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release Year: 2015When a veteran is murdered and his wife is assaulted, a California town is torn apart by issues of class, race and gender during a tense murder trial.1. Episode 144mAn apparent home invasion results in tragedy. Meth-addicted lovers become desperate for a fix. A Mexican-American teen is questioned by police.2. Episode 243mTony is tested by his peers. Aubry lives rough on the streets. Gwen's rape kit results shock her parents. Hector gets troubling news from the police.3. Episode 343mTony makes a friend. Barb pushes to add special circumstances to the charges. Alonzo vents his anger on TV. Aubry seeks help. Carter has a visitor.4. Episode 443mMark arrives on military leave. Aliyah gets Carter legal help. Tony receives useful advice. Hector refuses to steal meds. Gwen's condition improves.5. Episode 543mCarter's bail hearing is held. Hector demands a deal. Tony meets up with an outside contact. Aubry forces a wild plan into motion. Mark shares news.6. Episode 643mHector's bargaining power increases. Palmer interviews Gwen. Michael pressures Aubry to testify to save herself. Tony finds out who punched Jenny.7. Episode 743mTony is arrested. Barb meets Richelle. Aliyah learns the prosecution has submitted new evidence. Aubry finds a way to avoid testifying against Carter.8. Episode 843mAliyah plans an event to publicize the case. Carter is offered a plea deal. Russ asks Mark for a favor. Hector has a visitor. Barb acts out of fear.9. Episode 943mTony witnesses a horrifying event. Ruth and Aliyah form an alliance. Tony's public defender gives Alonzo frank advice. Carter sends Aubry a message.10. Episode 1043mPalmer catches Hector in a lie. Barb tells Russ she's giving up. Aubry's competency to stand trial is assessed. Jenny testifies on Tony's behalf.11. Episode 1143mCarter meets with Aubry. Alonzo makes an announcement to his kids. Barb advises Russ to let go. Jenny makes a decision. Hector starts a new life., Release Year: 2015, 1. Episode 144mAn apparent home invasion results in tragedy. Meth-addicted lovers become desperate for a fix. A Mexican-American teen is questioned by police.2. Episode 243mTony is tested by his peers. Aubry lives rough on the streets. Gwen's rape kit results shock her parents. Hector gets troubling news from the police.3. Episode 343mTony makes a friend. Barb pushes to add special circumstances to the charges. Alonzo vents his anger on TV. Aubry seeks help. Carter has a visitor.4. Episode 443mMark arrives on military leave. Aliyah gets Carter legal help. Tony receives useful advice. Hector refuses to steal meds. Gwen's condition improves.5. Episode 543mCarter's bail hearing is held. Hector demands a deal. Tony meets up with an outside contact. Aubry forces a wild plan into motion. Mark shares news.6. Episode 643mHector's bargaining power increases. Palmer interviews Gwen. Michael pressures Aubry to testify to save herself. Tony finds out who punched Jenny.7. Episode 743mTony is arrested. Barb meets Richelle. Aliyah learns the prosecution has submitted new evidence. Aubry finds a way to avoid testifying against Carter.8. Episode 843mAliyah plans an event to publicize the case. Carter is offered a plea deal. Russ asks Mark for a favor. Hector has a visitor. Barb acts out of fear.9. Episode 943mTony witnesses a horrifying event. Ruth and Aliyah form an alliance. Tony's public defender gives Alonzo frank advice. Carter sends Aubry a message.10. Episode 1043mPalmer catches Hector in a lie. Barb tells Russ she's giving up. Aubry's competency to stand trial is assessed. Jenny testifies on Tony's behalf.11. Episode 1143mCarter meets with Aubry. Alonzo makes an announcement to his kids. Barb advises Russ to let go. Jenny makes a decision. Hector starts a new life., Release Year: 2016The show shifts to Indianapolis, where sexual identity, assault, bullying and class differences at an elite private school divide the community.1. Episode 143mWhen explicit photos of teenager Taylor Blaine are posted online, Taylor accuses two star athletes at an elite school of sexually assaulting him.2. Episode 243mAnne tries to get help from the authorities for Taylor but finds distrust and disbelief at every turn. Leslie tries to get Leyland ahead of the story.3. Episode 343mWhen a name comes forward in the investigation, Anne has to deal with the blowback. New questions arise about what really happened at the party.4. Episode 443mMore evidence results in greater anxiety for the team and their parents. Taylor goes back to school and Eric is faced with an agonizing decision.5. Episode 543mEric and Taylor both face questions about their sexuality and truthfulness. Anne's behavior is at issue as revelations about her past come to light.6. Episode 643mLeyland and the community react to the news about Eric and Taylor. Anne remains firm in wanting justice. Taylor confronts someone from his childhood.7. Episode 743mAfter sensitive information about Anne is posted online, a distraught Taylor makes a fateful decision that will change him and everyone at Leyland.8. Episode 843mNo one is immune from events at Leyland. Leslie becomes the next target of a cyberattack. Anne visits Taylor, whose story has become national news.9. Episode 943mThe lives of the Leyland families are laid bare in a massive cyberattack that doesn't help Taylor. Taylor talks to a therapist as he pushes Anne away.10. Episode 1043mSebastian becomes the victim of the latest cyberattack. Leslie accepts the consequences of her actions. Taylor and Eric face life-altering decisions., Release Year: 2016, 1. Episode 143mWhen explicit photos of teenager Taylor Blaine are posted online, Taylor accuses two star athletes at an elite school of sexually assaulting him.2. Episode 243mAnne tries to get help from the authorities for Taylor but finds distrust and disbelief at every turn. Leslie tries to get Leyland ahead of the story.3. Episode 343mWhen a name comes forward in the investigation, Anne has to deal with the blowback. New questions arise about what really happened at the party.4. Episode 443mMore evidence results in greater anxiety for the team and their parents. Taylor goes back to school and Eric is faced with an agonizing decision.5. Episode 543mEric and Taylor both face questions about their sexuality and truthfulness. Anne's behavior is at issue as revelations about her past come to light.6. Episode 643mLeyland and the community react to the news about Eric and Taylor. Anne remains firm in wanting justice. Taylor confronts someone from his childhood.7. Episode 743mAfter sensitive information about Anne is posted online, a distraught Taylor makes a fateful decision that will change him and everyone at Leyland.8. Episode 843mNo one is immune from events at Leyland. Leslie becomes the next target of a cyberattack. Anne visits Taylor, whose story has become national news.9. Episode 943mThe lives of the Leyland families are laid bare in a massive cyberattack that doesn't help Taylor. Taylor talks to a therapist as he pushes Anne away.10. Episode 1043mSebastian becomes the victim of the latest cyberattack. Leslie accepts the consequences of her actions. Taylor and Eric face life-altering decisions. 
+</t>
+  </si>
+  <si>
+    <t>It's Avengers vs. Avengers when Captain America fights to keep his superhero friends independent, while his pal Iron Man supports government control. 
+In 1991, Bucky Barnes (Sebastian Stan), brainwashed to be the Winter Soldier, causes a car to crash and recovers bags of a serum that turns people into super soldiers.After the Avengers defeated Ultron, Thor and Hulk are nowhere to be found. Hawkeye (Jeremy Renner) has gone home to spend time with his family. Even Iron Man (Robert Downey Jr.) has apparently disengaged. Captain America (Chris Evans) and Black Widow (Scarlett Johansson) are leading a new team of Avengers, consisting of Scarlet Witch (Elizabeth Olsen), Vision (Paul Bettany), War Machine (Don Cheadle) and Falcon (Anthony Mackie). But the world hasn't forgotten the numerous civilian casualties that resulted from the Avengers' previous missions.In Lagos, Nigeria, the team is tracking the movements of Brock Rumlow (Frank Grillo), a Hydra agent who had infiltrated S.H.I.E.L.D. until Captain America exposed him. Brock was on one of the three ships that Cap had caused to fire on each other, and he managed to survive the resulting crash, but he was badly burned, and now he wears a skull mask and goes by the name Crossbones. In Lagos, Crossbones and his team of mercenaries ram a garbage truck into the Institute for Infectious Disease building and clear out the guards with smoke canisters. Crossbones uses hydraulic gauntlets to give him super strength, and pounds open the glass around the lab. He grabs a vial containing a deadly, highly contagious virus. Cap's team takes out some of the mercenaries, and Crossbones and the rest of the men make their escape in a truck. After a chase, the truck is taken out of action. Crossbones hands the vial to one of his men, and tells them all to scatter. He then engages Cap, repeatedly punching him with enhanced strength, while the rest of the team chases after the mercenaries. Falcon finds the one holding the vial and shoots him, with Black Widow grabbing the vial before it hits the ground. Cap gets the upper hand on Crossbones, pinning him against the wall. Crossbones tells him that Bucky Barnes remembers him. With Cap momentarily distracted, Crossbones pushes a button, triggering a bomb on his vest. Cap braces himself, but Scarlet Witch is able to contain the force of the explosion. She uses her powers to push it up into the air, but she's only able to elevate it a bit before she loses control, and the explosion rips into the seventh floor of a nearby hotel. Cap calls for fire and rescue, and then runs into the building to help evacuate. Wanda tearfully looks at the destruction.In a theater inside Tony Stark's old college, a video plays of him and his parents, Howard (John Slattery) and Maria. At the end, Tony tells the students that he is starting the Howard and Maria Stark Foundation, and each one of them has been approved for a research grant. In a corridor, a woman confronts him and shows him a picture of her son, who had been killed in Sokovia, crushed by a building that the Avengers had knocked down.At the Avengers' headquarters, the team is watching news footage of the Lagos mission. The reporter says that eleven people were killed in the hotel. Steve tells them that he let his guard down, and people died because of it. Vision tells Steve that Tony has arrived, and he brought the Secretary of State as a guest. General Thaddeus Ross (William Hurt) had been involved in the experiment that turned Bruce Banner into the Hulk, and then had spent years trying to hunt him down. Ross tells them that some people look up to them as heroes, but others think they're vigilantes. He shows pictures of the destruction that follows the team wherever they go. Then he sets a thick document down on the table and tells them it's the Sokovia Accords, ratified by 117 countries. The accords state that the Avengers will operate under a panel's supervision, only acting when the panel decides it's necessary. He says there will be a meeting in Vienna in three days, and if they don't sign on, they'll have to retire.The team spends hours debating whether to agree to the accords, and Tony pulls out the picture of the boy who was killed in Sokovia. Steve asks what will happen if there's somewhere they need to go, but the panel won't allow them. Tony replies that if they don't agree to this now, it will be forced on them later. Getting nowhere, Steve leaves in disgust. The next day, Natasha finds him in an old church. She tells him that she, Tony, James Rhodes and Vision had signed on, with Clint and Wanda holding out.In Vienna, several heads of state have gathered for the ratification of the accords. Natasha meets the prince of Wakanda, T'Challa (Chadwick Boseman), and his father, King T'Chaka (John Kani). Wakanda had become abundant in vibranium, the material that was used to make Captain America's shield, after a meteorite crashed there. Additionally, some of the Lagos victims were from Wakanda. King T'Chaka takes the podium for the keynote address, and Natasha notices security personnel surrounding a van parked outside. An explosion rips through the building, killing the king.Back in the U.S., Steve is sitting in a hotel room with Sam and his old friend, Sharon Carter (Emily VanCamp), when a news report comes in, showing the destruction in Vienna. Security footage shows the man who planted the bomb, and Steve realizes that it's Bucky. Sharon gets a text, and tells Steve that she has to go to work, and takes a military plane to Vienna. Natasha looks around and sees hundreds of injured people. Prince T'Challa picks up a printed photo showing Bucky leaving the van that had the bomb. Natasha calls Steve, and he tells her that he has to be the one to bring in Bucky. He hangs up and looks at the damaged building, having already arrived in Vienna. Sharon sees him, and she hands him a file so he can get a head start on the manhunt, ahead of a German military task force, GSG9, who have orders to shoot to kill.In Bucharest, Bucky picks up a newspaper and sees that he is being accused of the bombing in Vienna. He realizes that he'll have to leave quickly. Steve goes to Bucky's apartment and finds him there. The GSG9 storm in, and Bucky blocks their bullets with Cap's shield. He jumps down to the street, where he is confronted by the Black Panther, who scrapes his armor with metal claws on his hands. Cap jumps down and lands next to them, and all three take fire from the GSG9. Cap and Bucky run for cover, but the Black Panther stands still, letting the bullets hit him and bounce off harmlessly. Cap realizes his armor must be made of vibranium. Bucky runs through the streets with Black Panther coming after him, and Cap and Falcon following the Panther. Cap commandeers a GSG9 SUV, while the Panther leaps from the top of one car to the next, steadily gaining on Bucky. Bucky knocks a man off a motorcycle, then jumps on himself and guns the engine, driving into a tunnel. Black Panther is still tirelessly giving chase. Cap drives the SUV near Bucky's motorcycle, and the Panther jumps onto the SUV's roof, and then onto the back of the motorcycle. Bucky swings backward, knocking the Panther off, but he sticks his claws into the side of the SUV and clings to its side. Bucky looks ahead and sees Falcon flying straight toward him. He hits the brakes, and turns the motorcycle around and drives back past the SUV. Cap throws it into reverse, trying to keep up with Bucky. The Panther jumps into the air, and lands on Falcon's wings. Bucky takes a metal ball and throws it up to the roof of the tunnel. It explodes, blowing a hole in the concrete. Falcon uses his wings to shield himself, throwing off the Panther, who went straight through the explosion, unharmed. Bucky swerves to avoid a car, and falls off the bike. The Panther jumps on him, swinging his claws at him. Cap tackles the Panther, and they trade blows, with the Panther's claws leaving gashes in Cap's shield. War Machine flies in through the hole, and the GSG9 surrounds them all and tells them to put their hands up. They are all arrested, and the Black Panther's mask is removed. Cap recognizes him as Prince T'Challa of Wakanda.On the ride to the task force headquarters in Berlin, Cap tells the prince that he has the wrong man. Cap, Falcon and the prince get out, and in another truck, Bucky is taken out in a cage. They are met by Everett Ross (Martin Freeman), the leader of the headquarters. The men have their weapons removed, and they are led inside the building, where Black Widow is waiting for them. Everett takes Prince T'Challa into one room, and the others are led to another room, where Tony tells them that Secretary Ross wants to have them all prosecuted. Tony says that as a compromise, they won't get back the shield and wings, which are now government property.T'Challa uses his influence to have Bucky extradited to Wakanda, where he will face charges of terrorism. Bucky is given an evaluation to determine his mental state. Still in the room with Tony, Cap watches it unfold. Tony tells him that if he signs the accords now, Bucky will be transferred to an American psych facility instead of a Wakandan jail. Steve agrees, but only if safeguards are put into place. Tony brightens, telling Steve that this will get him and Wanda reinstated. Steve asks what he means about Wanda, and he tells Steve that she is being confined to the compound by Vision. Tony says it's the best he can do, since she's not a U.S. citizen and they won't give her a visa. Steve says that she's only a kid, and doesn't deserve to be imprisoned. He leaves without signing onto the accords.Hawkeye breaks into the facility where Vision is holding Scarlet Witch. He attacks Vision, but is unable to hurt him. Scarlet Witch uses her powers to make Vision fall through the floor, and she and Hawkeye escape.Colonel Zemo (Daniel Brühl), having already killed a Hydra agent and recovered a book containing a list of words that will trigger Bucky's reversion to his brainwashed state, infiltrates the compound and reads off the list. Bucky pounds his way out of his cell and fights Cap and Iron Man. Cap subdues him and takes him away. Regaining his senses, Bucky tells Steve that Zemo is going to Siberia, where there are several more super soldiers waiting for someone to wake them up and give them a mission.Cap assembles a team consisting of Bucky, Falcon, Hawkeye, Scarlet Witch and Ant-Man (Paul Rudd) to stop Zemo. By operating outside of authority, they all become renegades. Iron Man forms his own team, made up of War Machine, Black Panther, Black Widow, Vision and Spider-Man (Tom Holland) to arrest the others. In the battle, Ant-Man turns into a giant, distracting Team Iron Man and buying time for Cap and Bucky to escape to an aircraft hangar. Black Widow appears intent on stopping them, but she turns on Black Panther, allowing Cap and Bucky to fly off. War Machine tries to stop them from escaping, but Falcon flies after him. Vision shoots an energy beam at Falcon, but he dodges and it hits War Machine instead, causing him to fall from the sky and nearly killing him.After seeing evidence that Bucky was framed for the Vienna explosion, Iron Man heads to Siberia to meet up with Cap and Bucky and make peace. They find that the super soldiers have already been killed, and Zemo, hidden behind indestructible glass, reveals that his real plan was to find footage of the Winter Soldier's first mission. Black Panther had been following, unseen, and he hears Zemo admit responsibility for the explosion. Zemo shows them a videotape of Bucky causing the car crash, and then murdering the occupants, Howard and Maria Stark, in cold blood.Incensed, Iron Man attacks both Cap and Bucky, and he demands to know if Steve knew what had happened. Steve tells him that he only knew that Hydra was behind his parents' murder. They fight, and Iron Man blasts off Bucky's metal arm. Cap disables Iron Man's suit, and Tony tells him that he doesn't deserve to carry his shield. Steve drops it and leaves with Bucky. Zemo is sitting outside, and Black Panther stands behind him. He tells Black Panther that his family was killed in Zokovia, and he wouldn't stop until he destroyed the Avengers from within. With his success, Zemo tries to commit suicide with a gun, but Black Panther places his hand over the barrel, stopping the bullet, and then apprehends Zemo for judgment.Tony is helping Rhodes with his recovery, giving him robotic legs to recover from paralysis. Steve breaks the heroes out of their island prison and they go to Wakanda, where T'Challa gives them asylum. Bucky elects to be put back into cryogenic sleep until they can find a way to cure his brainwashing, so that no one will be able to manipulate him again. Peter Parker is recovering from his injuries at home, and he tries out a new version of the web shooter that Tony gave him. It projects the Spidey signal onto the ceiling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release Year: 1994Season 1 of the hit sitcom introduces us to hapless Ross, spoiled Rachel, quirky Chandler, dim-witted Joey, free-spirited Phoebe and uptight Monica.1. The One Where Monica Gets a Roommate (Pilot)23mRachel runs from her wedding and meets the friends in the coffee place. Ross is depressed about his divorce but he still has a crush on Rachel.2. The One with the Sonogram at the End23mRoss's lesbian ex-wife is pregnant with his child, and he doesn't like her choice of a last name for the baby.3. The One with the Thumb23mA soda company gives Phoebe $7,000 after she finds a dismembered thumb in a can of soda.4. The One with George Stephanopoulos23mA deliveryman accidentally brings a pizza meant for George Stephanopoulos, who lives across the street from the girls.5. The One with the East German Laundry Detergent23mRoss helps Rachel do laundry and considers the evening a first date. Joey has Monica pose as his new girlfriend.6. The One with the Butt21mJoey gets his big film break when he's hired to be Al Pacino's stunt butt.7. The One with the Blackout23mDuring a citywide blackout, Ross tries to tell Rachel that he likes her.8. The One Where Nana Dies Twice23mMonica and Ross mourn the death of their grandmother. Chandler questions his sexuality.9. The One Where Underdog Gets Away23mMonica's first Thanksgiving dinner for the gang burns when they all run to the rooftop to see the runaway Underdog balloon from the parade.10. The One with the Monkey23mThe gang makes and then breaks a pact to celebrate New Year's Eve without dates. Lonely Ross gets a roommate: a monkey named Marcel.11. The One with Mrs. Bing23mWhen Chandler's romance novelist mother comes to New York to visit him, Joey catches her and Ross kissing.12. The One with the Dozen Lasagnas23mMonica gives Paolo one of the dozen lasagnas she made for her aunt, who doesn't want them anymore because they've got meat in them.13. The One with the Boobies23mChandler accidentally sees Rachel wandering around topless after her shower, so Rachel tries to even the score.14. The One with the Candy Hearts23mJoey fixes up Chandler and Janice, and Ross runs into Carol and Susan on a Valentine's Day date.15. The One with the Stoned Guy23mMonica cooks a gourmet meal for a restaurateur looking for a new chef, but unfortunately, he's stoned.16. The One with the Two Parts: Part 123mJoey falls for Phoebe's twin sister, making Phoebe feel neglected. Ross attends Lamaze classes with Carol and Susan.17. The One with the Two Parts: Part 223mWhen Rachel sprains her ankle and has no insurance, she talks Monica into trading identities so she can use Monica's coverage.18. The One with All the Poker23mRachel interviews for a job as an assistant buyer at Saks Fifth Avenue. The women face the men in a not-so-friendly game of poker.19. The One Where the Monkey Gets Away23mThe gang searches for Marcel, who slipped out of the apartment while Rachel was caring for him.20. The One with the Evil Orthodontist23mRachel and Barry start dating again, even though he's engaged to Mindy, who wants Rachel to be her maid of honor.21. The One with the Fake Monica23mWhen Monica's credit card is stolen, she decides to catch the thief.22. The One with the Ick Factor23mAfter losing his virginity to her, Monica's boyfriend reveals that he's a high school senior. Phoebe temps as Chandler's secretary.23. The One with the Birth23mCarol goes into labor while Ross, Phoebe and Susan get locked in a closet.24. The One Where Rachel Finds Out23mDuring Rachel's birthday party, Chandler accidentally lets it slip that Ross is in love with her., Release Year: 1994, 1. The One Where Monica Gets a Roommate (Pilot)23mRachel runs from her wedding and meets the friends in the coffee place. Ross is depressed about his divorce but he still has a crush on Rachel.2. The One with the Sonogram at the End23mRoss's lesbian ex-wife is pregnant with his child, and he doesn't like her choice of a last name for the baby.3. The One with the Thumb23mA soda company gives Phoebe $7,000 after she finds a dismembered thumb in a can of soda.4. The One with George Stephanopoulos23mA deliveryman accidentally brings a pizza meant for George Stephanopoulos, who lives across the street from the girls.5. The One with the East German Laundry Detergent23mRoss helps Rachel do laundry and considers the evening a first date. Joey has Monica pose as his new girlfriend.6. The One with the Butt21mJoey gets his big film break when he's hired to be Al Pacino's stunt butt.7. The One with the Blackout23mDuring a citywide blackout, Ross tries to tell Rachel that he likes her.8. The One Where Nana Dies Twice23mMonica and Ross mourn the death of their grandmother. Chandler questions his sexuality.9. The One Where Underdog Gets Away23mMonica's first Thanksgiving dinner for the gang burns when they all run to the rooftop to see the runaway Underdog balloon from the parade.10. The One with the Monkey23mThe gang makes and then breaks a pact to celebrate New Year's Eve without dates. Lonely Ross gets a roommate: a monkey named Marcel.11. The One with Mrs. Bing23mWhen Chandler's romance novelist mother comes to New York to visit him, Joey catches her and Ross kissing.12. The One with the Dozen Lasagnas23mMonica gives Paolo one of the dozen lasagnas she made for her aunt, who doesn't want them anymore because they've got meat in them.13. The One with the Boobies23mChandler accidentally sees Rachel wandering around topless after her shower, so Rachel tries to even the score.14. The One with the Candy Hearts23mJoey fixes up Chandler and Janice, and Ross runs into Carol and Susan on a Valentine's Day date.15. The One with the Stoned Guy23mMonica cooks a gourmet meal for a restaurateur looking for a new chef, but unfortunately, he's stoned.16. The One with the Two Parts: Part 123mJoey falls for Phoebe's twin sister, making Phoebe feel neglected. Ross attends Lamaze classes with Carol and Susan.17. The One with the Two Parts: Part 223mWhen Rachel sprains her ankle and has no insurance, she talks Monica into trading identities so she can use Monica's coverage.18. The One with All the Poker23mRachel interviews for a job as an assistant buyer at Saks Fifth Avenue. The women face the men in a not-so-friendly game of poker.19. The One Where the Monkey Gets Away23mThe gang searches for Marcel, who slipped out of the apartment while Rachel was caring for him.20. The One with the Evil Orthodontist23mRachel and Barry start dating again, even though he's engaged to Mindy, who wants Rachel to be her maid of honor.21. The One with the Fake Monica23mWhen Monica's credit card is stolen, she decides to catch the thief.22. The One with the Ick Factor23mAfter losing his virginity to her, Monica's boyfriend reveals that he's a high school senior. Phoebe temps as Chandler's secretary.23. The One with the Birth23mCarol goes into labor while Ross, Phoebe and Susan get locked in a closet.24. The One Where Rachel Finds Out23mDuring Rachel's birthday party, Chandler accidentally lets it slip that Ross is in love with her., Release Year: 1995Rachel gets jealous of Ross's new girlfriend, Monica dates an older man, and Joey stars on a soap opera as the hit sitcom hits its stride in Season 2.1. The One with Ross's New Girlfriend22mRachel waits at the airport for Ross, not knowing he is returning from China with his new girlfriend, Julie. Phoebe gives Monica an awful haircut.2. The One with the Breast Milk23mThe guys are uncomfortable with the thought of Carol's breast milk, while Rachel is upset by Monica's growing friendship with Julie.3. The One Where Heckles Dies23mAfter Mr. Heckles dies and leaves all his belongings to Monica and Rachel, Chandler discovers he has eerie similarities with the late eccentric man.4. The One with Phoebe's Husband23mPhoebe has married a gay Canadian ice dancer to help him get his green card.5. The One with Five Steaks and an Eggplant23mIncome issues divide the friends. Monica, Ross and Chandler have money; Phoebe, Rachel and Joey don't.6. The One with the Baby on the Bus23mChandler and Joey lose Ross's son while checking out women on a bus.7. The One Where Ross Finds Out23mA drunken Rachel calls Ross and reveals her feelings for him on his answering machine. Now, Ross must make a decision between her and Julie.8. The One with the List23mJoey and Chandler try to help Ross with his decision to date Julie or Rachel by making a list of the pros and cons of each.9. The One with Phoebe's Dad23mIn this Christmas episode, Phoebe tries to track down her real father.10. The One with Russ23mRachel is dating a guy named Russ, and is blind to his uncanny resemblance to Ross.11. The One with the Lesbian Wedding23mMonica caters the wedding of Ross's ex-wife and her lesbian lover. Rachel learns that her mom and dad are getting a divorce.12. The One After the Super Bowl: Part 123mRoss travels to San Diego to visit Marcel, his monkey. Joey is stalked by a fan of his daytime drama. First of a two-part episode.13. The One After the Super Bowl: Part 222mRachel and Monica compete for the affections of Jean-Claude Van Damme. Ross and Marcel go on a tour of the city. Second of a two-part episode.14. The One with the Prom Video23mMonica and Rachel's prom video reveals Monica's former girth, Rachel's former nose and the way Ross has always felt about Rachel.15. The One Where Ross and Rachel...You Know23mRoss and Rachel finally sleep together. Monica becomes infatuated with one of her parents' friends, for whom she caters a party.16. The One Where Joey Moves Out23mAfter having a fight with Chandler, Joey moves out. Monica's father finds out that Monica is dating his best friend.17. The One Where Eddie Moves In23mJoey considers moving back in with Chandler, but Chandler has a new roommate.18. The One Where Dr. Ramoray Dies23mJoey's soap opera character gets dropped down an elevator shaft after Joey brags about writing his own lines.19. The One Where Eddie Won't Go23mChandler demands that his bizarre new roommate, Eddie, move out ... but Eddie won't go.20. The One Where Old Yeller Dies23mPhoebe's world view is shattered when she learns how "Old Yeller" really ends.21. The One with the Bullies23mTwo bullies eject Chandler and Ross from Central Perk. Phoebe meets a brother she never knew she had.22. The One with the Two Parties23mComplications ensue when Rachel's estranged parents show up at the surprise party that the gang planned for her.23. The One with the Chicken Pox23mPhoebe catches chicken pox from the baby, just as her ex-boyfriend returns on shore leave from the Navy.24. The One with Barry and Mindy's Wedding23mRachel agrees to be the maid of honor at her ex-fiancé's wedding., Release Year: 1995, 1. The One with Ross's New Girlfriend22mRachel waits at the airport for Ross, not knowing he is returning from China with his new girlfriend, Julie. Phoebe gives Monica an awful haircut.2. The One with the Breast Milk23mThe guys are uncomfortable with the thought of Carol's breast milk, while Rachel is upset by Monica's growing friendship with Julie.3. The One Where Heckles Dies23mAfter Mr. Heckles dies and leaves all his belongings to Monica and Rachel, Chandler discovers he has eerie similarities with the late eccentric man.4. The One with Phoebe's Husband23mPhoebe has married a gay Canadian ice dancer to help him get his green card.5. The One with Five Steaks and an Eggplant23mIncome issues divide the friends. Monica, Ross and Chandler have money; Phoebe, Rachel and Joey don't.6. The One with the Baby on the Bus23mChandler and Joey lose Ross's son while checking out women on a bus.7. The One Where Ross Finds Out23mA drunken Rachel calls Ross and reveals her feelings for him on his answering machine. Now, Ross must make a decision between her and Julie.8. The One with the List23mJoey and Chandler try to help Ross with his decision to date Julie or Rachel by making a list of the pros and cons of each.9. The One with Phoebe's Dad23mIn this Christmas episode, Phoebe tries to track down her real father.10. The One with Russ23mRachel is dating a guy named Russ, and is blind to his uncanny resemblance to Ross.11. The One with the Lesbian Wedding23mMonica caters the wedding of Ross's ex-wife and her lesbian lover. Rachel learns that her mom and dad are getting a divorce.12. The One After the Super Bowl: Part 123mRoss travels to San Diego to visit Marcel, his monkey. Joey is stalked by a fan of his daytime drama. First of a two-part episode.13. The One After the Super Bowl: Part 222mRachel and Monica compete for the affections of Jean-Claude Van Damme. Ross and Marcel go on a tour of the city. Second of a two-part episode.14. The One with the Prom Video23mMonica and Rachel's prom video reveals Monica's former girth, Rachel's former nose and the way Ross has always felt about Rachel.15. The One Where Ross and Rachel...You Know23mRoss and Rachel finally sleep together. Monica becomes infatuated with one of her parents' friends, for whom she caters a party.16. The One Where Joey Moves Out23mAfter having a fight with Chandler, Joey moves out. Monica's father finds out that Monica is dating his best friend.17. The One Where Eddie Moves In23mJoey considers moving back in with Chandler, but Chandler has a new roommate.18. The One Where Dr. Ramoray Dies23mJoey's soap opera character gets dropped down an elevator shaft after Joey brags about writing his own lines.19. The One Where Eddie Won't Go23mChandler demands that his bizarre new roommate, Eddie, move out ... but Eddie won't go.20. The One Where Old Yeller Dies23mPhoebe's world view is shattered when she learns how "Old Yeller" really ends.21. The One with the Bullies23mTwo bullies eject Chandler and Ross from Central Perk. Phoebe meets a brother she never knew she had.22. The One with the Two Parties23mComplications ensue when Rachel's estranged parents show up at the surprise party that the gang planned for her.23. The One with the Chicken Pox23mPhoebe catches chicken pox from the baby, just as her ex-boyfriend returns on shore leave from the Navy.24. The One with Barry and Mindy's Wedding23mRachel agrees to be the maid of honor at her ex-fiancé's wedding., Release Year: 1996The shenanigans of the tightest circle of friends -- including Chandler and Joey adopting a duck -- continue as Season 3 plays out.1. The One with the Princess Leia Fantasy23mRoss reveals a fantasy to Rachel involving a certain Star Wars character.2. The One Where No One's Ready23mIn a race against the clock, Ross tries to get the gang dressed and ready for a black-tie benefit at the museum.3. The One with the Jam23mAfter breaking up with Richard, Monica uses her free time to make jam and consider insemination via a sperm bank.4. The One with the Metaphorical Tunnel23mRoss panics when he sees his son with a Barbie doll. Phoebe poses as Joey's agent and gets him some good parts.5. The One with Frank Jr23mPhoebe's half-brother visits, and they have trouble bonding.6. The One with the Flashback23mWhen Janice asks the gang if any of them have ever slept together, the friends flash back to a time three years earlier.7. The One with the Race Car Bed23mMonica buys a new bed from Janice's soon-to-be-ex-husband, but the wrong one is delivered.8. The One with the Giant Poking Device23mJoey and Monica catch Janice kissing her ex-husband.9. The One with the Football23mThe gang plays a game of touch football on Thanksgiving.10. The One Where Rachel Quits23mRachel quits her job after Gunther tells her she needs to be retrained.11. The One Where Chandler Can't Remember Which Sister23mA drunken Chandler fools around with one of Joey's sisters -- but he can't remember which one.12. The One with All the Jealousy23mRoss becomes jealous when he thinks he catches Rachel's new co-worker flirting with her.13. The One Where Monica &amp; Richard Are Just Friends23mMonica's willpower is tested when she runs into Richard at a video store.14. The One with Phoebe's Ex-Partner23mPhoebe is reunited with her former singing partner. Rachel's new job is putting a strain on her relationship with Ross.15. The One Where Ross &amp; Rachel Take a Break23mRoss seeks solace at a party after a bitter fight with Rachel and ends up in the arms of another woman.16. The One The Morning After23mWhen Rachel discovers that Ross slept with Chloe, she decides to break up with him.17. The One Without the Ski Trip23mA lonely Ross visits Carol when Rachel goes on a ski trip with some friends.18. The One with the Hypnosis Tape23mPhoebe is distraught when her brother wants to marry a woman twice his age.    A hypnosis tape makes Chandler act like a woman.19. The One with the Tiny T-Shirt23mRachel goes on her first date since her breakup with Ross. Monica dates Pete, even though she is still not attracted to him.20. The One with the Dollhouse23mJoey thinks he's found his true love. Rachel's boss dates Chandler, creating big trouble for Rachel. Monica inherits a dollhouse.21. The One with a Chick. And a Duck23mWhen Pete buys a restaurant, Monica must decide whether to accept his offer of employment there. Joey and Chandler adopt a duck and a chick.22. The One with the Screamer23mRoss thinks that Rachel's date is crazy. Joey falls in love with Kate, but when she's offered a job in Los Angeles, she takes it.23. The One with Ross's Thing23mRoss finds a strange growth on his buttocks. Phoebe can't choose between two guys. Monica's boyfriend surprises her by not proposing marriage.24. The One with the Ultimate Fighting Champion23mTo Monica's horror, Pete plans to be in an ultimate fight. Phoebe sets Ross up on a date with a woman who used to be bald.25. The One at the Beach23mThe gang goes to the beach. Phoebe meets a family friend with links to her family's past. Ross discovers that Rachel still loves him., Release Year: 1996, 1. The One with the Princess Leia Fantasy23mRoss reveals a fantasy to Rachel involving a certain Star Wars character.2. The One Where No One's Ready23mIn a race against the clock, Ross tries to get the gang dressed and ready for a black-tie benefit at the museum.3. The One with the Jam23mAfter breaking up with Richard, Monica uses her free time to make jam and consider insemination via a sperm bank.4. The One with the Metaphorical Tunnel23mRoss panics when he sees his son with a Barbie doll. Phoebe poses as Joey's agent and gets him some good parts.5. The One with Frank Jr23mPhoebe's half-brother visits, and they have trouble bonding.6. The One with the Flashback23mWhen Janice asks the gang if any of them have ever slept together, the friends flash back to a time three years earlier.7. The One with the Race Car Bed23mMonica buys a new bed from Janice's soon-to-be-ex-husband, but the wrong one is delivered.8. The One with the Giant Poking Device23mJoey and Monica catch Janice kissing her ex-husband.9. The One with the Football23mThe gang plays a game of touch football on Thanksgiving.10. The One Where Rachel Quits23mRachel quits her job after Gunther tells her she needs to be retrained.11. The One Where Chandler Can't Remember Which Sister23mA drunken Chandler fools around with one of Joey's sisters -- but he can't remember which one.12. The One with All the Jealousy23mRoss becomes jealous when he thinks he catches Rachel's new co-worker flirting with her.13. The One Where Monica &amp; Richard Are Just Friends23mMonica's willpower is tested when she runs into Richard at a video store.14. The One with Phoebe's Ex-Partner23mPhoebe is reunited with her former singing partner. Rachel's new job is putting a strain on her relationship with Ross.15. The One Where Ross &amp; Rachel Take a Break23mRoss seeks solace at a party after a bitter fight with Rachel and ends up in the arms of another woman.16. The One The Morning After23mWhen Rachel discovers that Ross slept with Chloe, she decides to break up with him.17. The One Without the Ski Trip23mA lonely Ross visits Carol when Rachel goes on a ski trip with some friends.18. The One with the Hypnosis Tape23mPhoebe is distraught when her brother wants to marry a woman twice his age.    A hypnosis tape makes Chandler act like a woman.19. The One with the Tiny T-Shirt23mRachel goes on her first date since her breakup with Ross. Monica dates Pete, even though she is still not attracted to him.20. The One with the Dollhouse23mJoey thinks he's found his true love. Rachel's boss dates Chandler, creating big trouble for Rachel. Monica inherits a dollhouse.21. The One with a Chick. And a Duck23mWhen Pete buys a restaurant, Monica must decide whether to accept his offer of employment there. Joey and Chandler adopt a duck and a chick.22. The One with the Screamer23mRoss thinks that Rachel's date is crazy. Joey falls in love with Kate, but when she's offered a job in Los Angeles, she takes it.23. The One with Ross's Thing23mRoss finds a strange growth on his buttocks. Phoebe can't choose between two guys. Monica's boyfriend surprises her by not proposing marriage.24. The One with the Ultimate Fighting Champion23mTo Monica's horror, Pete plans to be in an ultimate fight. Phoebe sets Ross up on a date with a woman who used to be bald.25. The One at the Beach23mThe gang goes to the beach. Phoebe meets a family friend with links to her family's past. Ross discovers that Rachel still loves him., Release Year: 1997Chandler makes amends to Joey by spending Thanksgiving in a box, Monica finally lands her dream job of head chef, and Phoebe supports her brother.1. The One with the Jellyfish23mRoss dates Rachel again after unwittingly agreeing to take responsibility for their breakup. Monica is stung by a jellyfish.2. The One with the Cat22mPhoebe believes that the cat that jumped into her guitar case in Central Perk contains the spirit of her adoptive mom.3. The One with the 'Cuffs22mMonica tries to prove that she can cater a gourmet meal for her mother. Chandler gets into an embarrassing situation while dating Rachel's boss.4. The One with the Ballroom Dancing22mJoey teaches the building superintendent ballroom dancing to prevent him from evicting Rachel and Monica. Phoebe wants to date a massage client.5. The One with Joey's New Girlfriend22mJoey thinks that Chandler hates Joey's new girlfriend -- but the truth is that Chandler avoids her because he is so attracted to her.6. The One with the Dirty Girl22mRoss's beautiful new girlfriend has a very dirty apartment. Chandler becomes more familiar with Joey's girlfriend.7. The One Where Chandler Crosses the Line22mChandler is guilt-ridden after kissing Joey's girlfriend. Ross's musical talents are not as amazing as he and Phoebe think.8. The One with Chandler in a Box23mOn Thanksgiving, Joey punishes Chandler for kissing Kathy. Monica gets a surprise when she visits an eye doctor: He's her former boyfriend's son.9. The One Where They're Going to Party22mThe guys try to be spontaneous and wild. Rachel is offered a promotion. Monica must decide between a job as a head chef or her catering business.10. The One with the Girl from Poughkeepsie22mRoss struggles to maintain a long-distance relationship. Chandler tries to get a date for Rachel. Monica plots to establish authority at her new job.11. The One with Phoebe's Uterus22mPhoebe's half-brother makes an astounding announcement: He has married his older girlfriend and wants Phoebe to be a surrogate mother for them.12. The One with the Embryos22mPhoebe undergoes an embryo transplant and becomes pregnant. A simple challenge escalates into a full-blown contest between the guys and the women.13. The One with Rachel's Crush22mChandler has a hard time with Kathy's new role in a play, in which she pretends to have sex with a handsome man. Rachel is attracted to a customer.14. The One with Joey's Dirty Day22mJoey has no time to shower after he comes home from a three-day fishing trip and has to head out to the set of Charlton Heston's new movie.15. The One with All the Rugby22mChandler runs into Janice, now divorced, and finds her more irritating than ever. Ross plays rugby to impress Emily.16. The One with the Fake Party22mRachel throws Emily a phony going-away party so she can see Joshua outside of work. Pregnant Phoebe craves meat.17. The One with the Free Porn22mThe guys realize their TV is picking up a porno station for free. Phoebe discovers she's carrying triplets.18. The One with Rachel's New Dress22mPhoebe gets to name one of her babies. Rachel's plans to seduce her boyfriend go awry. Ross worries about his relationship with Emily.19. The One with All the Haste22mMonica and Rachel will do anything to get their old apartment back from the guys. Ross asks Emily to marry him.20. The One with the Wedding Dresses22mMonica wears Emily's wedding dress. Chandler forces Joey to get treatment for his snoring at a sleep clinic. Rachel proposes marriage to Joshua.21. The One with the Invitation22mRachel and the engaged Ross reminisce separately about when they dated each other. The friends get invitations to Ross's wedding.22. The One with the Worst Best Man Ever22mAfter Joey almost loses Ross's wedding ring, Ross asks both Joey and Chandler to serve as his best man. The girls host a baby shower for Phoebe.23. The One with Ross's Wedding: Part 122mIn London for Ross's wedding, Chandler and Joey argue while sightseeing. After talking with Phoebe, Rachel realizes that she still loves Ross.24. The One with Ross's Wedding: Part 222mPhoebe tries to warn the friends that Rachel is coming to London. Chandler and Monica develop a connection. Ross's father argues with Emily's father., Release Year: 1997, 1. The One with the Jellyfish23mRoss dates Rachel again after unwittingly agreeing to take responsibility for their breakup. Monica is stung by a jellyfish.2. The One with the Cat22mPhoebe believes that the cat that jumped into her guitar case in Central Perk contains the spirit of her adoptive mom.3. The One with the 'Cuffs22mMonica tries to prove that she can cater a gourmet meal for her mother. Chandler gets into an embarrassing situation while dating Rachel's boss.4. The One with the Ballroom Dancing22mJoey teaches the building superintendent ballroom dancing to prevent him from evicting Rachel and Monica. Phoebe wants to date a massage client.5. The One with Joey's New Girlfriend22mJoey thinks that Chandler hates Joey's new girlfriend -- but the truth is that Chandler avoids her because he is so attracted to her.6. The One with the Dirty Girl22mRoss's beautiful new girlfriend has a very dirty apartment. Chandler becomes more familiar with Joey's girlfriend.7. The One Where Chandler Crosses the Line22mChandler is guilt-ridden after kissing Joey's girlfriend. Ross's musical talents are not as amazing as he and Phoebe think.8. The One with Chandler in a Box23mOn Thanksgiving, Joey punishes Chandler for kissing Kathy. Monica gets a surprise when she visits an eye doctor: He's her former boyfriend's son.9. The One Where They're Going to Party22mThe guys try to be spontaneous and wild. Rachel is offered a promotion. Monica must decide between a job as a head chef or her catering business.10. The One with the Girl from Poughkeepsie22mRoss struggles to maintain a long-distance relationship. Chandler tries to get a date for Rachel. Monica plots to establish authority at her new job.11. The One with Phoebe's Uterus22mPhoebe's half-brother makes an astounding announcement: He has married his older girlfriend and wants Phoebe to be a surrogate mother for them.12. The One with the Embryos22mPhoebe undergoes an embryo transplant and becomes pregnant. A simple challenge escalates into a full-blown contest between the guys and the women.13. The One with Rachel's Crush22mChandler has a hard time with Kathy's new role in a play, in which she pretends to have sex with a handsome man. Rachel is attracted to a customer.14. The One with Joey's Dirty Day22mJoey has no time to shower after he comes home from a three-day fishing trip and has to head out to the set of Charlton Heston's new movie.15. The One with All the Rugby22mChandler runs into Janice, now divorced, and finds her more irritating than ever. Ross plays rugby to impress Emily.16. The One with the Fake Party22mRachel throws Emily a phony going-away party so she can see Joshua outside of work. Pregnant Phoebe craves meat.17. The One with the Free Porn22mThe guys realize their TV is picking up a porno station for free. Phoebe discovers she's carrying triplets.18. The One with Rachel's New Dress22mPhoebe gets to name one of her babies. Rachel's plans to seduce her boyfriend go awry. Ross worries about his relationship with Emily.19. The One with All the Haste22mMonica and Rachel will do anything to get their old apartment back from the guys. Ross asks Emily to marry him.20. The One with the Wedding Dresses22mMonica wears Emily's wedding dress. Chandler forces Joey to get treatment for his snoring at a sleep clinic. Rachel proposes marriage to Joshua.21. The One with the Invitation22mRachel and the engaged Ross reminisce separately about when they dated each other. The friends get invitations to Ross's wedding.22. The One with the Worst Best Man Ever22mAfter Joey almost loses Ross's wedding ring, Ross asks both Joey and Chandler to serve as his best man. The girls host a baby shower for Phoebe.23. The One with Ross's Wedding: Part 122mIn London for Ross's wedding, Chandler and Joey argue while sightseeing. After talking with Phoebe, Rachel realizes that she still loves Ross.24. The One with Ross's Wedding: Part 222mPhoebe tries to warn the friends that Rachel is coming to London. Chandler and Monica develop a connection. Ross's father argues with Emily's father., Release Year: 1998The friends continue to haphazardly navigate their way through Manhattan, landing in more improbable situations than anyone has a right to imagine.1. The One After Ross Says Rachel22mRoss and Emily get married, but she cannot forgive him for calling her Rachel during the vows. Chandler and Monica search for a place to have sex.2. The One with All the Kissing22mChandler kisses both Rachel and Phoebe in order to cover up a kiss he gave to Monica. Rachel finally tells Ross her feelings.3. The One Hundredth22mPhoebe goes into labor and is stuck with a doctor who is obsessed with the show "Happy Days." Monica plans a date with a male nurse to spite Chandler.4. The One Where Phoebe Hates PBS22mThe gang discovers that Phoebe hates PBS. Emily tells Ross she'll give him a second chance only if he cuts all ties with Rachel.5. The One with the Kips22mChandler and Monica plan a trip to Atlantic City for some private time. When Joey discovers that they are dating, they swear him to secrecy.6. The One with the Yeti22mMonica and Rachel are afraid of a hairy new neighbor -- until they find out how handsome he is with his hair cut.7. The One Where Ross Moves In22mAfter getting kicked out of his apartment, Ross moves in temporarily with Chandler and Joey, driving all three of them crazy.8. The One with All the Thanksgivings22mIt's Thanksgiving, and the gang remembers former terrible Thanksgiving experiences. Chandler tells Monica that he loves her.9. The One with Ross's Sandwich22mRoss becomes upset when someone at work takes his sandwich from the refrigerator and eats it. Joey tries to cover for Chandler and Monica's dating.10. The One with the Inappropriate Sister22mPhoebe collects money for the Salvation Army during the holidays. Rachel is disturbed by her date's inappropriate relationship with his sister.11. The One with All the Resolutions22mThe friends all make New Year's resolutions, but it looks like Rachel's resolution -- to stop gossiping -- is going to be the hardest to keep.12. The One with Chandler's Work Laugh22mRoss dates Janice after discovering that Emily is getting remarried. Monica hates the fake laugh that Chandler uses in response to his boss's jokes.13. The One with Joey's Bag22mPhoebe meets her father at her grandmother's funeral. Chandler discovers that Monica gives bad massages. Rachel dresses Joey for an audition.14. The One Where Everybody Finds Out22mRoss rents an apartment with a window facing Monica and Rachel's place. Phoebe sees Monica and Chandler having sex and learns the truth.15. The One with the Girl Who Hits Joey22mJoey's girlfriend likes to punch him. Ross alienates his new neighbors when he refuses to contribute to the retirement donation for the janitor.16. The One with the Cop22mAfter Phoebe finds a police badge, she uses it to do good deeds. Joey worries that he is in love with Monica.17. The One with Rachel's Inadvertent Kiss22mRachel accidentally kisses the man interviewing her for a job. Joey becomes obsessed with a woman living in Ross' apartment complex.18. The One Where Rachel Smokes22mRachel starts smoking when she realizes that her boss and co-workers at her new job are smokers. Joey and Ben audition for a commercial.19. The One Where Ross Can't Flirt22mRoss tries to flirt with the pizza delivery girl, with horrible results. Rachel loses a pair of earrings that Monica had lent to Phoebe.20. The One with the Ride-Along22mWhile the men are out, Emily leaves a message for Ross. Rachel, who was in Ross's apartment at the time, hears the message and accidentally erases it.21. The One with the Ball22mGary asks Phoebe to move in with him. Monica and Chandler join Ross and Joey in a game of catch that lasts for hours.22. The One with Joey's Big Break22mJoey and Chandler take a road trip to Las Vegas, where Joey has landed the lead role in a movie. But the two argue and Joey goes on alone.23. The One in Vegas: Part 122mThe gang decides to go out to Las Vegas to surprise Joey and to celebrate Monica's and Chandler's one-year anniversary.24. The One in Vegas: Part 222mMonica and Chandler reconcile and, on the roll of the dice, decide to go to a chapel and get married immediately., Release Year: 1998, 1. The One After Ross Says Rachel22mRoss and Emily get married, but she cannot forgive him for calling her Rachel during the vows. Chandler and Monica search for a place to have sex.2. The One with All the Kissing22mChandler kisses both Rachel and Phoebe in order to cover up a kiss he gave to Monica. Rachel finally tells Ross her feelings.3. The One Hundredth22mPhoebe goes into labor and is stuck with a doctor who is obsessed with the show "Happy Days." Monica plans a date with a male nurse to spite Chandler.4. The One Where Phoebe Hates PBS22mThe gang discovers that Phoebe hates PBS. Emily tells Ross she'll give him a second chance only if he cuts all ties with Rachel.5. The One with the Kips22mChandler and Monica plan a trip to Atlantic City for some private time. When Joey discovers that they are dating, they swear him to secrecy.6. The One with the Yeti22mMonica and Rachel are afraid of a hairy new neighbor -- until they find out how handsome he is with his hair cut.7. The One Where Ross Moves In22mAfter getting kicked out of his apartment, Ross moves in temporarily with Chandler and Joey, driving all three of them crazy.8. The One with All the Thanksgivings22mIt's Thanksgiving, and the gang remembers former terrible Thanksgiving experiences. Chandler tells Monica that he loves her.9. The One with Ross's Sandwich22mRoss becomes upset when someone at work takes his sandwich from the refrigerator and eats it. Joey tries to cover for Chandler and Monica's dating.10. The One with the Inappropriate Sister22mPhoebe collects money for the Salvation Army during the holidays. Rachel is disturbed by her date's inappropriate relationship with his sister.11. The One with All the Resolutions22mThe friends all make New Year's resolutions, but it looks like Rachel's resolution -- to stop gossiping -- is going to be the hardest to keep.12. The One with Chandler's Work Laugh22mRoss dates Janice after discovering that Emily is getting remarried. Monica hates the fake laugh that Chandler uses in response to his boss's jokes.13. The One with Joey's Bag22mPhoebe meets her father at her grandmother's funeral. Chandler discovers that Monica gives bad massages. Rachel dresses Joey for an audition.14. The One Where Everybody Finds Out22mRoss rents an apartment with a window facing Monica and Rachel's place. Phoebe sees Monica and Chandler having sex and learns the truth.15. The One with the Girl Who Hits Joey22mJoey's girlfriend likes to punch him. Ross alienates his new neighbors when he refuses to contribute to the retirement donation for the janitor.16. The One with the Cop22mAfter Phoebe finds a police badge, she uses it to do good deeds. Joey worries that he is in love with Monica.17. The One with Rachel's Inadvertent Kiss22mRachel accidentally kisses the man interviewing her for a job. Joey becomes obsessed with a woman living in Ross' apartment complex.18. The One Where Rachel Smokes22mRachel starts smoking when she realizes that her boss and co-workers at her new job are smokers. Joey and Ben audition for a commercial.19. The One Where Ross Can't Flirt22mRoss tries to flirt with the pizza delivery girl, with horrible results. Rachel loses a pair of earrings that Monica had lent to Phoebe.20. The One with the Ride-Along22mWhile the men are out, Emily leaves a message for Ross. Rachel, who was in Ross's apartment at the time, hears the message and accidentally erases it.21. The One with the Ball22mGary asks Phoebe to move in with him. Monica and Chandler join Ross and Joey in a game of catch that lasts for hours.22. The One with Joey's Big Break22mJoey and Chandler take a road trip to Las Vegas, where Joey has landed the lead role in a movie. But the two argue and Joey goes on alone.23. The One in Vegas: Part 122mThe gang decides to go out to Las Vegas to surprise Joey and to celebrate Monica's and Chandler's one-year anniversary.24. The One in Vegas: Part 222mMonica and Chandler reconcile and, on the roll of the dice, decide to go to a chapel and get married immediately., Release Year: 1999In Season 6 of the Emmy-winning series, Ross doesn't tell Rachel that their accidental marriage was never annulled, but he does tell Phoebe.1. The One After Vegas22mRoss and Rachel wake up together, not realizing they got married the night before. Monica and Chandler talk about moving in together.2. The One Where Ross Hugs Rachel22mRoss has to tell Rachel that they're still married. Chandler is moving in with Monica, and Rachel assumes that she'll be living with them.3. The One with Ross's Denial22mRoss asks Rachel to be his roommate, refusing to admit that he still has feelings for her. Monica and Chandler argue about the apartment.4. The One Where Joey Loses His Insurance22mJoey gets a hernia but doesn't have health insurance to cover getting it treated. Ross puts on a British accent while teaching his new class.5. The One with Joey's Porsche22mJoey pretends that he owns a Porsche. After the incident in Vegas, Ross is feeling like a failure because he's about to get his third divorce.6. The One on the Last Night22mJoey is broke but won't accept help from his friends, so Chandler lets him "win" money in a game. Rachel gets ready to move and fights with Monica.7. The One Where Phoebe Runs22mPhoebe looks goofy when she runs, so Rachel is embarrassed to go jogging with her. Joey is attracted to his new roommate, Janine.8. The One with Ross's Teeth22mRoss whitens his teeth to impress a girl, but he goes way overboard. Phoebe tells Rachel that she hooked up with Ralph Lauren.9. The One Where Ross Got High23mMonica and Ross's parents don't like Chandler because they think he smoked pot in college. Rachel makes a disgusting Thanksgiving dessert.10. The One with the Routine22mJoey, Ross and Monica dance on "Dick Clark's New Year's Rockin' Eve." The rest of the gang searches for Monica's hidden Christmas presents.11. The One with the Apothecary Table22mRachel buys a table from a fancy store and tells Phoebe she got it at the flea market. Janine tells Joey that she doesn't like Monica and Chandler.12. The One with the Joke22mChandler and Ross both try to take credit for a joke. Monica is insulted when Phoebe says Rachel would make a better girlfriend than her.13. The One with Rachel's Sister22mRachel's sister, Jill, comes to Rachel for help after her parents cut her off financially. Working as a waiter, Joey hits on the Central Perk customers.14. The One Where Chandler Can't Cry22mWhen Chandler says he hardly ever cries, everyone tries to make it happen. Rachel's sister, Jill, dates Ross to annoy Rachel.15. The One That Could Have Been: Part 122mThe gang imagines what life would've been like if Rachel had married Barry, Phoebe became a business executive and Monica was still fat.16. The One That Could Have Been: Part 222mThe friends continue to ponder an alternate past in which fat Monica seduces Chandler and married Rachel almost cheats on Barry with Joey.17. The One with Unagi22mWhen Rachel and Phoebe take a self-defense class, Ross claims he's a martial arts expert. Chandler and Monica forget to buy Valentine's Day gifts.18. The One Where Ross Dates a Student22mOne of Ross's students asks him on a date. When there's a fire in their apartment, Rachel and Phoebe have to stay with Joey or Monica.19. The One with Joey's Fridge22mJoey tries to convince someone to buy him a new fridge. Ross is worried that his girlfriend will cheat on him during spring break.20. The One with Mac and C.H.E.E.S.E22mJoey's up for the lead in a new TV show, but Chandler forgets to leave him a message that the audition time has changed.21. The One Where Ross Meets Elizabeth's Dad22mRoss makes a bad impression on Elizabeth's dad, who doesn't approve of them dating. But Elizabeth's dad takes an interest in Rachel.22. The One Where Paul's the Man22mRoss and Elizabeth sneak off to the family cabin, where Rachel and Paul -- who threatened to have Ross fired for dating a student -- are also headed.23. The One with the Ring22mPhoebe is the only one who knows that Chandler is going to propose to Monica, and she lies to Ross to keep him from finding out.24. The One with the Proposal: Part 122mChandler's plan to propose to Monica is interrupted when they run into Richard. Joey accidentally buys a boat for $20,000 at a silent auction.25. The One with the Proposal: Part 222mRichard tells Monica he still loves her. Chandler's attempt to make the proposal a surprise leaves Monica thinking he doesn't want to marry her., Release Year: 1999, 1. The One After Vegas22mRoss and Rachel wake up together, not realizing they got married the night before. Monica and Chandler talk about moving in together.2. The One Where Ross Hugs Rachel22mRoss has to tell Rachel that they're still married. Chandler is moving in with Monica, and Rachel assumes that she'll be living with them.3. The One with Ross's Denial22mRoss asks Rachel to be his roommate, refusing to admit that he still has feelings for her. Monica and Chandler argue about the apartment.4. The One Where Joey Loses His Insurance22mJoey gets a hernia but doesn't have health insurance to cover getting it treated. Ross puts on a British accent while teaching his new class.5. The One with Joey's Porsche22mJoey pretends that he owns a Porsche. After the incident in Vegas, Ross is feeling like a failure because he's about to get his third divorce.6. The One on the Last Night22mJoey is broke but won't accept help from his friends, so Chandler lets him "win" money in a game. Rachel gets ready to move and fights with Monica.7. The One Where Phoebe Runs22mPhoebe looks goofy when she runs, so Rachel is embarrassed to go jogging with her. Joey is attracted to his new roommate, Janine.8. The One with Ross's Teeth22mRoss whitens his teeth to impress a girl, but he goes way overboard. Phoebe tells Rachel that she hooked up with Ralph Lauren.9. The One Where Ross Got High23mMonica and Ross's parents don't like Chandler because they think he smoked pot in college. Rachel makes a disgusting Thanksgiving dessert.10. The One with the Routine22mJoey, Ross and Monica dance on "Dick Clark's New Year's Rockin' Eve." The rest of the gang searches for Monica's hidden Christmas presents.11. The One with the Apothecary Table22mRachel buys a table from a fancy store and tells Phoebe she got it at the flea market. Janine tells Joey that she doesn't like Monica and Chandler.12. The One with the Joke22mChandler and Ross both try to take credit for a joke. Monica is insulted when Phoebe says Rachel would make a better girlfriend than her.13. The One with Rachel's Sister22mRachel's sister, Jill, comes to Rachel for help after her parents cut her off financially. Working as a waiter, Joey hits on the Central Perk customers.14. The One Where Chandler Can't Cry22mWhen Chandler says he hardly ever cries, everyone tries to make it happen. Rachel's sister, Jill, dates Ross to annoy Rachel.15. The One That Could Have Been: Part 122mThe gang imagines what life would've been like if Rachel had married Barry, Phoebe became a business executive and Monica was still fat.16. The One That Could Have Been: Part 222mThe friends continue to ponder an alternate past in which fat Monica seduces Chandler and married Rachel almost cheats on Barry with Joey.17. The One with Unagi22mWhen Rachel and Phoebe take a self-defense class, Ross claims he's a martial arts expert. Chandler and Monica forget to buy Valentine's Day gifts.18. The One Where Ross Dates a Student22mOne of Ross's students asks him on a date. When there's a fire in their apartment, Rachel and Phoebe have to stay with Joey or Monica.19. The One with Joey's Fridge22mJoey tries to convince someone to buy him a new fridge. Ross is worried that his girlfriend will cheat on him during spring break.20. The One with Mac and C.H.E.E.S.E22mJoey's up for the lead in a new TV show, but Chandler forgets to leave him a message that the audition time has changed.21. The One Where Ross Meets Elizabeth's Dad22mRoss makes a bad impression on Elizabeth's dad, who doesn't approve of them dating. But Elizabeth's dad takes an interest in Rachel.22. The One Where Paul's the Man22mRoss and Elizabeth sneak off to the family cabin, where Rachel and Paul -- who threatened to have Ross fired for dating a student -- are also headed.23. The One with the Ring22mPhoebe is the only one who knows that Chandler is going to propose to Monica, and she lies to Ross to keep him from finding out.24. The One with the Proposal: Part 122mChandler's plan to propose to Monica is interrupted when they run into Richard. Joey accidentally buys a boat for $20,000 at a silent auction.25. The One with the Proposal: Part 222mRichard tells Monica he still loves her. Chandler's attempt to make the proposal a surprise leaves Monica thinking he doesn't want to marry her., Release Year: 1999Monica and Chandler prepare for their wedding but must deal with a competition between Rachel and Phoebe to be Monica's maid of honor.1. The One with Monica's Thunder22mMonica excitedly reveals the good news of her engagement to everyone -- but Rachel and Ross upstage her by reuniting.2. The One with Rachel's Book22mJoey finds out that Rachel is reading a steamy romance novel. Monica discovers that her parents have spent the money for her wedding on a beach house.3. The One with Phoebe's Cookies21mMonica becomes obsessed with acquiring Phoebe's secret, delicious cookie recipe. Joey accepts Rachel's help with sailing.4. The One with Rachel's Assistant22mRachel wants to hire a cute, young male assistant over a more qualified woman. Joey's show gets cancelled.5. The One with the Engagement Picture22mJoey tries to teach Chandler how to smile for an engagement picture with Monica. Joey takes Tag out for a good time.6. The One with the Nap Partners22mRachel and Phoebe compete to be Monica's maid of honor -- but Monica doesn't want to make the decision.7. The One with Ross' Library Book22mRoss discovers that his dissertation is in a section of the library where students go to have sex. Rachel and Phoebe meddle in Joey's relationship.8. The One Where Chandler Doesn't Like Dogs22mChandler's irrational fear of dogs causes problems when Phoebe brings home a cute canine. Rachel's assistant gives her a Thanksgiving surprise.9. The One with All the Candy22mMonica becomes popular with her neighbors because of her homemade candy. Phoebe decides to learn to ride a bicycle.10. The One with the Holiday Armadillo22mRoss dresses up as the Holiday Armadillo and, with Monica, Chandler and Joey's help, teaches Ben about Chanukah.11. The One with All the Cheesecakes22mChandler and Rachel can't help eating the irresistible cheesecakes intended for a neighbor. Phoebe's former boyfriend returns for one night only.12. The One Where They're Up All Night22mMonica falls asleep during sex. Rachel argues with Tag. Ross and Joey get stranded on the roof.13. The One Where Rosita Dies22mPhoebe becomes involved with a suicidal office worker. Rachel breaks Joey's favorite chair. Monica's beloved childhood belongings are destroyed.14. The One Where They All Turn Thirty22mRachel's 30th birthday prompts the friends to reminisce about their own 30th birthdays.15. The One with Joey's New Brain22mJoey's character on a daytime drama becomes more prominent -- to the chagrin of the show's diva star.16. The One with the Truth About London22mChandler finds out who Monica really wanted to have sex with on the night they became lovers. Ross is mad after Rachel teaches Ben practical jokes.17. The One with the Cheap Wedding Dress22mMonica battles another shopper for the perfect wedding dress. Ross and Joey compete for the same woman.18. The One with Joey's Award22mJoey overreacts at a daytime drama awards show. Ross deals with a male student who says he's in love with him.19. The One with Ross and Monica's Cousin22mMonica's gorgeous cousin unwittingly wreaks havoc on Chandler and Ross. Rachel and Phoebe hastily plan a surprise bridal party for Monica.20. The One with Rachel's Big Kiss22mRachel reveals a titillating secret about her and a former sorority sister. Ross and Chandler compete for wedding tuxedos.21. The One with the Vows22mAs Monica and Chandler prepare their wedding vows, everyone reminisces.22. The One with Chandler's Dad22mChandler confronts his estranged, cross-dressing father. Rachel gets into trouble driving Monica's Porsche.23. The One with Chandler and Monica's Wedding: Part 122mAs the relatives gather for Monica and Chandler's wedding, Chandler finally realizes the magnitude of what he's doing.24. The One with Chandler and Monica's Wedding: Part 222mMonica remains blissfully unaware of the potential disasters on her wedding day., Release Year: 1999, 1. The One with Monica's Thunder22mMonica excitedly reveals the good news of her engagement to everyone -- but Rachel and Ross upstage her by reuniting.2. The One with Rachel's Book22mJoey finds out that Rachel is reading a steamy romance novel. Monica discovers that her parents have spent the money for her wedding on a beach house.3. The One with Phoebe's Cookies21mMonica becomes obsessed with acquiring Phoebe's secret, delicious cookie recipe. Joey accepts Rachel's help with sailing.4. The One with Rachel's Assistant22mRachel wants to hire a cute, young male assistant over a more qualified woman. Joey's show gets cancelled.5. The One with the Engagement Picture22mJoey tries to teach Chandler how to smile for an engagement picture with Monica. Joey takes Tag out for a good time.6. The One with the Nap Partners22mRachel and Phoebe compete to be Monica's maid of honor -- but Monica doesn't want to make the decision.7. The One with Ross' Library Book22mRoss discovers that his dissertation is in a section of the library where students go to have sex. Rachel and Phoebe meddle in Joey's relationship.8. The One Where Chandler Doesn't Like Dogs22mChandler's irrational fear of dogs causes problems when Phoebe brings home a cute canine. Rachel's assistant gives her a Thanksgiving surprise.9. The One with All the Candy22mMonica becomes popular with her neighbors because of her homemade candy. Phoebe decides to learn to ride a bicycle.10. The One with the Holiday Armadillo22mRoss dresses up as the Holiday Armadillo and, with Monica, Chandler and Joey's help, teaches Ben about Chanukah.11. The One with All the Cheesecakes22mChandler and Rachel can't help eating the irresistible cheesecakes intended for a neighbor. Phoebe's former boyfriend returns for one night only.12. The One Where They're Up All Night22mMonica falls asleep during sex. Rachel argues with Tag. Ross and Joey get stranded on the roof.13. The One Where Rosita Dies22mPhoebe becomes involved with a suicidal office worker. Rachel breaks Joey's favorite chair. Monica's beloved childhood belongings are destroyed.14. The One Where They All Turn Thirty22mRachel's 30th birthday prompts the friends to reminisce about their own 30th birthdays.15. The One with Joey's New Brain22mJoey's character on a daytime drama becomes more prominent -- to the chagrin of the show's diva star.16. The One with the Truth About London22mChandler finds out who Monica really wanted to have sex with on the night they became lovers. Ross is mad after Rachel teaches Ben practical jokes.17. The One with the Cheap Wedding Dress22mMonica battles another shopper for the perfect wedding dress. Ross and Joey compete for the same woman.18. The One with Joey's Award22mJoey overreacts at a daytime drama awards show. Ross deals with a male student who says he's in love with him.19. The One with Ross and Monica's Cousin22mMonica's gorgeous cousin unwittingly wreaks havoc on Chandler and Ross. Rachel and Phoebe hastily plan a surprise bridal party for Monica.20. The One with Rachel's Big Kiss22mRachel reveals a titillating secret about her and a former sorority sister. Ross and Chandler compete for wedding tuxedos.21. The One with the Vows22mAs Monica and Chandler prepare their wedding vows, everyone reminisces.22. The One with Chandler's Dad22mChandler confronts his estranged, cross-dressing father. Rachel gets into trouble driving Monica's Porsche.23. The One with Chandler and Monica's Wedding: Part 122mAs the relatives gather for Monica and Chandler's wedding, Chandler finally realizes the magnitude of what he's doing.24. The One with Chandler and Monica's Wedding: Part 222mMonica remains blissfully unaware of the potential disasters on her wedding day., Release Year: 2001Rachel is pregnant and faces single parenthood, while Joey agonizes over his feelings for her. Chandler and Monica are now dealing with married life.1. The One After I Do22mMonica and Chandler's wedding reception is almost upstaged by the news that Rachel is pregnant.2. The One with the Red Sweater22mAs they prepare to leave the wedding hotel, an excited Monica and Phoebe speculate about who might be the father of pregnant Rachel's baby.3. The One Where Rachel Tells ...22mEveryone seems to know who the father of Rachel's unborn baby is except for the man himself: Ross.4. The One with the Videotape22mRoss and Rachel try to explain how they ended up in bed together six weeks earlier, but the conversation quickly devolves into an argument.5. The One with Rachel's Date22mRoss is horrified to learn that Rachel is going on a date with a handsome actor, especially since she is pregnant with Ross' child.6. The One with the Halloween Party22mAt Monica's Halloween party, Phoebe becomes attracted to Eric, the friendly fiancé of her flighty twin, Ursula.7. The One with the Stain22mRoss is happy to learn that pregnant Rachel wants to find her own apartment. Phoebe is ecstatic that Eric has chosen her over her twin sister, Ursula.8. The One with the Stripper22mRachel nervously tells her short-tempered father that she is pregnant with Ross' baby. Monica feels guilty for denying Chandler a bachelor party.9. The One with the Rumor22mMonica invites Will, her high school friend, over for Thanksgiving dinner -- unaware that he isn't too fond of Rachel.10. The One with Monica's Boots22mChandler becomes upset when Monica spends a fortune on a luxurious pair of black boots. Phoebe tries to meet Sting.11. The One with the Creepy Holiday Card22mRoss becomes nervous when his new girlfriend, Mona, wants to mail cute Christmas cards with both of their pictures on it.12. The One Where Joey Dates Rachel22mIn order to prepare Joey for his big date the following night, Rachel eagerly agrees to accompany him for an evening out.13. The One Where Chandler Takes a Bath22mAs Joey agonizes over his secret affection for Rachel, Monica mistakenly thinks that he is infatuated with Phoebe.14. The One with the Secret Closet22mJoey realizes that his feelings for Rachel are excluding Ross from the joys of impending fatherhood. Chandler is obsessed with Monica's locked closet.15. The One with the Birthing Video22mMonica prepares a special Valentine's Day for Chandler, who is too shocked to respond favorably after accidentally viewing the wrong videotape.16. The One Where Joey Tells Rachel21mGuilt-ridden Joey confesses his love for Rachel to the flabbergasted Ross. Phoebe's new boyfriend shares numerous personality traits with Monica.17. The One with the Tea Leaves22mFeeling awkward after revealing his feelings to Rachel, Joey avoids contact with her. Phoebe believes she will soon meet the man of her dreams.18. The One in Massapequa22mMonica must give a toast at a 35th wedding anniversary party for her parents. Jack and Judy ask Ross and Rachel to pretend to be married at the party.19. The One with Joey's Interview22mJoey is thrilled when his name is used in a Soap Opera Digest crossword puzzle, yet he is reluctant to let the magazine do a profile about him.20. The One with the Baby Shower22mRachel panics during a party in anticipation of her baby's birth when she realizes how unprepared she is to care for an infant.21. The One with the Cooking Class22mMonica tries to sway a food critic's opinion. Nervous about a major job interview, Chandler receives some questionable coaching from Phoebe.22. The One Where Rachel Is Late22mWhen Rachel's pregnancy goes beyond her projected delivery date, the pain makes Rachel increasingly irritable.23. The One Where Rachel Has a Baby: Part 122mRachel waits in the hospital maternity ward with Ross, as numerous other pregnant women are wheeled in while Rachel's painful labor continues.24. The One Where Rachel Has a Baby: Part 222mRachel gives birth to a beautiful girl, and Ross kisses Rachel. Both hiding their feelings, they wonder how to proceed., Release Year: 2001, 1. The One After I Do22mMonica and Chandler's wedding reception is almost upstaged by the news that Rachel is pregnant.2. The One with the Red Sweater22mAs they prepare to leave the wedding hotel, an excited Monica and Phoebe speculate about who might be the father of pregnant Rachel's baby.3. The One Where Rachel Tells ...22mEveryone seems to know who the father of Rachel's unborn baby is except for the man himself: Ross.4. The One with the Videotape22mRoss and Rachel try to explain how they ended up in bed together six weeks earlier, but the conversation quickly devolves into an argument.5. The One with Rachel's Date22mRoss is horrified to learn that Rachel is going on a date with a handsome actor, especially since she is pregnant with Ross' child.6. The One with the Halloween Party22mAt Monica's Halloween party, Phoebe becomes attracted to Eric, the friendly fiancé of her flighty twin, Ursula.7. The One with the Stain22mRoss is happy to learn that pregnant Rachel wants to find her own apartment. Phoebe is ecstatic that Eric has chosen her over her twin sister, Ursula.8. The One with the Stripper22mRachel nervously tells her short-tempered father that she is pregnant with Ross' baby. Monica feels guilty for denying Chandler a bachelor party.9. The One with the Rumor22mMonica invites Will, her high school friend, over for Thanksgiving dinner -- unaware that he isn't too fond of Rachel.10. The One with Monica's Boots22mChandler becomes upset when Monica spends a fortune on a luxurious pair of black boots. Phoebe tries to meet Sting.11. The One with the Creepy Holiday Card22mRoss becomes nervous when his new girlfriend, Mona, wants to mail cute Christmas cards with both of their pictures on it.12. The One Where Joey Dates Rachel22mIn order to prepare Joey for his big date the following night, Rachel eagerly agrees to accompany him for an evening out.13. The One Where Chandler Takes a Bath22mAs Joey agonizes over his secret affection for Rachel, Monica mistakenly thinks that he is infatuated with Phoebe.14. The One with the Secret Closet22mJoey realizes that his feelings for Rachel are excluding Ross from the joys of impending fatherhood. Chandler is obsessed with Monica's locked closet.15. The One with the Birthing Video22mMonica prepares a special Valentine's Day for Chandler, who is too shocked to respond favorably after accidentally viewing the wrong videotape.16. The One Where Joey Tells Rachel21mGuilt-ridden Joey confesses his love for Rachel to the flabbergasted Ross. Phoebe's new boyfriend shares numerous personality traits with Monica.17. The One with the Tea Leaves22mFeeling awkward after revealing his feelings to Rachel, Joey avoids contact with her. Phoebe believes she will soon meet the man of her dreams.18. The One in Massapequa22mMonica must give a toast at a 35th wedding anniversary party for her parents. Jack and Judy ask Ross and Rachel to pretend to be married at the party.19. The One with Joey's Interview22mJoey is thrilled when his name is used in a Soap Opera Digest crossword puzzle, yet he is reluctant to let the magazine do a profile about him.20. The One with the Baby Shower22mRachel panics during a party in anticipation of her baby's birth when she realizes how unprepared she is to care for an infant.21. The One with the Cooking Class22mMonica tries to sway a food critic's opinion. Nervous about a major job interview, Chandler receives some questionable coaching from Phoebe.22. The One Where Rachel Is Late22mWhen Rachel's pregnancy goes beyond her projected delivery date, the pain makes Rachel increasingly irritable.23. The One Where Rachel Has a Baby: Part 122mRachel waits in the hospital maternity ward with Ross, as numerous other pregnant women are wheeled in while Rachel's painful labor continues.24. The One Where Rachel Has a Baby: Part 222mRachel gives birth to a beautiful girl, and Ross kisses Rachel. Both hiding their feelings, they wonder how to proceed., Release Year: 2002Rachel finds herself surprisingly adept at taking care of Emma but struggles to define her complicated relationships with Joey and Ross.1. The One Where No One Proposes23mBecause of a misunderstanding, Rachel finds herself engaged to Joey instead of Ross, who was planning to propose.2. The One Where Emma Cries23mSomebody ends up in the hospital when Joey attempts to apologize to Ross for mistakenly asking Rachel to marry him.3. The One with the Pediatrician23mRachel's constant calls to Emma's pediatrician force him to reject her as a patient.4. The One with the Sharks23mPhoebe fears losing Mike, and her self-doubt is exacerbated by Ross' foolish comments.5. The One with Phoebe's Birthday Dinner23mRachel is afraid to leave Emma with a babysitter.6. The One with the Male Nanny32mRoss jealously mocks Rachel's choice of an oversensitive male nanny for Emma.7. The One with Ross' Inappropriate Song23mWhen Chandler's former romantic rival decides to sell his apartment, Chandler persuades Joey to help him inspect it on the sly.8. The One with Rachel's Other Sister25mRachel's self-centered younger sister, Amy, ruins everyone's Thanksgiving dinner with her uncensored observations.9. The One with Rachel's Phone Number23mWhile on a night out with Phoebe, Rachel impulsively gives her telephone number to a handsome restaurant patron.10. The One with Christmas in Tulsa23mBecause of a critical deadline at work, Chandler is stuck spending Christmas in Tulsa, Okla.11. The One Where Rachel Goes Back to Work23mWhile visiting her workplace to show off baby Emma, Rachel is surprised to find a handsome temp who's been doing her job.12. The One with Phoebe's Rats23mRachel is irritated to learn that her handsome workplace rival has been invited to her birthday party.13. The One Where Monica Sings31mWhile Rachel sorts out her conflicted feelings for Gavin, Ross sets out to make her jealous, enlisting Chandler to help him meet attractive women.14. The One with the Blind Dates23mIn an attempt to reunite Rachel and Ross, Joey and Phoebe arrange awful blind dates for both of them.15. The One with the Mugging23mJoey develops an unusual acting method to impress a famous fellow actor. Meanwhile, Chandler accepts an internship at an advertising agency.16. The One with the Boob Job23mPhoebe asks Mike to move in with her, but coming so close to married life may cause trouble in their relationship.17. The One with the Memorial Service24mWhen Chandler jokingly posts an outrageous biography about Ross on his college alumni Web site, Ross retaliates.18. The One with the Lottery23mHoping to win a huge jackpot, the friends pool their money and buy dozens of lottery tickets.19. The One with Rachel's Dream24mNervous because his daytime-drama role requires him to act as if he's deeply in love with a woman, Joey rehearses with Rachel.20. The One with the Soap Opera Party24mRoss is excited when he meets fellow paleontologist Charlie Wheeler, who's a stunning beauty.21. The One with the Fertility Test27mRoss is in agony because Charlie is dating Joey. Meanwhile, Chandler and Monica visit a fertility clinic.22. The One with the Donor25mDisappointed to learn that they can't conceive a baby naturally, Monica and Chandler consider their options.23. The One in Barbados: Part 121mRoss is slated to deliver a keynote address at a paleontologists' convention in Barbados.24. The One in Barbados: Part 221mMonica and Mike take part in an extremely competitive, marathon pingpong match., Release Year: 2002, 1. The One Where No One Proposes23mBecause of a misunderstanding, Rachel finds herself engaged to Joey instead of Ross, who was planning to propose.2. The One Where Emma Cries23mSomebody ends up in the hospital when Joey attempts to apologize to Ross for mistakenly asking Rachel to marry him.3. The One with the Pediatrician23mRachel's constant calls to Emma's pediatrician force him to reject her as a patient.4. The One with the Sharks23mPhoebe fears losing Mike, and her self-doubt is exacerbated by Ross' foolish comments.5. The One with Phoebe's Birthday Dinner23mRachel is afraid to leave Emma with a babysitter.6. The One with the Male Nanny32mRoss jealously mocks Rachel's choice of an oversensitive male nanny for Emma.7. The One with Ross' Inappropriate Song23mWhen Chandler's former romantic rival decides to sell his apartment, Chandler persuades Joey to help him inspect it on the sly.8. The One with Rachel's Other Sister25mRachel's self-centered younger sister, Amy, ruins everyone's Thanksgiving dinner with her uncensored observations.9. The One with Rachel's Phone Number23mWhile on a night out with Phoebe, Rachel impulsively gives her telephone number to a handsome restaurant patron.10. The One with Christmas in Tulsa23mBecause of a critical deadline at work, Chandler is stuck spending Christmas in Tulsa, Okla.11. The One Where Rachel Goes Back to Work23mWhile visiting her workplace to show off baby Emma, Rachel is surprised to find a handsome temp who's been doing her job.12. The One with Phoebe's Rats23mRachel is irritated to learn that her handsome workplace rival has been invited to her birthday party.13. The One Where Monica Sings31mWhile Rachel sorts out her conflicted feelings for Gavin, Ross sets out to make her jealous, enlisting Chandler to help him meet attractive women.14. The One with the Blind Dates23mIn an attempt to reunite Rachel and Ross, Joey and Phoebe arrange awful blind dates for both of them.15. The One with the Mugging23mJoey develops an unusual acting method to impress a famous fellow actor. Meanwhile, Chandler accepts an internship at an advertising agency.16. The One with the Boob Job23mPhoebe asks Mike to move in with her, but coming so close to married life may cause trouble in their relationship.17. The One with the Memorial Service24mWhen Chandler jokingly posts an outrageous biography about Ross on his college alumni Web site, Ross retaliates.18. The One with the Lottery23mHoping to win a huge jackpot, the friends pool their money and buy dozens of lottery tickets.19. The One with Rachel's Dream24mNervous because his daytime-drama role requires him to act as if he's deeply in love with a woman, Joey rehearses with Rachel.20. The One with the Soap Opera Party24mRoss is excited when he meets fellow paleontologist Charlie Wheeler, who's a stunning beauty.21. The One with the Fertility Test27mRoss is in agony because Charlie is dating Joey. Meanwhile, Chandler and Monica visit a fertility clinic.22. The One with the Donor25mDisappointed to learn that they can't conceive a baby naturally, Monica and Chandler consider their options.23. The One in Barbados: Part 121mRoss is slated to deliver a keynote address at a paleontologists' convention in Barbados.24. The One in Barbados: Part 221mMonica and Mike take part in an extremely competitive, marathon pingpong match., Release Year: 2003The touching final season of this Emmy-winning sitcom wraps up the stories of the Manhattan sextet, including Ross and Rachel's on-and-off romance.1. The One After Joey and Rachel Kiss29mRoss has kissed Charlie although she is still officially dating Joey. Joey and Rachel have kissed as well, but they agonize over how to tell Ross.2. The One Where Ross Is Fine24mRachel, Joey and Charlie attend an uncomfortable dinner party at Ross's apartment. Former surrogate mother Phoebe is visited by her brother, Frank Jr.3. The One with Ross's Tan24mMonica and Phoebe's annoying friend visits, causing a rift between the women. Ross goes to a tanning salon but fails to follow the directions.4. The One with the Cake23mWhen Ross dashes out to help Rachel for Emma's birthday party, he leaves Joey in charge of keeping everybody in the apartment until they return.5. The One Where Rachel's Sister Babysits28mRachel thinks her annoying, self-indulgent younger sister, Amy, is finally on the verge of making a major change in her attitude.6. The One with Ross's Grant24mRoss has the chance to receive a grant, but must break up with Charlie to get it. Phoebe tries to give a hideous painting to Monica and Rachel.7. The One with The Home Study23mPhoebe and Mike opt to have a small wedding and donate the extra money to a children's charity -- only to demand it all back later.8. The One with the Late Thanksgiving23mMonica prepares a fabulous Thanksgiving feast for the gang, but she becomes furious when everyone arrives late to the gathering.9. The One with the Birth Mother25mNervous and excited, Monica and Chandler travel to Ohio to meet a pregnant woman who is considering allowing them to adopt her child when it's born.10. The One Where Chandler Gets Caught23mWhen Phoebe and Rachel see Chandler getting into a car with a pretty woman during work hours, they follow him.11. The One Where the Stripper Cries27mJoey appears as a celebrity contestant on "The $100,000 Pyramid," but his dubious IQ puts his partner's prize money at risk.12. The One with Phoebe's Wedding30mPhoebe's wedding planner, Monica, is driving everyone around her crazy. Chandler and Ross lobby Rachel to choose one of them as a groomsman.13. The One Where Joey Speaks French24mMonica and Chandler show Erica, the mother of the unborn baby they want to adopt, the sights of New York. Joey implores Phoebe to teach him French.14. The One with Princess Consuela23mRachel nearly gags on her meal when she goes on a job interview at a restaurant and sits next to her current boss. Phoebe considers changing her name.15. The One Where Estelle Dies23mWhen Rachel makes a startling announcement, Ross schemes to get her former job back for her. Joey is flustered by the upheaval in his friends' lives.16. The One with Rachel's Going Away Party23mAs Rachel prepares to leave for Paris, the gang hosts a farewell party for her. But one friend is offended when he is excluded.17. The Last One: Part 1 &amp; Part 248mOn their last day together, Rachel, Monica, Phoebe, Joey, Chandler and Ross reflect on their shared times with bittersweet emotion., Release Year: 2003, 1. The One After Joey and Rachel Kiss29mRoss has kissed Charlie although she is still officially dating Joey. Joey and Rachel have kissed as well, but they agonize over how to tell Ross.2. The One Where Ross Is Fine24mRachel, Joey and Charlie attend an uncomfortable dinner party at Ross's apartment. Former surrogate mother Phoebe is visited by her brother, Frank Jr.3. The One with Ross's Tan24mMonica and Phoebe's annoying friend visits, causing a rift between the women. Ross goes to a tanning salon but fails to follow the directions.4. The One with the Cake23mWhen Ross dashes out to help Rachel for Emma's birthday party, he leaves Joey in charge of keeping everybody in the apartment until they return.5. The One Where Rachel's Sister Babysits28mRachel thinks her annoying, self-indulgent younger sister, Amy, is finally on the verge of making a major change in her attitude.6. The One with Ross's Grant24mRoss has the chance to receive a grant, but must break up with Charlie to get it. Phoebe tries to give a hideous painting to Monica and Rachel.7. The One with The Home Study23mPhoebe and Mike opt to have a small wedding and donate the extra money to a children's charity -- only to demand it all back later.8. The One with the Late Thanksgiving23mMonica prepares a fabulous Thanksgiving feast for the gang, but she becomes furious when everyone arrives late to the gathering.9. The One with the Birth Mother25mNervous and excited, Monica and Chandler travel to Ohio to meet a pregnant woman who is considering allowing them to adopt her child when it's born.10. The One Where Chandler Gets Caught23mWhen Phoebe and Rachel see Chandler getting into a car with a pretty woman during work hours, they follow him.11. The One Where the Stripper Cries27mJoey appears as a celebrity contestant on "The $100,000 Pyramid," but his dubious IQ puts his partner's prize money at risk.12. The One with Phoebe's Wedding30mPhoebe's wedding planner, Monica, is driving everyone around her crazy. Chandler and Ross lobby Rachel to choose one of them as a groomsman.13. The One Where Joey Speaks French24mMonica and Chandler show Erica, the mother of the unborn baby they want to adopt, the sights of New York. Joey implores Phoebe to teach him French.14. The One with Princess Consuela23mRachel nearly gags on her meal when she goes on a job interview at a restaurant and sits next to her current boss. Phoebe considers changing her name.15. The One Where Estelle Dies23mWhen Rachel makes a startling announcement, Ross schemes to get her former job back for her. Joey is flustered by the upheaval in his friends' lives.16. The One with Rachel's Going Away Party23mAs Rachel prepares to leave for Paris, the gang hosts a farewell party for her. But one friend is offended when he is excluded.17. The Last One: Part 1 &amp; Part 248mOn their last day together, Rachel, Monica, Phoebe, Joey, Chandler and Ross reflect on their shared times with bittersweet emotion. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam's frequent tantrums turn sinister when a creepy children's book mysteriously appears in his room, and he asks his mother, "Do you want to die?" 
+Amelia lives with her only son Samuel, who's still afraid of monsters under the bed or in the closet. She proves to him repeatedly there's nothing to be afraid of, but he keeps on making a big deal out of his fear. This adds to hers own stress from the loss of her husband, who had died on the way to the hospital when Amelia was in labor because they got in an accident. One day Amelia tells Sam he can choose a book to read as a bedtime story and he chooses a book called 'Mister Babadook' which scared Sam so much he ended up crying/screaming into Amelia's lap as she read a different book to try and calm him. Amelia later looks at the pages. It says the Babadook will come to a kid in a disguise, demanding him to let it in, then asks the same to the kids mother, and then it'll get rid of it's disguise and haunt them, but the last pages are empty. Amelia then hides the book from Sam, but as the days go on, Sam gets more terrified about The Babadook, so Amelia tears the Babadooks images from the book and tosses them all in the garbage.Afterwards, Samuel starts to blame The Babadook for his mischiefs. Amelia feels he's only making it up until she starts to feel weird things. One day the front door is knocked on and there's nobody there when Amelia opens it. The knocking continues and when Amelia opens the door again, she finds the book with the torn pages glued back into it. Also the empty pages are filled with images of the Babadook shadowing the mother, and her killing her son. Amelia then burns the book but she gets more paranoid and stressed as weirder things happen to the point that it makes Amelia afraid to sleep. She then stays up for two nights in a row. But as Samuel asks for her motherly care, Amelia has episodes of sudden anger outbursts with her voice changing at times. The second night, she catches Sam calling their old Parkinsonian neighbor Mrs. Roach.Amelia dismisses her, but continues her rage by killing their dog and then chasing after Samuel. She catches up to him but he knocks her out by throwing something hard at her. Amelia wakes up tied with Sam refusing to leave her. Her episodes make her choke Sam as he gets near to hug her, but her inner self wins as Sam strokes her cheek. Amelia then vomits something black and Sam says that she's free, but then Sam tells her she can't make the Babadook go away, and Sam is dragged away by an invisible force. She confronts the force, arguing that it's trespassing her house. The Babadook manifests itself as a shadow but runs away to the basement when Amelia doesn't run from it. Things seem to go back to normal afterwards and as Amelia and Sam prepare Sam's seventh birthday party-which was never celebrated due to the fact that it is the same day as the death of Sam's father. Amelia collects worms and maggots then brings them to feed something in the basement.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This biopic profiles J. Edgar Hoover, who pushed the envelope professionally and led a complex personal life over nearly 50 years as head of the FBI. 
+The film opens with Hoover (Leonardo DiCaprio) in his office during his later years. He asks that a writer (Ed Westwick) be let in, so that he may tell the story of the origin of the FBI for the sake of the public. Hoover explains that the story begins in 1919, when A. Mitchell Palmer was Attorney General and Hoover's boss at the Justice Department. Palmer suffers an assassination attempt, but is unharmed when the bomb explodes earlier than intended. Hoover recalls that the police handling of the crime scene was primitive, and that it was that night that he recognized the importance of criminal science. Later, Hoover visits his mother (Judi Dench), and tells her that Palmer has put him in charge of a new anti-radical division, and that he has already begun compiling a list of suspected radicals. He leaves to meet Helen Gandy (Naomi Watts), who has just started as a secretary at the Justice Department. Hoover takes Gandy to the Library of Congress, and shows her the card catalog system he devised. He muses about how easy it would be to solve crimes if every citizen were as easily identifiable as the books in the library. When Hoover attempts to kiss her, she recoils. Hoover gets down on his knees and asks her to marry him citing her organization and education, but is once again denied. However, Gandy agrees to become his personal secretary.Despite his close monitoring of suspected foreign radicals, Hoover finds that the the Department of Labor refuses to deport anyone without clear evidence of a crime; however, Anthony Caminetti (Jack Axelrod) the commissioner general of immigration dislikes the prominent anarchist Emma Goldman (Jessica Hecht). Hoover arranges to discredit her marriage and make her eligible for deportation, setting a precedent of deportation for radical conspiracy. After several Justice Department raids of suspected radical groups, many leading to deportation, Palmer loses his job as Attorney General. Under a subsequent Attorney General, Harlan F. Stone (Ken Howard), Hoover is made director of the Justice Department's Bureau of Investigation. He is introduced to Clyde Tolson (Armie Hammer), a recently graduated lawyer, and takes his business card. Later, while reviewing job applications with Helen Gandy, Hoover asks if Clyde had applied. Gandy says he had, and Hoover interviews and hires Clyde.The Bureau pursues a string of gangster and bank robbery crimes across the Midwest, including the high profile John Dillinger, with general success. When the Lindbergh kidnapping captures national attention, President Roosevelt asks the Bureau to investigate. Hoover employs several novel techniques, including the monitoring of registration numbers on ransom bills, and expert analysis of the kidnapper's handwriting. The birth of the FBI Crime Lab is seen as a product of Hoover's determination to analyze the homemade wooden ladder left at the crime scene. When the monitored bills begin showing up in New York City, the investigators find a filling station attendant who wrote down the license plate number of the man who gave him the bill. This leads to the arrest, and eventual conviction, of Bruno Hauptmann for the kidnapping and murder of the Lindbergh child.After going to a Shirley Temple movie with Hoover's mother, Hoover and Clyde decide to go out to a club. When a girl asks Hoover if he ever wishes he had someone to keep him warm at night, he responds that he has dedicated his life to the Bureau. Another girl asks Hoover to dance and he becomes agitated, saying that he and Clyde must leave, as they have a lot of work to do in the morning. When he gets home he shares his dislike of dancing with girls with his mother, and she tells him she would rather have a dead son than a "daffodil" for a son. She then insists on teaching him to dance, and they dance in her bedroom. Soon after, Hoover and Clyde go on a vacation to the racetrack. That evening Hoover claims to be considering marriage to a girl he has been seeing in New York City, this provokes outrage from Clyde, and the two fight on the floor, culminating in a kiss. Hoover demands that it must never happen again.Years later, Hoover feels his strength begin to decline. He requires daily visits by a doctor, and Clyde suffers a stroke which leaves him in a severely weakened state. An attempt by Hoover to blackmail Martin Luther King, Jr. into declining his Nobel Peace Prize proves ineffective, and Martin Luther King, Jr. accepts the prize. When Clyde appeals to Hoover to retire, Hoover refuses, claiming that Richard Nixon is going to destroy the Bureau he has created. Clyde then accuses Hoover of exaggerating his involvement in many of the Bureau's actions. Upon Hoover's death, Helen Gandy is seen destroying stacks of files, assumed to be Hoover's rumored "personal and confidential" files.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a young swain recruits pirate Capt. Jack Sparrow to help rescue a maiden from rival buccaneers, he finds he's up against supernatural forces. 
+As Governor Weatherby Swann and his twelve-year-old daughter, Elizabeth, sail to Port Royal, Jamaica, their vessel, HMS Dauntless encounters a shipwreck with a sole survivor, the young Will Turner, floating among the wreckage. Elizabeth finds and hides a gold medallion she found around the unconscious Will's neck, fearing he would be accused of piracy. She then glimpses a ghostly pirate ship (the Black Pearl), disappearing into the mist.Eight years later Captain James Norrington of the British Royal Navy is promoted to Commodore. At his ceremony, he proposes to Elizabeth. Before she is able to answer, her over-tightened corset causes her to faint and fall off the rampart, tumbling into the bay. The medallion she is wearing emits a mysterious pulse through the water.Meanwhile, pirate Captain Jack Sparrow has arrived in Port Royal to commandeer a ship. Seeing Elizabeth fall, he rescues her, but Norrington recognizes him as the notorious pirate and he is arrested. He escapes and ducks into a blacksmith shop where he encounters Will Turner, now a blacksmith's apprentice and self-taught expert swordsman. Following a sword fight with Turner, Sparrow is knocked unconscious and jailed, set to be hanged the next day. That night, Port Royal is besieged by the Pearl, answering the medallion's mysterious call. Elizabeth is captured and invokes parley an agreement ensuring one's safety until meeting and negotiating with the opposing side. Not wishing to reveal that she's the Governor's daughter, Elizabeth tells Captain Barbossa her surname is Turner. She negotiates for the pirates to cease the attack on Port Royal in exchange for the medallion. Barbossa agrees but, employing a loophole in their agreement, keeps Elizabeth prisoner, believing she is the key to breaking an ancient curse they are under.When Commodore Norrington refuses to take immediate action, Will, who loves Elizabeth, persuades Captain Jack Sparrow to help him rescue her in exchange for freeing him from jail. Jack agrees only after learning Will's last name is Turner. After commandeering the HMS Interceptor Jack and Will recruit a crew in Tortuga with help from Jack's old friend, Gibbs, a former boatswain in the Royal Navy. They set sail for Isla de Muerta, a mysterious island Jack knows the pirates will go to in order to break the curse.While on route, Will learns about Jack's past. He was once the captain of the Pearl, but when he shared the bearings to a hidden chest of Aztec gold coins, First Mate Barbossa instigated a mutiny and marooned Jack on an island. Jack escaped three days later. The pirates found and spent the treasure, but soon learned it was cursed and had turned them into near-immortal skeletal beings whose true forms are only revealed in moonlight. The curse can only be lifted when every coin and each pirate's blood is returned to the chest. William "Bootstrap Bill" Turner, Jack's only supporter, sent a coin to his son, Will, believing the crew should remain cursed for what they did to Jack. Barbossa had Bootstrap tied to a cannon and thrown overboard, only to realize later that his blood is also needed to break the curse; a Turner relative must now take his place.In a cave full of treasure on Isla de Muerta, Barbossa, believing Elizabeth is Bootstrap's child, anoints the last coin with her blood and drops it into the chest, unsurprisingly, the curse remains unbroken.Reaching the island, Will suspects Sparrow may betray him and knocks him out. He rescues Elizabeth, and they escape to the Interceptor. Jack barters with Barbossa saying he will reveal Bootstrap's real child in exchange for the Pearl. Jack's negotiations come to naught, however, when the Pearl pursues the Interceptor, sinking her and taking the crew captive. Will reveals that he is Bootstrap Bill's son and demands that Elizabeth and the crew be freed, or he will shoot himself and fall overboard, lost forever. Barbossa agrees but craftily applies another loophole and maroons Elizabeth and Jack on a deserted island (the same island Jack was on ten years before) and throws Jack's crew into the brig. Will is taken to Isla de Muerta for the ritual. On the island, Elizabeth discovers the truth behind how Jack really got off the island. The island that Jack was imprisoned on was used as a cache by rum runners, who are long since out of business.Elizabeth burns an abandoned cache of rum to create a signal fire that is spotted by Norrington. She convinces Norrington to rescue Will by accepting his earlier marriage proposal. Returning to Isla de Muerta, Norrington sets an ambush outside the cave while Jack goes inside and persuades Barbossa to form an alliance. He tells him to delay breaking the curse until after they have taken the Dauntless and killed the crew. Jack then removes a coin from the chest, rendering himself immortal. But whatever Jack's actual intent is, his plan goes awry when Barbossa orders his crew to infiltrate the Dauntless from underwater. Elizabeth infiltrates the Pearl, frees Jack's crew and destroys the two pirates guarding it. She tries to enlist the crew's help, but they refuse and make off with the Pearl while Elizabeth heads to the island to aid Will. Elizabeth saves Will and together they destroy the three cursed pirate guards while Jack, immortal, reveals his true allegiance and battles Barbossa. Jack tosses his bloodied coin to Will, who returns the last two medallions to the chest, adding his own blood to his, breaking the curse. Jack then shoots Barbossa in the heart with the shot he had saved for ten years. No longer immortal, the wounded Barbossa falls dead. Realizing they are no longer cursed, the now-mortal pirates surrender to the navy.Back in Port Royal, Jack is about to be executed. Believing Jack deserves to live, Will rescues him. Both are quickly captured, but Elizabeth lends her support and declares her love for Will. Will is granted yet another pardon (having been previously cleared of stealing the Interceptor) and is allowed to marry Elizabeth with the blessing of Norrington and Governor Swann. Jack escapes by leaping (falling) from the fort and into the bay. His crew, who escaped with the Pearl, rescues him and makes him Captain. Norrington is impressed enough to allow him one day's head start before giving pursuit.
+</t>
+  </si>
+  <si>
     <t>Thrillers, Psychological Thrillers, Political Thrillers</t>
   </si>
   <si>
@@ -462,6 +675,36 @@
     <t>Cult Movies, Cult Horror Movies, Horror Movies, Slasher and Serial Killer Movies, Teen Screams</t>
   </si>
   <si>
+    <t>TV Shows, TV Dramas</t>
+  </si>
+  <si>
+    <t>TV Shows, Romantic TV Shows, TV Comedies</t>
+  </si>
+  <si>
+    <t>Documentaries, Science &amp; Nature Docs</t>
+  </si>
+  <si>
+    <t>Dramas, Independent Dramas, Independent Movies, Sci-Fi &amp; Fantasy, Sci-Fi Dramas</t>
+  </si>
+  <si>
+    <t>TV Shows, Crime TV Shows, TV Dramas, Courtroom TV Dramas, Crime TV Dramas</t>
+  </si>
+  <si>
+    <t>Action &amp; Adventure, Adventures, Comic Book and Superhero Movies, Sci-Fi &amp; Fantasy, Action Sci-Fi &amp; Fantasy, Sci-Fi Adventure</t>
+  </si>
+  <si>
+    <t>TV Shows, International TV Shows, Miniseries, TV Comedies, TV Dramas, TV Dramedies</t>
+  </si>
+  <si>
+    <t>Thrillers, Independent Thrillers, Psychological Thrillers, Supernatural Thrillers, Horror Movies, Supernatural Horror Movies, Independent Movies, Australian Movies</t>
+  </si>
+  <si>
+    <t>Dramas, Biographical Dramas, Crime Dramas, Dramas based on Real Life, 20th Century Period Pieces, Political Dramas</t>
+  </si>
+  <si>
+    <t>Action &amp; Adventure, Action Comedies, Adventures, Disney, Comedies</t>
+  </si>
+  <si>
     <t>Jonathan Demme</t>
   </si>
   <si>
@@ -486,6 +729,24 @@
     <t>Wes Craven</t>
   </si>
   <si>
+    <t>Jeff Orlowski</t>
+  </si>
+  <si>
+    <t>Michael Polish</t>
+  </si>
+  <si>
+    <t>Anthony Russo, Joe Russo</t>
+  </si>
+  <si>
+    <t>Jennifer Kent</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Gore Verbinski</t>
+  </si>
+  <si>
     <t>Denzel Washington, Meryl Streep, Liev Schreiber</t>
   </si>
   <si>
@@ -525,6 +786,36 @@
     <t>Neve Campbell, David Arquette, Courteney Cox</t>
   </si>
   <si>
+    <t>Kevin Spacey, Robin Wright, Kate Mara</t>
+  </si>
+  <si>
+    <t>Keegan-Michael Key, Cobie Smulders, Billy Eichner</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton, Virginia Madsen, Bruce Dern</t>
+  </si>
+  <si>
+    <t>Felicity Huffman, Timothy Hutton, Elvis Nolasco</t>
+  </si>
+  <si>
+    <t>Chris Evans, Robert Downey Jr., Scarlett Johansson</t>
+  </si>
+  <si>
+    <t>Jennifer Aniston, Courteney Cox, Lisa Kudrow</t>
+  </si>
+  <si>
+    <t>Camille Cottin, Thibault De Montalembert, Grégory Montel</t>
+  </si>
+  <si>
+    <t>Essie Davis, Noah Wiseman, Hayley McElhinney</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio, Naomi Watts, Judi Dench</t>
+  </si>
+  <si>
+    <t>Johnny Depp, Geoffrey Rush, Orlando Bloom</t>
+  </si>
+  <si>
     <t>Peter Morgan</t>
   </si>
   <si>
@@ -546,6 +837,21 @@
     <t>Jill E. Blotevogel, Jay Beattie, Dan Dworkin</t>
   </si>
   <si>
+    <t>Beau Willimon</t>
+  </si>
+  <si>
+    <t>Nicholas Stoller, Francesca Delbanco</t>
+  </si>
+  <si>
+    <t>John Ridley</t>
+  </si>
+  <si>
+    <t>David Crane, Marta Kauffman</t>
+  </si>
+  <si>
+    <t>Fanny Herrero</t>
+  </si>
+  <si>
     <t>1. Wolferton Splash, 2. Hyde Park Corner, 3. Windsor, 4. Act of God, 5. Smoke and Mirrors, 6. Gelignite, 7. Scientia Potentia Est, 8. Pride &amp; Joy, 9. Assassins, 10. Gloriana</t>
   </si>
   <si>
@@ -573,6 +879,21 @@
     <t>1. Pilot, 2. Hello, Emma, 3. Wanna Play a Game?, 4. Aftermath, 5. Exposed, 6. Betrayed, 7. In the Trenches, 8. Ghosts, 9. The Dance, 10. Revelations, 1. I Know What You Did Last Summer, 2. Psycho, 3. Vacancy, 4. Happy Birthday to Me, 5. Dawn of the Dead, 6. Jeepers Creepers, 7. Let The Right One In, 8. Village of the Damned, 9. The Orphanage, 10. The Vanishing, 11. Heavenly Creatures, 12. When a Stranger Calls, 13. Finale: Halloween / Halloween II</t>
   </si>
   <si>
+    <t>1. Chapter 1, 2. Chapter 2, 3. Chapter 3, 4. Chapter 4, 5. Chapter 5, 6. Chapter 6, 7. Chapter 7, 8. Chapter 8, 9. Chapter 9, 10. Chapter 10, 11. Chapter 11, 12. Chapter 12, 13. Chapter 13, 1. Chapter 14, 2. Chapter 15, 3. Chapter 16, 4. Chapter 17, 5. Chapter 18, 6. Chapter 19, 7. Chapter 20, 8. Chapter 21, 9. Chapter 22, 10. Chapter 23, 11. Chapter 24, 12. Chapter 25, 13. Chapter 26, 1. Chapter 27, 2. Chapter 28, 3. Chapter 29, 4. Chapter 30, 5. Chapter 31, 6. Chapter 32, 7. Chapter 33, 8. Chapter 34, 9. Chapter 35, 10. Chapter 36, 11. Chapter 37, 12. Chapter 38, 13. Chapter 39, 1. Chapter 40, 2. Chapter 41, 3. Chapter 42, 4. Chapter 43, 5. Chapter 44, 6. Chapter 45, 7. Chapter 46, 8. Chapter 47, 9. Chapter 48, 10. Chapter 49, 11. Chapter 50, 12. Chapter 51, 13. Chapter 52, 1. Chapter 53, 2. Chapter 54, 3. Chapter 55, 4. Chapter 56, 5. Chapter 57, 6. Chapter 58, 7. Chapter 59, 8. Chapter 60, 9. Chapter 61, 10. Chapter 62, 11. Chapter 63, 12. Chapter 64, 13. Chapter 65</t>
+  </si>
+  <si>
+    <t>1. Welcome to New York, 2. Connecticut House, 3. All-Nighter, 4. Mission Impossible, 5. Party Bus, 6. Second Wedding, 7. Grand Cayman, 8. A Night of Surprises</t>
+  </si>
+  <si>
+    <t>1. Episode 1, 2. Episode 2, 3. Episode 3, 4. Episode 4, 5. Episode 5, 6. Episode 6, 7. Episode 7, 8. Episode 8, 9. Episode 9, 10. Episode 10, 11. Episode 11, 1. Episode 1, 2. Episode 2, 3. Episode 3, 4. Episode 4, 5. Episode 5, 6. Episode 6, 7. Episode 7, 8. Episode 8, 9. Episode 9, 10. Episode 10, 1. Episode 1, 2. Episode 2, 3. Episode 3, 4. Episode 4, 5. Episode 5, 6. Episode 6, 7. Episode 7, 8. Episode 8</t>
+  </si>
+  <si>
+    <t>1. The One Where Monica Gets a Roommate (Pilot), 2. The One with the Sonogram at the End, 3. The One with the Thumb, 4. The One with George Stephanopoulos, 5. The One with the East German Laundry Detergent, 6. The One with the Butt, 7. The One with the Blackout, 8. The One Where Nana Dies Twice, 9. The One Where Underdog Gets Away, 10. The One with the Monkey, 11. The One with Mrs. Bing, 12. The One with the Dozen Lasagnas, 13. The One with the Boobies, 14. The One with the Candy Hearts, 15. The One with the Stoned Guy, 16. The One with the Two Parts: Part 1, 17. The One with the Two Parts: Part 2, 18. The One with All the Poker, 19. The One Where the Monkey Gets Away, 20. The One with the Evil Orthodontist, 21. The One with the Fake Monica, 22. The One with the Ick Factor, 23. The One with the Birth, 24. The One Where Rachel Finds Out, 1. The One with Ross's New Girlfriend, 2. The One with the Breast Milk, 3. The One Where Heckles Dies, 4. The One with Phoebe's Husband, 5. The One with Five Steaks and an Eggplant, 6. The One with the Baby on the Bus, 7. The One Where Ross Finds Out, 8. The One with the List, 9. The One with Phoebe's Dad, 10. The One with Russ, 11. The One with the Lesbian Wedding, 12. The One After the Super Bowl: Part 1, 13. The One After the Super Bowl: Part 2, 14. The One with the Prom Video, 15. The One Where Ross and Rachel...You Know, 16. The One Where Joey Moves Out, 17. The One Where Eddie Moves In, 18. The One Where Dr. Ramoray Dies, 19. The One Where Eddie Won't Go, 20. The One Where Old Yeller Dies, 21. The One with the Bullies, 22. The One with the Two Parties, 23. The One with the Chicken Pox, 24. The One with Barry and Mindy's Wedding, 1. The One with the Princess Leia Fantasy, 2. The One Where No One's Ready, 3. The One with the Jam, 4. The One with the Metaphorical Tunnel, 5. The One with Frank Jr, 6. The One with the Flashback, 7. The One with the Race Car Bed, 8. The One with the Giant Poking Device, 9. The One with the Football, 10. The One Where Rachel Quits, 11. The One Where Chandler Can't Remember Which Sister, 12. The One with All the Jealousy, 13. The One Where Monica &amp; Richard Are Just Friends, 14. The One with Phoebe's Ex-Partner, 15. The One Where Ross &amp; Rachel Take a Break, 16. The One The Morning After, 17. The One Without the Ski Trip, 18. The One with the Hypnosis Tape, 19. The One with the Tiny T-Shirt, 20. The One with the Dollhouse, 21. The One with a Chick. And a Duck, 22. The One with the Screamer, 23. The One with Ross's Thing, 24. The One with the Ultimate Fighting Champion, 25. The One at the Beach, 1. The One with the Jellyfish, 2. The One with the Cat, 3. The One with the 'Cuffs, 4. The One with the Ballroom Dancing, 5. The One with Joey's New Girlfriend, 6. The One with the Dirty Girl, 7. The One Where Chandler Crosses the Line, 8. The One with Chandler in a Box, 9. The One Where They're Going to Party, 10. The One with the Girl from Poughkeepsie, 11. The One with Phoebe's Uterus, 12. The One with the Embryos, 13. The One with Rachel's Crush, 14. The One with Joey's Dirty Day, 15. The One with All the Rugby, 16. The One with the Fake Party, 17. The One with the Free Porn, 18. The One with Rachel's New Dress, 19. The One with All the Haste, 20. The One with the Wedding Dresses, 21. The One with the Invitation, 22. The One with the Worst Best Man Ever, 23. The One with Ross's Wedding: Part 1, 24. The One with Ross's Wedding: Part 2, 1. The One After Ross Says Rachel, 2. The One with All the Kissing, 3. The One Hundredth, 4. The One Where Phoebe Hates PBS, 5. The One with the Kips, 6. The One with the Yeti, 7. The One Where Ross Moves In, 8. The One with All the Thanksgivings, 9. The One with Ross's Sandwich, 10. The One with the Inappropriate Sister, 11. The One with All the Resolutions, 12. The One with Chandler's Work Laugh, 13. The One with Joey's Bag, 14. The One Where Everybody Finds Out, 15. The One with the Girl Who Hits Joey, 16. The One with the Cop, 17. The One with Rachel's Inadvertent Kiss, 18. The One Where Rachel Smokes, 19. The One Where Ross Can't Flirt, 20. The One with the Ride-Along, 21. The One with the Ball, 22. The One with Joey's Big Break, 23. The One in Vegas: Part 1, 24. The One in Vegas: Part 2, 1. The One After Vegas, 2. The One Where Ross Hugs Rachel, 3. The One with Ross's Denial, 4. The One Where Joey Loses His Insurance, 5. The One with Joey's Porsche, 6. The One on the Last Night, 7. The One Where Phoebe Runs, 8. The One with Ross's Teeth, 9. The One Where Ross Got High, 10. The One with the Routine, 11. The One with the Apothecary Table, 12. The One with the Joke, 13. The One with Rachel's Sister, 14. The One Where Chandler Can't Cry, 15. The One That Could Have Been: Part 1, 16. The One That Could Have Been: Part 2, 17. The One with Unagi, 18. The One Where Ross Dates a Student, 19. The One with Joey's Fridge, 20. The One with Mac and C.H.E.E.S.E, 21. The One Where Ross Meets Elizabeth's Dad, 22. The One Where Paul's the Man, 23. The One with the Ring, 24. The One with the Proposal: Part 1, 25. The One with the Proposal: Part 2, 1. The One with Monica's Thunder, 2. The One with Rachel's Book, 3. The One with Phoebe's Cookies, 4. The One with Rachel's Assistant, 5. The One with the Engagement Picture, 6. The One with the Nap Partners, 7. The One with Ross' Library Book, 8. The One Where Chandler Doesn't Like Dogs, 9. The One with All the Candy, 10. The One with the Holiday Armadillo, 11. The One with All the Cheesecakes, 12. The One Where They're Up All Night, 13. The One Where Rosita Dies, 14. The One Where They All Turn Thirty, 15. The One with Joey's New Brain, 16. The One with the Truth About London, 17. The One with the Cheap Wedding Dress, 18. The One with Joey's Award, 19. The One with Ross and Monica's Cousin, 20. The One with Rachel's Big Kiss, 21. The One with the Vows, 22. The One with Chandler's Dad, 23. The One with Chandler and Monica's Wedding: Part 1, 24. The One with Chandler and Monica's Wedding: Part 2, 1. The One After I Do, 2. The One with the Red Sweater, 3. The One Where Rachel Tells ..., 4. The One with the Videotape, 5. The One with Rachel's Date, 6. The One with the Halloween Party, 7. The One with the Stain, 8. The One with the Stripper, 9. The One with the Rumor, 10. The One with Monica's Boots, 11. The One with the Creepy Holiday Card, 12. The One Where Joey Dates Rachel, 13. The One Where Chandler Takes a Bath, 14. The One with the Secret Closet, 15. The One with the Birthing Video, 16. The One Where Joey Tells Rachel, 17. The One with the Tea Leaves, 18. The One in Massapequa, 19. The One with Joey's Interview, 20. The One with the Baby Shower, 21. The One with the Cooking Class, 22. The One Where Rachel Is Late, 23. The One Where Rachel Has a Baby: Part 1, 24. The One Where Rachel Has a Baby: Part 2, 1. The One Where No One Proposes, 2. The One Where Emma Cries, 3. The One with the Pediatrician, 4. The One with the Sharks, 5. The One with Phoebe's Birthday Dinner, 6. The One with the Male Nanny, 7. The One with Ross' Inappropriate Song, 8. The One with Rachel's Other Sister, 9. The One with Rachel's Phone Number, 10. The One with Christmas in Tulsa, 11. The One Where Rachel Goes Back to Work, 12. The One with Phoebe's Rats, 13. The One Where Monica Sings, 14. The One with the Blind Dates, 15. The One with the Mugging, 16. The One with the Boob Job, 17. The One with the Memorial Service, 18. The One with the Lottery, 19. The One with Rachel's Dream, 20. The One with the Soap Opera Party, 21. The One with the Fertility Test, 22. The One with the Donor, 23. The One in Barbados: Part 1, 24. The One in Barbados: Part 2, 1. The One After Joey and Rachel Kiss, 2. The One Where Ross Is Fine, 3. The One with Ross's Tan, 4. The One with the Cake, 5. The One Where Rachel's Sister Babysits, 6. The One with Ross's Grant, 7. The One with The Home Study, 8. The One with the Late Thanksgiving, 9. The One with the Birth Mother, 10. The One Where Chandler Gets Caught, 11. The One Where the Stripper Cries, 12. The One with Phoebe's Wedding, 13. The One Where Joey Speaks French, 14. The One with Princess Consuela, 15. The One Where Estelle Dies, 16. The One with Rachel's Going Away Party, 17. The Last One: Part 1 &amp; Part 2</t>
+  </si>
+  <si>
+    <t>1. Episode 1, 2. Episode 2, 3. Episode 3, 4. Episode 4, 5. Episode 5, 6. Episode 6</t>
+  </si>
+  <si>
     <t>tt0368008</t>
   </si>
   <si>
@@ -622,6 +943,39 @@
   </si>
   <si>
     <t>tt0117571</t>
+  </si>
+  <si>
+    <t>tt1856010</t>
+  </si>
+  <si>
+    <t>tt5565334</t>
+  </si>
+  <si>
+    <t>tt6333054</t>
+  </si>
+  <si>
+    <t>tt0469263</t>
+  </si>
+  <si>
+    <t>tt2788432</t>
+  </si>
+  <si>
+    <t>tt3498820</t>
+  </si>
+  <si>
+    <t>tt0108778</t>
+  </si>
+  <si>
+    <t>tt0108872</t>
+  </si>
+  <si>
+    <t>tt2321549</t>
+  </si>
+  <si>
+    <t>tt1616195</t>
+  </si>
+  <si>
+    <t>tt0325980</t>
   </si>
   <si>
     <t>Movie</t>
@@ -764,46 +1118,46 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="I2" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" t="e">
-        <v>#N/A</v>
+        <v>213</v>
+      </c>
+      <c r="L2" t="s">
+        <v>227</v>
       </c>
       <c r="M2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N2" t="s">
-        <v>175</v>
+      <c r="N2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O2" t="s">
-        <v>192</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6.0037627E7</v>
+        <v>276</v>
+      </c>
+      <c r="P2" t="s">
+        <v>304</v>
       </c>
       <c r="Q2" t="n">
         <v>0.147552</v>
@@ -844,46 +1198,46 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
-      </c>
-      <c r="L3" t="e">
-        <v>#N/A</v>
+        <v>214</v>
+      </c>
+      <c r="L3" t="s">
+        <v>228</v>
       </c>
       <c r="M3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N3" t="s">
-        <v>176</v>
+      <c r="N3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O3" t="s">
-        <v>192</v>
-      </c>
-      <c r="P3" t="n">
-        <v>8.0108238E7</v>
+        <v>277</v>
+      </c>
+      <c r="P3" t="s">
+        <v>304</v>
       </c>
       <c r="Q3" t="n">
         <v>0.097571</v>
@@ -924,31 +1278,31 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="J4" t="s">
-        <v>140</v>
-      </c>
-      <c r="K4" t="e">
-        <v>#N/A</v>
+        <v>188</v>
+      </c>
+      <c r="K4" t="s">
+        <v>215</v>
       </c>
       <c r="L4" t="e">
         <v>#N/A</v>
@@ -956,14 +1310,14 @@
       <c r="M4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N4" t="s">
-        <v>177</v>
+      <c r="N4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O4" t="s">
-        <v>192</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6.0036691E7</v>
+        <v>278</v>
+      </c>
+      <c r="P4" t="s">
+        <v>304</v>
       </c>
       <c r="Q4" t="n">
         <v>0.065575</v>
@@ -1004,46 +1358,46 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K5" t="s">
-        <v>148</v>
+        <v>161</v>
+      </c>
+      <c r="J5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L5" t="s">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="M5" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="N5" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="O5" t="s">
-        <v>193</v>
-      </c>
-      <c r="P5" t="n">
-        <v>8.0025678E7</v>
+        <v>279</v>
+      </c>
+      <c r="P5" t="s">
+        <v>305</v>
       </c>
       <c r="Q5" t="n">
         <v>0.174922</v>
@@ -1084,76 +1438,76 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="I6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K6" t="s">
-        <v>149</v>
+        <v>162</v>
+      </c>
+      <c r="J6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L6" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="M6" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="N6" t="s">
-        <v>179</v>
+        <v>263</v>
       </c>
       <c r="O6" t="s">
-        <v>193</v>
-      </c>
-      <c r="P6" t="n">
-        <v>7.0177083E7</v>
+        <v>280</v>
+      </c>
+      <c r="P6" t="s">
+        <v>305</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.216033</v>
+        <v>0.477527</v>
       </c>
       <c r="R6" t="n">
-        <v>0.534474</v>
+        <v>0.530428</v>
       </c>
       <c r="S6" t="n">
-        <v>0.168338</v>
+        <v>0.170599</v>
       </c>
       <c r="T6" t="n">
-        <v>0.090367</v>
+        <v>0.062769</v>
       </c>
       <c r="U6" t="n">
-        <v>0.520245</v>
+        <v>0.573188</v>
       </c>
       <c r="V6" t="n">
-        <v>0.14124816846763263</v>
+        <v>0.26317117945275614</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3494534334734485</v>
+        <v>0.29232559075144765</v>
       </c>
       <c r="X6" t="n">
-        <v>0.11006389849469453</v>
+        <v>0.09401927020558155</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.05908436785081242</v>
+        <v>0.03459279111562289</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.340150131713412</v>
+        <v>0.3158911684745918</v>
       </c>
     </row>
     <row r="7">
@@ -1164,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="I7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J7" t="e">
-        <v>#N/A</v>
+        <v>163</v>
+      </c>
+      <c r="J7" t="s">
+        <v>191</v>
       </c>
       <c r="K7" t="e">
         <v>#N/A</v>
@@ -1193,17 +1547,17 @@
       <c r="L7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M7" t="s">
-        <v>168</v>
+      <c r="M7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N7" t="s">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="O7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P7" t="n">
-        <v>8.0144588E7</v>
+        <v>281</v>
+      </c>
+      <c r="P7" t="s">
+        <v>305</v>
       </c>
       <c r="Q7" t="n">
         <v>0.027752</v>
@@ -1244,46 +1598,46 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="I8" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="J8" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="K8" t="s">
-        <v>150</v>
-      </c>
-      <c r="L8" t="e">
-        <v>#N/A</v>
+        <v>216</v>
+      </c>
+      <c r="L8" t="s">
+        <v>231</v>
       </c>
       <c r="M8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N8" t="s">
-        <v>181</v>
+      <c r="N8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O8" t="s">
-        <v>192</v>
-      </c>
-      <c r="P8" t="n">
-        <v>8.0037759E7</v>
+        <v>282</v>
+      </c>
+      <c r="P8" t="s">
+        <v>304</v>
       </c>
       <c r="Q8" t="n">
         <v>0.119754</v>
@@ -1324,46 +1678,46 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K9" t="s">
-        <v>151</v>
+        <v>165</v>
+      </c>
+      <c r="J9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L9" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="M9" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="N9" t="s">
-        <v>182</v>
+        <v>265</v>
       </c>
       <c r="O9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P9" t="n">
-        <v>7.0184207E7</v>
+        <v>283</v>
+      </c>
+      <c r="P9" t="s">
+        <v>305</v>
       </c>
       <c r="Q9" t="n">
         <v>0.155662</v>
@@ -1404,46 +1758,46 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K10" t="s">
-        <v>152</v>
+        <v>166</v>
+      </c>
+      <c r="J10" t="s">
+        <v>194</v>
+      </c>
+      <c r="K10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L10" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="M10" t="s">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="N10" t="s">
-        <v>183</v>
+        <v>266</v>
       </c>
       <c r="O10" t="s">
-        <v>193</v>
-      </c>
-      <c r="P10" t="n">
-        <v>8.0025384E7</v>
+        <v>284</v>
+      </c>
+      <c r="P10" t="s">
+        <v>305</v>
       </c>
       <c r="Q10" t="n">
         <v>0.175798</v>
@@ -1484,28 +1838,28 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
-      </c>
-      <c r="J11" t="e">
-        <v>#N/A</v>
+        <v>167</v>
+      </c>
+      <c r="J11" t="s">
+        <v>195</v>
       </c>
       <c r="K11" t="e">
         <v>#N/A</v>
@@ -1513,17 +1867,17 @@
       <c r="L11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M11" t="s">
-        <v>171</v>
+      <c r="M11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N11" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="O11" t="s">
-        <v>193</v>
-      </c>
-      <c r="P11" t="n">
-        <v>8.000077E7</v>
+        <v>285</v>
+      </c>
+      <c r="P11" t="s">
+        <v>305</v>
       </c>
       <c r="Q11" t="n">
         <v>0.49291</v>
@@ -1564,46 +1918,46 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K12" t="s">
-        <v>153</v>
+        <v>168</v>
+      </c>
+      <c r="J12" t="s">
+        <v>196</v>
+      </c>
+      <c r="K12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L12" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="M12" t="s">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="N12" t="s">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="O12" t="s">
-        <v>193</v>
-      </c>
-      <c r="P12" t="n">
-        <v>8.0107369E7</v>
+        <v>286</v>
+      </c>
+      <c r="P12" t="s">
+        <v>305</v>
       </c>
       <c r="Q12" t="n">
         <v>0.167316</v>
@@ -1644,46 +1998,46 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
-      </c>
-      <c r="L13" t="e">
-        <v>#N/A</v>
+        <v>217</v>
+      </c>
+      <c r="L13" t="s">
+        <v>235</v>
       </c>
       <c r="M13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N13" t="s">
-        <v>186</v>
+      <c r="N13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O13" t="s">
-        <v>192</v>
-      </c>
-      <c r="P13" t="n">
-        <v>8.0097003E7</v>
+        <v>287</v>
+      </c>
+      <c r="P13" t="s">
+        <v>304</v>
       </c>
       <c r="Q13" t="n">
         <v>0.567008</v>
@@ -1724,46 +2078,46 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="H14" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
-      </c>
-      <c r="L14" t="e">
-        <v>#N/A</v>
+        <v>218</v>
+      </c>
+      <c r="L14" t="s">
+        <v>236</v>
       </c>
       <c r="M14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N14" t="s">
-        <v>187</v>
+      <c r="N14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O14" t="s">
-        <v>192</v>
-      </c>
-      <c r="P14" t="n">
-        <v>7.0052705E7</v>
+        <v>288</v>
+      </c>
+      <c r="P14" t="s">
+        <v>304</v>
       </c>
       <c r="Q14" t="n">
         <v>0.124213</v>
@@ -1804,31 +2158,31 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="H15" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
-      </c>
-      <c r="K15" t="e">
-        <v>#N/A</v>
+        <v>199</v>
+      </c>
+      <c r="K15" t="s">
+        <v>219</v>
       </c>
       <c r="L15" t="e">
         <v>#N/A</v>
@@ -1836,14 +2190,14 @@
       <c r="M15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N15" t="s">
-        <v>188</v>
+      <c r="N15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O15" t="s">
-        <v>192</v>
-      </c>
-      <c r="P15" t="n">
-        <v>8.0091741E7</v>
+        <v>289</v>
+      </c>
+      <c r="P15" t="s">
+        <v>304</v>
       </c>
       <c r="Q15" t="n">
         <v>0.424133</v>
@@ -1884,46 +2238,46 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="H16" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
-      </c>
-      <c r="J16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K16" t="s">
-        <v>156</v>
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="M16" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="N16" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="O16" t="s">
-        <v>193</v>
-      </c>
-      <c r="P16" t="n">
-        <v>8.011747E7</v>
+        <v>290</v>
+      </c>
+      <c r="P16" t="s">
+        <v>305</v>
       </c>
       <c r="Q16" t="n">
         <v>0.490106</v>
@@ -1964,46 +2318,46 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
-      </c>
-      <c r="J17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K17" t="s">
-        <v>157</v>
+        <v>173</v>
+      </c>
+      <c r="J17" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="M17" t="s">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="N17" t="s">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="O17" t="s">
-        <v>193</v>
-      </c>
-      <c r="P17" t="n">
-        <v>8.0053653E7</v>
+        <v>291</v>
+      </c>
+      <c r="P17" t="s">
+        <v>305</v>
       </c>
       <c r="Q17" t="n">
         <v>0.129567</v>
@@ -2044,46 +2398,46 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H18" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="I18" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
-      </c>
-      <c r="L18" t="e">
-        <v>#N/A</v>
+        <v>220</v>
+      </c>
+      <c r="L18" t="s">
+        <v>239</v>
       </c>
       <c r="M18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N18" t="s">
-        <v>191</v>
+      <c r="N18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O18" t="s">
-        <v>192</v>
-      </c>
-      <c r="P18" t="n">
-        <v>939827.0</v>
+        <v>292</v>
+      </c>
+      <c r="P18" t="s">
+        <v>304</v>
       </c>
       <c r="Q18" t="n">
         <v>0.526154</v>
@@ -2114,6 +2468,1046 @@
       </c>
       <c r="Z18" t="n">
         <v>0.28803868674877736</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L19" t="s">
+        <v>240</v>
+      </c>
+      <c r="M19" t="s">
+        <v>257</v>
+      </c>
+      <c r="N19" t="s">
+        <v>271</v>
+      </c>
+      <c r="O19" t="s">
+        <v>293</v>
+      </c>
+      <c r="P19" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.164188</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.477162</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.471317</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.1345</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.488327</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.0946059162405632</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.27494304215399185</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.2715751250076347</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.07749954767921986</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.2813763689185903</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" t="s">
+        <v>148</v>
+      </c>
+      <c r="I20" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L20" t="s">
+        <v>241</v>
+      </c>
+      <c r="M20" t="s">
+        <v>258</v>
+      </c>
+      <c r="N20" t="s">
+        <v>272</v>
+      </c>
+      <c r="O20" t="s">
+        <v>294</v>
+      </c>
+      <c r="P20" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.061578</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.060298</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.066129</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.672803</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.189517</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.05862756765762978</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.057408897246090496</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.06296051222240735</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.640566491324114</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.18043653154975842</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s">
+        <v>221</v>
+      </c>
+      <c r="L21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O21" t="s">
+        <v>295</v>
+      </c>
+      <c r="P21" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.065459</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.079983</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.017578</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.650084</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.14222</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.06852020885060985</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.08372342786321708</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.018400040195786976</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.6804853641277723</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.14887095896261374</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" t="s">
+        <v>242</v>
+      </c>
+      <c r="M22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O22" t="s">
+        <v>296</v>
+      </c>
+      <c r="P22" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.100766</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.109862</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.177525</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.4682</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.551387</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.07157997925753334</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.07804139969028372</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.1261063832810036</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.332589824825607</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.3916824129455723</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L23" t="s">
+        <v>243</v>
+      </c>
+      <c r="M23" t="s">
+        <v>259</v>
+      </c>
+      <c r="N23" t="s">
+        <v>273</v>
+      </c>
+      <c r="O23" t="s">
+        <v>297</v>
+      </c>
+      <c r="P23" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.493479</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.155615</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.145276</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.493399</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.57243</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.2652829079039393</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.08365502830611134</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.07809702080261305</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.26523990175244694</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.30772514123488937</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s">
+        <v>244</v>
+      </c>
+      <c r="M24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O24" t="s">
+        <v>298</v>
+      </c>
+      <c r="P24" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.210076</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.154098</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.147242</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.152245</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.562897</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.1712727812300764</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.12563449914313066</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.1200448735404278</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.12412376748592403</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.45892407860044127</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" t="s">
+        <v>181</v>
+      </c>
+      <c r="J25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L25" t="s">
+        <v>245</v>
+      </c>
+      <c r="M25" t="s">
+        <v>260</v>
+      </c>
+      <c r="N25" t="s">
+        <v>274</v>
+      </c>
+      <c r="O25" t="s">
+        <v>299</v>
+      </c>
+      <c r="P25" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.160748</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.122127</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.095575</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.586879</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.512366</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.10878293558548957</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.08264696029965589</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.06467843499504296</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3971584122569272</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3467332568628844</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L26" t="s">
+        <v>245</v>
+      </c>
+      <c r="M26" t="s">
+        <v>260</v>
+      </c>
+      <c r="N26" t="s">
+        <v>274</v>
+      </c>
+      <c r="O26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P26" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.160748</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.122127</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.095575</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.586879</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.512366</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.10878293558548957</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.08264696029965589</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.06467843499504296</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.3971584122569272</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.3467332568628844</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" t="s">
+        <v>181</v>
+      </c>
+      <c r="J27" t="s">
+        <v>194</v>
+      </c>
+      <c r="K27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L27" t="s">
+        <v>245</v>
+      </c>
+      <c r="M27" t="s">
+        <v>260</v>
+      </c>
+      <c r="N27" t="s">
+        <v>274</v>
+      </c>
+      <c r="O27" t="s">
+        <v>299</v>
+      </c>
+      <c r="P27" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.160748</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.122127</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.095575</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.586879</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.512366</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.10878293558548957</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.08264696029965589</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.06467843499504296</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.3971584122569272</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.3467332568628844</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I28" t="s">
+        <v>182</v>
+      </c>
+      <c r="J28" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L28" t="s">
+        <v>246</v>
+      </c>
+      <c r="M28" t="s">
+        <v>261</v>
+      </c>
+      <c r="N28" t="s">
+        <v>275</v>
+      </c>
+      <c r="O28" t="s">
+        <v>300</v>
+      </c>
+      <c r="P28" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" t="s">
+        <v>183</v>
+      </c>
+      <c r="J29" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s">
+        <v>247</v>
+      </c>
+      <c r="M29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O29" t="s">
+        <v>301</v>
+      </c>
+      <c r="P29" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.512609</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.137944</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.597309</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.099685</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.59042</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.26450863198392954</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.07117974661075241</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.3082142265580374</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.05143792438158132</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.30465947046569936</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" t="s">
+        <v>156</v>
+      </c>
+      <c r="I30" t="s">
+        <v>184</v>
+      </c>
+      <c r="J30" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O30" t="s">
+        <v>302</v>
+      </c>
+      <c r="P30" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.511676</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.144131</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.086427</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.494902</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.511574</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.29260197517026837</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.08242132772157762</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.04942328916744343</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.2830097614813205</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.29254364645939007</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" t="s">
+        <v>185</v>
+      </c>
+      <c r="J31" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" t="s">
+        <v>226</v>
+      </c>
+      <c r="L31" t="s">
+        <v>249</v>
+      </c>
+      <c r="M31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O31" t="s">
+        <v>303</v>
+      </c>
+      <c r="P31" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.482268</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.093134</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.142563</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.480844</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.537012</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.27783279497137087</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.05365414982305203</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.08213001225356761</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.27701243388575203</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.3093706090662574</v>
       </c>
     </row>
   </sheetData>
